--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dark totem top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/16/3</t>
   </si>
 </sst>
 </file>
@@ -214,6 +217,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -258,20 +262,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8F93C7"/>
-        <bgColor rgb="FF9999FF"/>
+        <fgColor rgb="FFE0EFD4"/>
+        <bgColor rgb="FFFFE5CA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE4E5"/>
         <bgColor rgb="FFC2E0AE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE0EFD4"/>
-        <bgColor rgb="FFFFE5CA"/>
       </patternFill>
     </fill>
     <fill>
@@ -295,13 +293,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF87D1D1"/>
-        <bgColor rgb="FFBCE4E5"/>
+        <bgColor rgb="FFADC5E7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC2E0AE"/>
         <bgColor rgb="FFBCE4E5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADC5E7"/>
+        <bgColor rgb="FF87D1D1"/>
       </patternFill>
     </fill>
   </fills>
@@ -339,7 +343,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -384,8 +388,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -435,18 +447,18 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFE0EFD4"/>
       <rgbColor rgb="FFFFE5CA"/>
-      <rgbColor rgb="FF87D1D1"/>
+      <rgbColor rgb="FFADC5E7"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFC7A0CB"/>
       <rgbColor rgb="FFFDC578"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF87D1D1"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF8F93C7"/>
+      <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -465,10 +477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ1"/>
+  <dimension ref="A1:BJ21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BD1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BI8" activeCellId="0" sqref="BI8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,9 +492,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.53"/>
@@ -490,10 +502,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="15.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="17.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="16.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="9.81"/>
@@ -507,15 +519,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="6.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="13.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="15.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="40" min="39" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="11.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="44" style="0" width="14.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="15.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="0" width="14.29"/>
@@ -525,7 +537,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="16.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="20.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="20.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15.22"/>
@@ -618,111 +630,1481 @@
       <c r="AA1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AG1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="8" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="9" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="AK1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AM1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="9" t="s">
+      <c r="AO1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="9" t="s">
+      <c r="AP1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="9" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="9" t="s">
+      <c r="AR1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="9" t="s">
+      <c r="AS1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="9" t="s">
+      <c r="AT1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="9" t="s">
+      <c r="AU1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="9" t="s">
+      <c r="AV1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="9" t="s">
+      <c r="AW1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="9" t="s">
+      <c r="AX1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="9" t="s">
+      <c r="AY1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="9" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="BA1" s="9" t="s">
+      <c r="BA1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="9" t="s">
+      <c r="BB1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="BC1" s="10" t="s">
+      <c r="BC1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="10" t="s">
+      <c r="BD1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="10" t="s">
+      <c r="BE1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="10" t="s">
+      <c r="BF1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="11" t="s">
+      <c r="BG1" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="11" t="s">
+      <c r="BH1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="11" t="s">
+      <c r="BI1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BJ1" s="10" t="s">
         <v>59</v>
       </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11"/>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="11"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="11"/>
+      <c r="AU2" s="11"/>
+      <c r="AV2" s="11"/>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12" t="n">
+        <v>370</v>
+      </c>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="12"/>
+      <c r="BB3" s="12"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
+      <c r="AL4" s="11"/>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="11"/>
+      <c r="AU4" s="11"/>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BC4" s="11"/>
+      <c r="BD4" s="11"/>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+    </row>
+    <row r="5" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="12"/>
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="12"/>
+      <c r="BE5" s="12"/>
+      <c r="BF5" s="12"/>
+      <c r="BG5" s="12"/>
+      <c r="BH5" s="12"/>
+      <c r="BI5" s="12"/>
+      <c r="BJ5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="11"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="11"/>
+      <c r="AF6" s="11"/>
+      <c r="AG6" s="11"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="11"/>
+      <c r="AJ6" s="11"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="11"/>
+      <c r="AN6" s="11"/>
+      <c r="AO6" s="11"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="11"/>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="11"/>
+      <c r="AU6" s="11"/>
+      <c r="AV6" s="11"/>
+      <c r="AW6" s="11"/>
+      <c r="AX6" s="11"/>
+      <c r="AY6" s="11"/>
+      <c r="AZ6" s="11"/>
+      <c r="BA6" s="11"/>
+      <c r="BB6" s="11"/>
+      <c r="BC6" s="11"/>
+      <c r="BD6" s="11"/>
+      <c r="BE6" s="11"/>
+      <c r="BF6" s="11"/>
+      <c r="BG6" s="11"/>
+      <c r="BH6" s="11"/>
+      <c r="BI6" s="11"/>
+      <c r="BJ6" s="11"/>
+    </row>
+    <row r="7" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="12"/>
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+      <c r="AW7" s="12"/>
+      <c r="AX7" s="12"/>
+      <c r="AY7" s="12"/>
+      <c r="AZ7" s="12"/>
+      <c r="BA7" s="12"/>
+      <c r="BB7" s="12"/>
+      <c r="BC7" s="12"/>
+      <c r="BD7" s="12"/>
+      <c r="BE7" s="12"/>
+      <c r="BF7" s="12"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="12"/>
+      <c r="BI7" s="12"/>
+      <c r="BJ7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="11"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="11"/>
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="11"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="11"/>
+      <c r="BB8" s="11"/>
+      <c r="BC8" s="11"/>
+      <c r="BD8" s="11"/>
+      <c r="BE8" s="11"/>
+      <c r="BF8" s="11"/>
+      <c r="BG8" s="11"/>
+      <c r="BH8" s="11"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="11"/>
+    </row>
+    <row r="9" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="12"/>
+      <c r="AU9" s="12"/>
+      <c r="AV9" s="12"/>
+      <c r="AW9" s="12"/>
+      <c r="AX9" s="12"/>
+      <c r="AY9" s="12"/>
+      <c r="AZ9" s="12"/>
+      <c r="BA9" s="12"/>
+      <c r="BB9" s="12"/>
+      <c r="BC9" s="12"/>
+      <c r="BD9" s="12"/>
+      <c r="BE9" s="12"/>
+      <c r="BF9" s="12"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="12"/>
+      <c r="BI9" s="12"/>
+      <c r="BJ9" s="12"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11"/>
+      <c r="AF10" s="11"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="11"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="11"/>
+      <c r="AP10" s="11"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="11"/>
+      <c r="BE10" s="11"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="11"/>
+      <c r="BI10" s="11"/>
+      <c r="BJ10" s="11"/>
+    </row>
+    <row r="11" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="12"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12"/>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="12"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="12"/>
+      <c r="AW11" s="12"/>
+      <c r="AX11" s="12"/>
+      <c r="AY11" s="12"/>
+      <c r="AZ11" s="12"/>
+      <c r="BA11" s="12"/>
+      <c r="BB11" s="12"/>
+      <c r="BC11" s="12"/>
+      <c r="BD11" s="12"/>
+      <c r="BE11" s="12"/>
+      <c r="BF11" s="12"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="12"/>
+      <c r="BI11" s="12"/>
+      <c r="BJ11" s="12"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="11"/>
+      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="11"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="11"/>
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="11"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
+      <c r="AW12" s="11"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
+      <c r="AZ12" s="11"/>
+      <c r="BA12" s="11"/>
+      <c r="BB12" s="11"/>
+      <c r="BC12" s="11"/>
+      <c r="BD12" s="11"/>
+      <c r="BE12" s="11"/>
+      <c r="BF12" s="11"/>
+      <c r="BG12" s="11"/>
+      <c r="BH12" s="11"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="11"/>
+    </row>
+    <row r="13" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="12"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+      <c r="BH13" s="12"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+      <c r="AZ14" s="11"/>
+      <c r="BA14" s="11"/>
+      <c r="BB14" s="11"/>
+      <c r="BC14" s="11"/>
+      <c r="BD14" s="11"/>
+      <c r="BE14" s="11"/>
+      <c r="BF14" s="11"/>
+      <c r="BG14" s="11"/>
+      <c r="BH14" s="11"/>
+      <c r="BI14" s="11"/>
+      <c r="BJ14" s="11"/>
+    </row>
+    <row r="15" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="12"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="12"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="12"/>
+      <c r="AW15" s="12"/>
+      <c r="AX15" s="12"/>
+      <c r="AY15" s="12"/>
+      <c r="AZ15" s="12"/>
+      <c r="BA15" s="12"/>
+      <c r="BB15" s="12"/>
+      <c r="BC15" s="12"/>
+      <c r="BD15" s="12"/>
+      <c r="BE15" s="12"/>
+      <c r="BF15" s="12"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="12"/>
+      <c r="BI15" s="12"/>
+      <c r="BJ15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+      <c r="AZ16" s="11"/>
+      <c r="BA16" s="11"/>
+      <c r="BB16" s="11"/>
+      <c r="BC16" s="11"/>
+      <c r="BD16" s="11"/>
+      <c r="BE16" s="11"/>
+      <c r="BF16" s="11"/>
+      <c r="BG16" s="11"/>
+      <c r="BH16" s="11"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="11"/>
+    </row>
+    <row r="17" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="12"/>
+      <c r="AK17" s="12"/>
+      <c r="AL17" s="12"/>
+      <c r="AM17" s="12"/>
+      <c r="AN17" s="12"/>
+      <c r="AO17" s="12"/>
+      <c r="AP17" s="12"/>
+      <c r="AQ17" s="12"/>
+      <c r="AR17" s="12"/>
+      <c r="AS17" s="12"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="12"/>
+      <c r="AW17" s="12"/>
+      <c r="AX17" s="12"/>
+      <c r="AY17" s="12"/>
+      <c r="AZ17" s="12"/>
+      <c r="BA17" s="12"/>
+      <c r="BB17" s="12"/>
+      <c r="BC17" s="12"/>
+      <c r="BD17" s="12"/>
+      <c r="BE17" s="12"/>
+      <c r="BF17" s="12"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="12"/>
+      <c r="BI17" s="12"/>
+      <c r="BJ17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+      <c r="AZ18" s="11"/>
+      <c r="BA18" s="11"/>
+      <c r="BB18" s="11"/>
+      <c r="BC18" s="11"/>
+      <c r="BD18" s="11"/>
+      <c r="BE18" s="11"/>
+      <c r="BF18" s="11"/>
+      <c r="BG18" s="11"/>
+      <c r="BH18" s="11"/>
+      <c r="BI18" s="11"/>
+      <c r="BJ18" s="11"/>
+    </row>
+    <row r="19" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+      <c r="AI19" s="12"/>
+      <c r="AJ19" s="12"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="12"/>
+      <c r="AW19" s="12"/>
+      <c r="AX19" s="12"/>
+      <c r="AY19" s="12"/>
+      <c r="AZ19" s="12"/>
+      <c r="BA19" s="12"/>
+      <c r="BB19" s="12"/>
+      <c r="BC19" s="12"/>
+      <c r="BD19" s="12"/>
+      <c r="BE19" s="12"/>
+      <c r="BF19" s="12"/>
+      <c r="BG19" s="12"/>
+      <c r="BH19" s="12"/>
+      <c r="BI19" s="12"/>
+      <c r="BJ19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="11"/>
+      <c r="AA20" s="11"/>
+      <c r="AB20" s="11"/>
+      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="11"/>
+      <c r="AF20" s="11"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="11"/>
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="11"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="11"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="11"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="11"/>
+      <c r="AV20" s="11"/>
+      <c r="AW20" s="11"/>
+      <c r="AX20" s="11"/>
+      <c r="AY20" s="11"/>
+      <c r="AZ20" s="11"/>
+      <c r="BA20" s="11"/>
+      <c r="BB20" s="11"/>
+      <c r="BC20" s="11"/>
+      <c r="BD20" s="11"/>
+      <c r="BE20" s="11"/>
+      <c r="BF20" s="11"/>
+      <c r="BG20" s="11"/>
+      <c r="BH20" s="11"/>
+      <c r="BI20" s="11"/>
+      <c r="BJ20" s="11"/>
+    </row>
+    <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="12"/>
+      <c r="AJ21" s="12"/>
+      <c r="AK21" s="12"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="12"/>
+      <c r="AN21" s="12"/>
+      <c r="AO21" s="12"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="12"/>
+      <c r="AR21" s="12"/>
+      <c r="AS21" s="12"/>
+      <c r="AT21" s="12"/>
+      <c r="AU21" s="12"/>
+      <c r="AV21" s="12"/>
+      <c r="AW21" s="12"/>
+      <c r="AX21" s="12"/>
+      <c r="AY21" s="12"/>
+      <c r="AZ21" s="12"/>
+      <c r="BA21" s="12"/>
+      <c r="BB21" s="12"/>
+      <c r="BC21" s="12"/>
+      <c r="BD21" s="12"/>
+      <c r="BE21" s="12"/>
+      <c r="BF21" s="12"/>
+      <c r="BG21" s="12"/>
+      <c r="BH21" s="12"/>
+      <c r="BI21" s="12"/>
+      <c r="BJ21" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -202,7 +202,10 @@
     <t xml:space="preserve">Dark totem top</t>
   </si>
   <si>
-    <t xml:space="preserve">2020/16/3</t>
+    <t xml:space="preserve">2020/3/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/3/18</t>
   </si>
 </sst>
 </file>
@@ -479,8 +482,8 @@
   </sheetPr>
   <dimension ref="A1:BJ393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A203" activeCellId="0" sqref="A203"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1315,14 +1318,22 @@
       <c r="BJ9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
+      <c r="A10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="H10" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1379,16 +1390,24 @@
       <c r="BJ10" s="11"/>
     </row>
     <row r="11" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="J11" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
@@ -1443,9 +1462,15 @@
       <c r="BJ11" s="12"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -1468,7 +1493,9 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
       <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
+      <c r="Z12" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
@@ -1507,9 +1534,15 @@
       <c r="BJ12" s="11"/>
     </row>
     <row r="13" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1543,7 +1576,9 @@
       <c r="AH13" s="12"/>
       <c r="AI13" s="12"/>
       <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
+      <c r="AK13" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="AL13" s="12"/>
       <c r="AM13" s="12"/>
       <c r="AN13" s="12"/>
@@ -1571,9 +1606,15 @@
       <c r="BJ13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
@@ -1596,7 +1637,9 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
       <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
+      <c r="Z14" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AA14" s="11"/>
       <c r="AB14" s="11"/>
       <c r="AC14" s="11"/>
@@ -1635,9 +1678,15 @@
       <c r="BJ14" s="11"/>
     </row>
     <row r="15" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1645,7 +1694,9 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="K15" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
@@ -1699,9 +1750,15 @@
       <c r="BJ15" s="12"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1736,7 +1793,9 @@
       <c r="AI16" s="11"/>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
-      <c r="AL16" s="11"/>
+      <c r="AL16" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
@@ -1763,14 +1822,22 @@
       <c r="BJ16" s="11"/>
     </row>
     <row r="17" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -1827,9 +1894,15 @@
       <c r="BJ17" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
+      <c r="A18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
@@ -1845,7 +1918,9 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="S18" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
       <c r="V18" s="11"/>
@@ -1891,9 +1966,15 @@
       <c r="BJ18" s="11"/>
     </row>
     <row r="19" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1923,7 +2004,9 @@
       <c r="AD19" s="12"/>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
+      <c r="AG19" s="12" t="n">
+        <v>3000</v>
+      </c>
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
       <c r="AJ19" s="12"/>
@@ -1955,9 +2038,15 @@
       <c r="BJ19" s="12"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
@@ -1976,7 +2065,9 @@
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
       <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
+      <c r="V20" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W20" s="11"/>
       <c r="X20" s="11"/>
       <c r="Y20" s="11"/>
@@ -2019,9 +2110,15 @@
       <c r="BJ20" s="11"/>
     </row>
     <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -2031,7 +2128,9 @@
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
+      <c r="M21" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
@@ -2083,9 +2182,15 @@
       <c r="BJ21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2098,7 +2203,9 @@
       <c r="M22" s="11"/>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="P22" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -2147,9 +2254,15 @@
       <c r="BJ22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="A23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2167,7 +2280,9 @@
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
+      <c r="U23" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12"/>
@@ -2211,9 +2326,15 @@
       <c r="BJ23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
+      <c r="A24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -2227,7 +2348,9 @@
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+      <c r="Q24" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -2266,7 +2389,9 @@
       <c r="BA24" s="11"/>
       <c r="BB24" s="11"/>
       <c r="BC24" s="11"/>
-      <c r="BD24" s="11"/>
+      <c r="BD24" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
       <c r="BG24" s="11"/>
@@ -2275,9 +2400,15 @@
       <c r="BJ24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -2286,7 +2417,9 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
+      <c r="L25" s="12" t="n">
+        <v>20</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
@@ -2339,16 +2472,24 @@
       <c r="BJ25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
+      <c r="A26" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="J26" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="11"/>
@@ -2403,9 +2544,15 @@
       <c r="BJ26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -2435,7 +2582,9 @@
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
-      <c r="AG27" s="12"/>
+      <c r="AG27" s="12" t="n">
+        <v>370</v>
+      </c>
       <c r="AH27" s="12"/>
       <c r="AI27" s="12"/>
       <c r="AJ27" s="12"/>
@@ -2467,9 +2616,15 @@
       <c r="BJ27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="A28" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -2490,7 +2645,9 @@
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
       <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
+      <c r="X28" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
@@ -2531,9 +2688,15 @@
       <c r="BJ28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -2543,7 +2706,9 @@
       <c r="J29" s="12"/>
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="M29" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
@@ -2595,9 +2760,15 @@
       <c r="BJ29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
+      <c r="A30" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -2618,7 +2789,9 @@
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
       <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
+      <c r="X30" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>

--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/3/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/3/19</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ393"/>
+  <dimension ref="A1:AMJ393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,18 +540,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="0" width="12.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="50" style="0" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="51" min="51" style="0" width="14.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="16.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="20.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="15.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="13.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="15.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="63" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="52" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="0" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="20.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="55" min="55" style="0" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="56" style="0" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="13.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="15.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="0" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="62" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -706,36 +708,33 @@
         <v>50</v>
       </c>
       <c r="AZ1" s="8" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="BA1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="BB1" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="BC1" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BD1" s="9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BE1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="BF1" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="BF1" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="BG1" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BH1" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="BI1" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="BJ1" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -808,8 +807,7 @@
       <c r="BF2" s="11"/>
       <c r="BG2" s="11"/>
       <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11" t="n">
+      <c r="BI2" s="11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -883,7 +881,7 @@
       <c r="BG3" s="12"/>
       <c r="BH3" s="12"/>
       <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
@@ -955,7 +953,6 @@
       <c r="BG4" s="11"/>
       <c r="BH4" s="11"/>
       <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
     </row>
     <row r="5" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
@@ -1027,7 +1024,7 @@
       <c r="BG5" s="12"/>
       <c r="BH5" s="12"/>
       <c r="BI5" s="12"/>
-      <c r="BJ5" s="12"/>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
@@ -1099,7 +1096,6 @@
       <c r="BG6" s="11"/>
       <c r="BH6" s="11"/>
       <c r="BI6" s="11"/>
-      <c r="BJ6" s="11"/>
     </row>
     <row r="7" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12" t="s">
@@ -1171,7 +1167,7 @@
       <c r="BG7" s="12"/>
       <c r="BH7" s="12"/>
       <c r="BI7" s="12"/>
-      <c r="BJ7" s="12"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
@@ -1243,7 +1239,6 @@
       <c r="BG8" s="11"/>
       <c r="BH8" s="11"/>
       <c r="BI8" s="11"/>
-      <c r="BJ8" s="11"/>
     </row>
     <row r="9" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
@@ -1315,7 +1310,7 @@
       <c r="BG9" s="12"/>
       <c r="BH9" s="12"/>
       <c r="BI9" s="12"/>
-      <c r="BJ9" s="12"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
@@ -1387,7 +1382,6 @@
       <c r="BG10" s="11"/>
       <c r="BH10" s="11"/>
       <c r="BI10" s="11"/>
-      <c r="BJ10" s="11"/>
     </row>
     <row r="11" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12" t="s">
@@ -1459,7 +1453,7 @@
       <c r="BG11" s="12"/>
       <c r="BH11" s="12"/>
       <c r="BI11" s="12"/>
-      <c r="BJ11" s="12"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
@@ -1531,7 +1525,6 @@
       <c r="BG12" s="11"/>
       <c r="BH12" s="11"/>
       <c r="BI12" s="11"/>
-      <c r="BJ12" s="11"/>
     </row>
     <row r="13" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12" t="s">
@@ -1603,7 +1596,7 @@
       <c r="BG13" s="12"/>
       <c r="BH13" s="12"/>
       <c r="BI13" s="12"/>
-      <c r="BJ13" s="12"/>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
@@ -1675,7 +1668,6 @@
       <c r="BG14" s="11"/>
       <c r="BH14" s="11"/>
       <c r="BI14" s="11"/>
-      <c r="BJ14" s="11"/>
     </row>
     <row r="15" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12" t="s">
@@ -1747,7 +1739,7 @@
       <c r="BG15" s="12"/>
       <c r="BH15" s="12"/>
       <c r="BI15" s="12"/>
-      <c r="BJ15" s="12"/>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
@@ -1819,7 +1811,6 @@
       <c r="BG16" s="11"/>
       <c r="BH16" s="11"/>
       <c r="BI16" s="11"/>
-      <c r="BJ16" s="11"/>
     </row>
     <row r="17" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
@@ -1891,7 +1882,7 @@
       <c r="BG17" s="12"/>
       <c r="BH17" s="12"/>
       <c r="BI17" s="12"/>
-      <c r="BJ17" s="12"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
@@ -1963,7 +1954,6 @@
       <c r="BG18" s="11"/>
       <c r="BH18" s="11"/>
       <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
     </row>
     <row r="19" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12" t="s">
@@ -2035,7 +2025,7 @@
       <c r="BG19" s="12"/>
       <c r="BH19" s="12"/>
       <c r="BI19" s="12"/>
-      <c r="BJ19" s="12"/>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
@@ -2107,7 +2097,6 @@
       <c r="BG20" s="11"/>
       <c r="BH20" s="11"/>
       <c r="BI20" s="11"/>
-      <c r="BJ20" s="11"/>
     </row>
     <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12" t="s">
@@ -2179,7 +2168,7 @@
       <c r="BG21" s="12"/>
       <c r="BH21" s="12"/>
       <c r="BI21" s="12"/>
-      <c r="BJ21" s="12"/>
+      <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
@@ -2251,7 +2240,6 @@
       <c r="BG22" s="11"/>
       <c r="BH22" s="11"/>
       <c r="BI22" s="11"/>
-      <c r="BJ22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12" t="s">
@@ -2323,7 +2311,6 @@
       <c r="BG23" s="12"/>
       <c r="BH23" s="12"/>
       <c r="BI23" s="12"/>
-      <c r="BJ23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
@@ -2388,16 +2375,15 @@
       <c r="AZ24" s="11"/>
       <c r="BA24" s="11"/>
       <c r="BB24" s="11"/>
-      <c r="BC24" s="11"/>
-      <c r="BD24" s="11" t="n">
+      <c r="BC24" s="11" t="n">
         <v>1</v>
       </c>
+      <c r="BD24" s="11"/>
       <c r="BE24" s="11"/>
       <c r="BF24" s="11"/>
       <c r="BG24" s="11"/>
       <c r="BH24" s="11"/>
       <c r="BI24" s="11"/>
-      <c r="BJ24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
@@ -2469,7 +2455,6 @@
       <c r="BG25" s="12"/>
       <c r="BH25" s="12"/>
       <c r="BI25" s="12"/>
-      <c r="BJ25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
@@ -2541,7 +2526,6 @@
       <c r="BG26" s="11"/>
       <c r="BH26" s="11"/>
       <c r="BI26" s="11"/>
-      <c r="BJ26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12" t="s">
@@ -2613,7 +2597,6 @@
       <c r="BG27" s="12"/>
       <c r="BH27" s="12"/>
       <c r="BI27" s="12"/>
-      <c r="BJ27" s="12"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
@@ -2685,7 +2668,6 @@
       <c r="BG28" s="11"/>
       <c r="BH28" s="11"/>
       <c r="BI28" s="11"/>
-      <c r="BJ28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
@@ -2757,7 +2739,6 @@
       <c r="BG29" s="12"/>
       <c r="BH29" s="12"/>
       <c r="BI29" s="12"/>
-      <c r="BJ29" s="12"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11" t="s">
@@ -2829,12 +2810,17 @@
       <c r="BG30" s="11"/>
       <c r="BH30" s="11"/>
       <c r="BI30" s="11"/>
-      <c r="BJ30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -2859,7 +2845,9 @@
       <c r="Y31" s="12"/>
       <c r="Z31" s="12"/>
       <c r="AA31" s="12"/>
-      <c r="AB31" s="12"/>
+      <c r="AB31" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="AC31" s="12"/>
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
@@ -2893,12 +2881,17 @@
       <c r="BG31" s="12"/>
       <c r="BH31" s="12"/>
       <c r="BI31" s="12"/>
-      <c r="BJ31" s="12"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
+      <c r="A32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -2918,7 +2911,9 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
+      <c r="W32" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
@@ -2949,7 +2944,9 @@
       <c r="AY32" s="11"/>
       <c r="AZ32" s="11"/>
       <c r="BA32" s="11"/>
-      <c r="BB32" s="11"/>
+      <c r="BB32" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BC32" s="11"/>
       <c r="BD32" s="11"/>
       <c r="BE32" s="11"/>
@@ -2957,12 +2954,17 @@
       <c r="BG32" s="11"/>
       <c r="BH32" s="11"/>
       <c r="BI32" s="11"/>
-      <c r="BJ32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -2984,7 +2986,9 @@
       <c r="V33" s="12"/>
       <c r="W33" s="12"/>
       <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
+      <c r="Y33" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="Z33" s="12"/>
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
@@ -3021,12 +3025,17 @@
       <c r="BG33" s="12"/>
       <c r="BH33" s="12"/>
       <c r="BI33" s="12"/>
-      <c r="BJ33" s="12"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="A34" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -3039,7 +3048,9 @@
       <c r="M34" s="11"/>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
+      <c r="P34" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
@@ -3085,12 +3096,17 @@
       <c r="BG34" s="11"/>
       <c r="BH34" s="11"/>
       <c r="BI34" s="11"/>
-      <c r="BJ34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -3111,7 +3127,9 @@
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
       <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
+      <c r="X35" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y35" s="12"/>
       <c r="Z35" s="12"/>
       <c r="AA35" s="12"/>
@@ -3149,19 +3167,26 @@
       <c r="BG35" s="12"/>
       <c r="BH35" s="12"/>
       <c r="BI35" s="12"/>
-      <c r="BJ35" s="12"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
+      <c r="A36" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="J36" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="11"/>
@@ -3213,12 +3238,17 @@
       <c r="BG36" s="11"/>
       <c r="BH36" s="11"/>
       <c r="BI36" s="11"/>
-      <c r="BJ36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D37" s="12"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -3226,7 +3256,9 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
+      <c r="K37" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="L37" s="12"/>
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
@@ -3269,7 +3301,9 @@
       <c r="AY37" s="12"/>
       <c r="AZ37" s="12"/>
       <c r="BA37" s="12"/>
-      <c r="BB37" s="12"/>
+      <c r="BB37" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BC37" s="12"/>
       <c r="BD37" s="12"/>
       <c r="BE37" s="12"/>
@@ -3277,19 +3311,26 @@
       <c r="BG37" s="12"/>
       <c r="BH37" s="12"/>
       <c r="BI37" s="12"/>
-      <c r="BJ37" s="12"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
+      <c r="A38" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="J38" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
       <c r="M38" s="11"/>
@@ -3341,12 +3382,17 @@
       <c r="BG38" s="11"/>
       <c r="BH38" s="11"/>
       <c r="BI38" s="11"/>
-      <c r="BJ38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
+      <c r="A39" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -3355,7 +3401,9 @@
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="L39" s="12" t="n">
+        <v>20</v>
+      </c>
       <c r="M39" s="12"/>
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
@@ -3405,12 +3453,17 @@
       <c r="BG39" s="12"/>
       <c r="BH39" s="12"/>
       <c r="BI39" s="12"/>
-      <c r="BJ39" s="12"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
@@ -3429,7 +3482,9 @@
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
+      <c r="V40" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
@@ -3469,12 +3524,17 @@
       <c r="BG40" s="11"/>
       <c r="BH40" s="11"/>
       <c r="BI40" s="11"/>
-      <c r="BJ40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+      <c r="A41" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -3497,7 +3557,9 @@
       <c r="W41" s="12"/>
       <c r="X41" s="12"/>
       <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
+      <c r="Z41" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
       <c r="AC41" s="12"/>
@@ -3533,12 +3595,17 @@
       <c r="BG41" s="12"/>
       <c r="BH41" s="12"/>
       <c r="BI41" s="12"/>
-      <c r="BJ41" s="12"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
@@ -3546,7 +3613,9 @@
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
+      <c r="K42" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="L42" s="11"/>
       <c r="M42" s="11"/>
       <c r="N42" s="11"/>
@@ -3597,12 +3666,17 @@
       <c r="BG42" s="11"/>
       <c r="BH42" s="11"/>
       <c r="BI42" s="11"/>
-      <c r="BJ42" s="11"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -3610,7 +3684,9 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
+      <c r="K43" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="L43" s="12"/>
       <c r="M43" s="12"/>
       <c r="N43" s="12"/>
@@ -3661,12 +3737,17 @@
       <c r="BG43" s="12"/>
       <c r="BH43" s="12"/>
       <c r="BI43" s="12"/>
-      <c r="BJ43" s="12"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
+      <c r="A44" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
@@ -3678,7 +3759,9 @@
       <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
+      <c r="O44" s="11" t="n">
+        <v>25</v>
+      </c>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
@@ -3725,12 +3808,17 @@
       <c r="BG44" s="11"/>
       <c r="BH44" s="11"/>
       <c r="BI44" s="11"/>
-      <c r="BJ44" s="11"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
+      <c r="A45" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -3754,7 +3842,9 @@
       <c r="X45" s="12"/>
       <c r="Y45" s="12"/>
       <c r="Z45" s="12"/>
-      <c r="AA45" s="12"/>
+      <c r="AA45" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AB45" s="12"/>
       <c r="AC45" s="12"/>
       <c r="AD45" s="12"/>
@@ -3789,12 +3879,17 @@
       <c r="BG45" s="12"/>
       <c r="BH45" s="12"/>
       <c r="BI45" s="12"/>
-      <c r="BJ45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="A46" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="11"/>
@@ -3802,7 +3897,9 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
+      <c r="K46" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="L46" s="11"/>
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
@@ -3853,12 +3950,17 @@
       <c r="BG46" s="11"/>
       <c r="BH46" s="11"/>
       <c r="BI46" s="11"/>
-      <c r="BJ46" s="11"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
+      <c r="A47" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -3885,7 +3987,9 @@
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
       <c r="AC47" s="12"/>
-      <c r="AD47" s="12"/>
+      <c r="AD47" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="AE47" s="12"/>
       <c r="AF47" s="12"/>
       <c r="AG47" s="12"/>
@@ -3913,16 +4017,23 @@
       <c r="BC47" s="12"/>
       <c r="BD47" s="12"/>
       <c r="BE47" s="12"/>
-      <c r="BF47" s="12"/>
+      <c r="BF47" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BG47" s="12"/>
       <c r="BH47" s="12"/>
       <c r="BI47" s="12"/>
-      <c r="BJ47" s="12"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
+      <c r="A48" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -3932,7 +4043,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="11"/>
       <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
+      <c r="M48" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -3981,12 +4094,17 @@
       <c r="BG48" s="11"/>
       <c r="BH48" s="11"/>
       <c r="BI48" s="11"/>
-      <c r="BJ48" s="11"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="A49" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -4017,7 +4135,9 @@
       <c r="AE49" s="12"/>
       <c r="AF49" s="12"/>
       <c r="AG49" s="12"/>
-      <c r="AH49" s="12"/>
+      <c r="AH49" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI49" s="12"/>
       <c r="AJ49" s="12"/>
       <c r="AK49" s="12"/>
@@ -4045,12 +4165,17 @@
       <c r="BG49" s="12"/>
       <c r="BH49" s="12"/>
       <c r="BI49" s="12"/>
-      <c r="BJ49" s="12"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="A50" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B50" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
@@ -4071,7 +4196,9 @@
       <c r="U50" s="11"/>
       <c r="V50" s="11"/>
       <c r="W50" s="11"/>
-      <c r="X50" s="11"/>
+      <c r="X50" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
       <c r="AA50" s="11"/>
@@ -4109,12 +4236,17 @@
       <c r="BG50" s="11"/>
       <c r="BH50" s="11"/>
       <c r="BI50" s="11"/>
-      <c r="BJ50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
+      <c r="A51" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -4135,7 +4267,9 @@
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
+      <c r="X51" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y51" s="12"/>
       <c r="Z51" s="12"/>
       <c r="AA51" s="12"/>
@@ -4173,12 +4307,17 @@
       <c r="BG51" s="12"/>
       <c r="BH51" s="12"/>
       <c r="BI51" s="12"/>
-      <c r="BJ51" s="12"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
+      <c r="A52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D52" s="11"/>
       <c r="E52" s="11"/>
       <c r="F52" s="11"/>
@@ -4202,7 +4341,9 @@
       <c r="X52" s="11"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
-      <c r="AA52" s="11"/>
+      <c r="AA52" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB52" s="11"/>
       <c r="AC52" s="11"/>
       <c r="AD52" s="11"/>
@@ -4237,12 +4378,17 @@
       <c r="BG52" s="11"/>
       <c r="BH52" s="11"/>
       <c r="BI52" s="11"/>
-      <c r="BJ52" s="11"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
+      <c r="A53" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -4266,7 +4412,9 @@
       <c r="X53" s="12"/>
       <c r="Y53" s="12"/>
       <c r="Z53" s="12"/>
-      <c r="AA53" s="12"/>
+      <c r="AA53" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AB53" s="12"/>
       <c r="AC53" s="12"/>
       <c r="AD53" s="12"/>
@@ -4301,12 +4449,17 @@
       <c r="BG53" s="12"/>
       <c r="BH53" s="12"/>
       <c r="BI53" s="12"/>
-      <c r="BJ53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
+      <c r="A54" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -4336,7 +4489,9 @@
       <c r="AD54" s="11"/>
       <c r="AE54" s="11"/>
       <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
+      <c r="AG54" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH54" s="11"/>
       <c r="AI54" s="11"/>
       <c r="AJ54" s="11"/>
@@ -4365,12 +4520,17 @@
       <c r="BG54" s="11"/>
       <c r="BH54" s="11"/>
       <c r="BI54" s="11"/>
-      <c r="BJ54" s="11"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -4380,7 +4540,9 @@
       <c r="J55" s="12"/>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
+      <c r="M55" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="12"/>
@@ -4429,12 +4591,17 @@
       <c r="BG55" s="12"/>
       <c r="BH55" s="12"/>
       <c r="BI55" s="12"/>
-      <c r="BJ55" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="A56" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -4453,7 +4620,9 @@
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
       <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
+      <c r="V56" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W56" s="11"/>
       <c r="X56" s="11"/>
       <c r="Y56" s="11"/>
@@ -4493,7 +4662,6 @@
       <c r="BG56" s="11"/>
       <c r="BH56" s="11"/>
       <c r="BI56" s="11"/>
-      <c r="BJ56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="12"/>
@@ -4557,7 +4725,6 @@
       <c r="BG57" s="12"/>
       <c r="BH57" s="12"/>
       <c r="BI57" s="12"/>
-      <c r="BJ57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11"/>
@@ -4621,7 +4788,6 @@
       <c r="BG58" s="11"/>
       <c r="BH58" s="11"/>
       <c r="BI58" s="11"/>
-      <c r="BJ58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="12"/>
@@ -4685,7 +4851,6 @@
       <c r="BG59" s="12"/>
       <c r="BH59" s="12"/>
       <c r="BI59" s="12"/>
-      <c r="BJ59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11"/>
@@ -4749,7 +4914,6 @@
       <c r="BG60" s="11"/>
       <c r="BH60" s="11"/>
       <c r="BI60" s="11"/>
-      <c r="BJ60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="12"/>
@@ -4813,7 +4977,6 @@
       <c r="BG61" s="12"/>
       <c r="BH61" s="12"/>
       <c r="BI61" s="12"/>
-      <c r="BJ61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11"/>
@@ -4877,7 +5040,6 @@
       <c r="BG62" s="11"/>
       <c r="BH62" s="11"/>
       <c r="BI62" s="11"/>
-      <c r="BJ62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="12"/>
@@ -4941,7 +5103,6 @@
       <c r="BG63" s="12"/>
       <c r="BH63" s="12"/>
       <c r="BI63" s="12"/>
-      <c r="BJ63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11"/>
@@ -5005,7 +5166,6 @@
       <c r="BG64" s="11"/>
       <c r="BH64" s="11"/>
       <c r="BI64" s="11"/>
-      <c r="BJ64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="12"/>
@@ -5069,7 +5229,6 @@
       <c r="BG65" s="12"/>
       <c r="BH65" s="12"/>
       <c r="BI65" s="12"/>
-      <c r="BJ65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11"/>
@@ -5133,7 +5292,6 @@
       <c r="BG66" s="11"/>
       <c r="BH66" s="11"/>
       <c r="BI66" s="11"/>
-      <c r="BJ66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12"/>
@@ -5197,7 +5355,6 @@
       <c r="BG67" s="12"/>
       <c r="BH67" s="12"/>
       <c r="BI67" s="12"/>
-      <c r="BJ67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11"/>
@@ -5261,7 +5418,6 @@
       <c r="BG68" s="11"/>
       <c r="BH68" s="11"/>
       <c r="BI68" s="11"/>
-      <c r="BJ68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="12"/>
@@ -5325,7 +5481,6 @@
       <c r="BG69" s="12"/>
       <c r="BH69" s="12"/>
       <c r="BI69" s="12"/>
-      <c r="BJ69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11"/>
@@ -5389,7 +5544,6 @@
       <c r="BG70" s="11"/>
       <c r="BH70" s="11"/>
       <c r="BI70" s="11"/>
-      <c r="BJ70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="12"/>
@@ -5453,7 +5607,6 @@
       <c r="BG71" s="12"/>
       <c r="BH71" s="12"/>
       <c r="BI71" s="12"/>
-      <c r="BJ71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11"/>
@@ -5517,7 +5670,6 @@
       <c r="BG72" s="11"/>
       <c r="BH72" s="11"/>
       <c r="BI72" s="11"/>
-      <c r="BJ72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12"/>
@@ -5581,7 +5733,6 @@
       <c r="BG73" s="12"/>
       <c r="BH73" s="12"/>
       <c r="BI73" s="12"/>
-      <c r="BJ73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="11"/>
@@ -5645,7 +5796,6 @@
       <c r="BG74" s="11"/>
       <c r="BH74" s="11"/>
       <c r="BI74" s="11"/>
-      <c r="BJ74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="12"/>
@@ -5709,7 +5859,6 @@
       <c r="BG75" s="12"/>
       <c r="BH75" s="12"/>
       <c r="BI75" s="12"/>
-      <c r="BJ75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="11"/>
@@ -5773,7 +5922,6 @@
       <c r="BG76" s="11"/>
       <c r="BH76" s="11"/>
       <c r="BI76" s="11"/>
-      <c r="BJ76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="12"/>
@@ -5837,7 +5985,6 @@
       <c r="BG77" s="12"/>
       <c r="BH77" s="12"/>
       <c r="BI77" s="12"/>
-      <c r="BJ77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="11"/>
@@ -5901,7 +6048,6 @@
       <c r="BG78" s="11"/>
       <c r="BH78" s="11"/>
       <c r="BI78" s="11"/>
-      <c r="BJ78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="12"/>
@@ -5965,7 +6111,6 @@
       <c r="BG79" s="12"/>
       <c r="BH79" s="12"/>
       <c r="BI79" s="12"/>
-      <c r="BJ79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="11"/>
@@ -6029,7 +6174,6 @@
       <c r="BG80" s="11"/>
       <c r="BH80" s="11"/>
       <c r="BI80" s="11"/>
-      <c r="BJ80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="12"/>
@@ -6093,7 +6237,6 @@
       <c r="BG81" s="12"/>
       <c r="BH81" s="12"/>
       <c r="BI81" s="12"/>
-      <c r="BJ81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="11"/>
@@ -6157,7 +6300,6 @@
       <c r="BG82" s="11"/>
       <c r="BH82" s="11"/>
       <c r="BI82" s="11"/>
-      <c r="BJ82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="12"/>
@@ -6221,7 +6363,6 @@
       <c r="BG83" s="12"/>
       <c r="BH83" s="12"/>
       <c r="BI83" s="12"/>
-      <c r="BJ83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="11"/>
@@ -6285,7 +6426,6 @@
       <c r="BG84" s="11"/>
       <c r="BH84" s="11"/>
       <c r="BI84" s="11"/>
-      <c r="BJ84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="12"/>
@@ -6349,7 +6489,6 @@
       <c r="BG85" s="12"/>
       <c r="BH85" s="12"/>
       <c r="BI85" s="12"/>
-      <c r="BJ85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11"/>
@@ -6413,7 +6552,6 @@
       <c r="BG86" s="11"/>
       <c r="BH86" s="11"/>
       <c r="BI86" s="11"/>
-      <c r="BJ86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="12"/>
@@ -6477,7 +6615,6 @@
       <c r="BG87" s="12"/>
       <c r="BH87" s="12"/>
       <c r="BI87" s="12"/>
-      <c r="BJ87" s="12"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="11"/>
@@ -6541,7 +6678,6 @@
       <c r="BG88" s="11"/>
       <c r="BH88" s="11"/>
       <c r="BI88" s="11"/>
-      <c r="BJ88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="12"/>
@@ -6605,7 +6741,6 @@
       <c r="BG89" s="12"/>
       <c r="BH89" s="12"/>
       <c r="BI89" s="12"/>
-      <c r="BJ89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="11"/>
@@ -6669,7 +6804,6 @@
       <c r="BG90" s="11"/>
       <c r="BH90" s="11"/>
       <c r="BI90" s="11"/>
-      <c r="BJ90" s="11"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="12"/>
@@ -6733,7 +6867,6 @@
       <c r="BG91" s="12"/>
       <c r="BH91" s="12"/>
       <c r="BI91" s="12"/>
-      <c r="BJ91" s="12"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="11"/>
@@ -6797,7 +6930,6 @@
       <c r="BG92" s="11"/>
       <c r="BH92" s="11"/>
       <c r="BI92" s="11"/>
-      <c r="BJ92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="12"/>
@@ -6861,7 +6993,6 @@
       <c r="BG93" s="12"/>
       <c r="BH93" s="12"/>
       <c r="BI93" s="12"/>
-      <c r="BJ93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11"/>
@@ -6925,7 +7056,6 @@
       <c r="BG94" s="11"/>
       <c r="BH94" s="11"/>
       <c r="BI94" s="11"/>
-      <c r="BJ94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="12"/>
@@ -6989,7 +7119,6 @@
       <c r="BG95" s="12"/>
       <c r="BH95" s="12"/>
       <c r="BI95" s="12"/>
-      <c r="BJ95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="11"/>
@@ -7053,7 +7182,6 @@
       <c r="BG96" s="11"/>
       <c r="BH96" s="11"/>
       <c r="BI96" s="11"/>
-      <c r="BJ96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="12"/>
@@ -7117,7 +7245,6 @@
       <c r="BG97" s="12"/>
       <c r="BH97" s="12"/>
       <c r="BI97" s="12"/>
-      <c r="BJ97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="11"/>
@@ -7181,7 +7308,6 @@
       <c r="BG98" s="11"/>
       <c r="BH98" s="11"/>
       <c r="BI98" s="11"/>
-      <c r="BJ98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="12"/>
@@ -7245,7 +7371,6 @@
       <c r="BG99" s="12"/>
       <c r="BH99" s="12"/>
       <c r="BI99" s="12"/>
-      <c r="BJ99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="11"/>
@@ -7309,7 +7434,6 @@
       <c r="BG100" s="11"/>
       <c r="BH100" s="11"/>
       <c r="BI100" s="11"/>
-      <c r="BJ100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="12"/>
@@ -7373,7 +7497,6 @@
       <c r="BG101" s="12"/>
       <c r="BH101" s="12"/>
       <c r="BI101" s="12"/>
-      <c r="BJ101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="11"/>
@@ -7437,7 +7560,6 @@
       <c r="BG102" s="11"/>
       <c r="BH102" s="11"/>
       <c r="BI102" s="11"/>
-      <c r="BJ102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="12"/>
@@ -7501,7 +7623,6 @@
       <c r="BG103" s="12"/>
       <c r="BH103" s="12"/>
       <c r="BI103" s="12"/>
-      <c r="BJ103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="11"/>
@@ -7565,7 +7686,6 @@
       <c r="BG104" s="11"/>
       <c r="BH104" s="11"/>
       <c r="BI104" s="11"/>
-      <c r="BJ104" s="11"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="12"/>
@@ -7629,7 +7749,6 @@
       <c r="BG105" s="12"/>
       <c r="BH105" s="12"/>
       <c r="BI105" s="12"/>
-      <c r="BJ105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="11"/>
@@ -7693,7 +7812,6 @@
       <c r="BG106" s="11"/>
       <c r="BH106" s="11"/>
       <c r="BI106" s="11"/>
-      <c r="BJ106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="12"/>
@@ -7757,7 +7875,6 @@
       <c r="BG107" s="12"/>
       <c r="BH107" s="12"/>
       <c r="BI107" s="12"/>
-      <c r="BJ107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="11"/>
@@ -7821,7 +7938,6 @@
       <c r="BG108" s="11"/>
       <c r="BH108" s="11"/>
       <c r="BI108" s="11"/>
-      <c r="BJ108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="12"/>
@@ -7885,7 +8001,6 @@
       <c r="BG109" s="12"/>
       <c r="BH109" s="12"/>
       <c r="BI109" s="12"/>
-      <c r="BJ109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="11"/>
@@ -7949,7 +8064,6 @@
       <c r="BG110" s="11"/>
       <c r="BH110" s="11"/>
       <c r="BI110" s="11"/>
-      <c r="BJ110" s="11"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="12"/>
@@ -8013,7 +8127,6 @@
       <c r="BG111" s="12"/>
       <c r="BH111" s="12"/>
       <c r="BI111" s="12"/>
-      <c r="BJ111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="11"/>
@@ -8077,7 +8190,6 @@
       <c r="BG112" s="11"/>
       <c r="BH112" s="11"/>
       <c r="BI112" s="11"/>
-      <c r="BJ112" s="11"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="12"/>
@@ -8141,7 +8253,6 @@
       <c r="BG113" s="12"/>
       <c r="BH113" s="12"/>
       <c r="BI113" s="12"/>
-      <c r="BJ113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="11"/>
@@ -8205,7 +8316,6 @@
       <c r="BG114" s="11"/>
       <c r="BH114" s="11"/>
       <c r="BI114" s="11"/>
-      <c r="BJ114" s="11"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="12"/>
@@ -8269,7 +8379,6 @@
       <c r="BG115" s="12"/>
       <c r="BH115" s="12"/>
       <c r="BI115" s="12"/>
-      <c r="BJ115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="11"/>
@@ -8333,7 +8442,6 @@
       <c r="BG116" s="11"/>
       <c r="BH116" s="11"/>
       <c r="BI116" s="11"/>
-      <c r="BJ116" s="11"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="12"/>
@@ -8397,7 +8505,6 @@
       <c r="BG117" s="12"/>
       <c r="BH117" s="12"/>
       <c r="BI117" s="12"/>
-      <c r="BJ117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="11"/>
@@ -8461,7 +8568,6 @@
       <c r="BG118" s="11"/>
       <c r="BH118" s="11"/>
       <c r="BI118" s="11"/>
-      <c r="BJ118" s="11"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="12"/>
@@ -8525,7 +8631,6 @@
       <c r="BG119" s="12"/>
       <c r="BH119" s="12"/>
       <c r="BI119" s="12"/>
-      <c r="BJ119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11"/>
@@ -8589,7 +8694,6 @@
       <c r="BG120" s="11"/>
       <c r="BH120" s="11"/>
       <c r="BI120" s="11"/>
-      <c r="BJ120" s="11"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="12"/>
@@ -8653,7 +8757,6 @@
       <c r="BG121" s="12"/>
       <c r="BH121" s="12"/>
       <c r="BI121" s="12"/>
-      <c r="BJ121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11"/>
@@ -8717,7 +8820,6 @@
       <c r="BG122" s="11"/>
       <c r="BH122" s="11"/>
       <c r="BI122" s="11"/>
-      <c r="BJ122" s="11"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="12"/>
@@ -8781,7 +8883,6 @@
       <c r="BG123" s="12"/>
       <c r="BH123" s="12"/>
       <c r="BI123" s="12"/>
-      <c r="BJ123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11"/>
@@ -8845,7 +8946,6 @@
       <c r="BG124" s="11"/>
       <c r="BH124" s="11"/>
       <c r="BI124" s="11"/>
-      <c r="BJ124" s="11"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="12"/>
@@ -8909,7 +9009,6 @@
       <c r="BG125" s="12"/>
       <c r="BH125" s="12"/>
       <c r="BI125" s="12"/>
-      <c r="BJ125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11"/>
@@ -8973,7 +9072,6 @@
       <c r="BG126" s="11"/>
       <c r="BH126" s="11"/>
       <c r="BI126" s="11"/>
-      <c r="BJ126" s="11"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="12"/>
@@ -9037,7 +9135,6 @@
       <c r="BG127" s="12"/>
       <c r="BH127" s="12"/>
       <c r="BI127" s="12"/>
-      <c r="BJ127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11"/>
@@ -9101,7 +9198,6 @@
       <c r="BG128" s="11"/>
       <c r="BH128" s="11"/>
       <c r="BI128" s="11"/>
-      <c r="BJ128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="12"/>
@@ -9165,7 +9261,6 @@
       <c r="BG129" s="12"/>
       <c r="BH129" s="12"/>
       <c r="BI129" s="12"/>
-      <c r="BJ129" s="12"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11"/>
@@ -9229,7 +9324,6 @@
       <c r="BG130" s="11"/>
       <c r="BH130" s="11"/>
       <c r="BI130" s="11"/>
-      <c r="BJ130" s="11"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="12"/>
@@ -9293,7 +9387,6 @@
       <c r="BG131" s="12"/>
       <c r="BH131" s="12"/>
       <c r="BI131" s="12"/>
-      <c r="BJ131" s="12"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11"/>
@@ -9357,7 +9450,6 @@
       <c r="BG132" s="11"/>
       <c r="BH132" s="11"/>
       <c r="BI132" s="11"/>
-      <c r="BJ132" s="11"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="12"/>
@@ -9421,7 +9513,6 @@
       <c r="BG133" s="12"/>
       <c r="BH133" s="12"/>
       <c r="BI133" s="12"/>
-      <c r="BJ133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11"/>
@@ -9485,7 +9576,6 @@
       <c r="BG134" s="11"/>
       <c r="BH134" s="11"/>
       <c r="BI134" s="11"/>
-      <c r="BJ134" s="11"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="12"/>
@@ -9549,7 +9639,6 @@
       <c r="BG135" s="12"/>
       <c r="BH135" s="12"/>
       <c r="BI135" s="12"/>
-      <c r="BJ135" s="12"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="11"/>
@@ -9613,7 +9702,6 @@
       <c r="BG136" s="11"/>
       <c r="BH136" s="11"/>
       <c r="BI136" s="11"/>
-      <c r="BJ136" s="11"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="12"/>
@@ -9677,7 +9765,6 @@
       <c r="BG137" s="12"/>
       <c r="BH137" s="12"/>
       <c r="BI137" s="12"/>
-      <c r="BJ137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="11"/>
@@ -9741,7 +9828,6 @@
       <c r="BG138" s="11"/>
       <c r="BH138" s="11"/>
       <c r="BI138" s="11"/>
-      <c r="BJ138" s="11"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="12"/>
@@ -9805,7 +9891,6 @@
       <c r="BG139" s="12"/>
       <c r="BH139" s="12"/>
       <c r="BI139" s="12"/>
-      <c r="BJ139" s="12"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="11"/>
@@ -9869,7 +9954,6 @@
       <c r="BG140" s="11"/>
       <c r="BH140" s="11"/>
       <c r="BI140" s="11"/>
-      <c r="BJ140" s="11"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="12"/>
@@ -9933,7 +10017,6 @@
       <c r="BG141" s="12"/>
       <c r="BH141" s="12"/>
       <c r="BI141" s="12"/>
-      <c r="BJ141" s="12"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="11"/>
@@ -9997,7 +10080,6 @@
       <c r="BG142" s="11"/>
       <c r="BH142" s="11"/>
       <c r="BI142" s="11"/>
-      <c r="BJ142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="12"/>
@@ -10061,7 +10143,6 @@
       <c r="BG143" s="12"/>
       <c r="BH143" s="12"/>
       <c r="BI143" s="12"/>
-      <c r="BJ143" s="12"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="11"/>
@@ -10125,7 +10206,6 @@
       <c r="BG144" s="11"/>
       <c r="BH144" s="11"/>
       <c r="BI144" s="11"/>
-      <c r="BJ144" s="11"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="12"/>
@@ -10189,7 +10269,6 @@
       <c r="BG145" s="12"/>
       <c r="BH145" s="12"/>
       <c r="BI145" s="12"/>
-      <c r="BJ145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="11"/>
@@ -10253,7 +10332,6 @@
       <c r="BG146" s="11"/>
       <c r="BH146" s="11"/>
       <c r="BI146" s="11"/>
-      <c r="BJ146" s="11"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="12"/>
@@ -10317,7 +10395,6 @@
       <c r="BG147" s="12"/>
       <c r="BH147" s="12"/>
       <c r="BI147" s="12"/>
-      <c r="BJ147" s="12"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="11"/>
@@ -10381,7 +10458,6 @@
       <c r="BG148" s="11"/>
       <c r="BH148" s="11"/>
       <c r="BI148" s="11"/>
-      <c r="BJ148" s="11"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="12"/>
@@ -10445,7 +10521,6 @@
       <c r="BG149" s="12"/>
       <c r="BH149" s="12"/>
       <c r="BI149" s="12"/>
-      <c r="BJ149" s="12"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="11"/>
@@ -10509,7 +10584,6 @@
       <c r="BG150" s="11"/>
       <c r="BH150" s="11"/>
       <c r="BI150" s="11"/>
-      <c r="BJ150" s="11"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="12"/>
@@ -10573,7 +10647,6 @@
       <c r="BG151" s="12"/>
       <c r="BH151" s="12"/>
       <c r="BI151" s="12"/>
-      <c r="BJ151" s="12"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="11"/>
@@ -10637,7 +10710,6 @@
       <c r="BG152" s="11"/>
       <c r="BH152" s="11"/>
       <c r="BI152" s="11"/>
-      <c r="BJ152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="12"/>
@@ -10701,7 +10773,6 @@
       <c r="BG153" s="12"/>
       <c r="BH153" s="12"/>
       <c r="BI153" s="12"/>
-      <c r="BJ153" s="12"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="11"/>
@@ -10765,7 +10836,6 @@
       <c r="BG154" s="11"/>
       <c r="BH154" s="11"/>
       <c r="BI154" s="11"/>
-      <c r="BJ154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="12"/>
@@ -10829,7 +10899,6 @@
       <c r="BG155" s="12"/>
       <c r="BH155" s="12"/>
       <c r="BI155" s="12"/>
-      <c r="BJ155" s="12"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="11"/>
@@ -10893,7 +10962,6 @@
       <c r="BG156" s="11"/>
       <c r="BH156" s="11"/>
       <c r="BI156" s="11"/>
-      <c r="BJ156" s="11"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="12"/>
@@ -10957,7 +11025,6 @@
       <c r="BG157" s="12"/>
       <c r="BH157" s="12"/>
       <c r="BI157" s="12"/>
-      <c r="BJ157" s="12"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="11"/>
@@ -11021,7 +11088,6 @@
       <c r="BG158" s="11"/>
       <c r="BH158" s="11"/>
       <c r="BI158" s="11"/>
-      <c r="BJ158" s="11"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="12"/>
@@ -11085,7 +11151,6 @@
       <c r="BG159" s="12"/>
       <c r="BH159" s="12"/>
       <c r="BI159" s="12"/>
-      <c r="BJ159" s="12"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="11"/>
@@ -11149,7 +11214,6 @@
       <c r="BG160" s="11"/>
       <c r="BH160" s="11"/>
       <c r="BI160" s="11"/>
-      <c r="BJ160" s="11"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="12"/>
@@ -11213,7 +11277,6 @@
       <c r="BG161" s="12"/>
       <c r="BH161" s="12"/>
       <c r="BI161" s="12"/>
-      <c r="BJ161" s="12"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="11"/>
@@ -11277,7 +11340,6 @@
       <c r="BG162" s="11"/>
       <c r="BH162" s="11"/>
       <c r="BI162" s="11"/>
-      <c r="BJ162" s="11"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="12"/>
@@ -11341,7 +11403,6 @@
       <c r="BG163" s="12"/>
       <c r="BH163" s="12"/>
       <c r="BI163" s="12"/>
-      <c r="BJ163" s="12"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="11"/>
@@ -11405,7 +11466,6 @@
       <c r="BG164" s="11"/>
       <c r="BH164" s="11"/>
       <c r="BI164" s="11"/>
-      <c r="BJ164" s="11"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="12"/>
@@ -11469,7 +11529,6 @@
       <c r="BG165" s="12"/>
       <c r="BH165" s="12"/>
       <c r="BI165" s="12"/>
-      <c r="BJ165" s="12"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="11"/>
@@ -11533,7 +11592,6 @@
       <c r="BG166" s="11"/>
       <c r="BH166" s="11"/>
       <c r="BI166" s="11"/>
-      <c r="BJ166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="12"/>
@@ -11597,7 +11655,6 @@
       <c r="BG167" s="12"/>
       <c r="BH167" s="12"/>
       <c r="BI167" s="12"/>
-      <c r="BJ167" s="12"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="11"/>
@@ -11661,7 +11718,6 @@
       <c r="BG168" s="11"/>
       <c r="BH168" s="11"/>
       <c r="BI168" s="11"/>
-      <c r="BJ168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="12"/>
@@ -11725,7 +11781,6 @@
       <c r="BG169" s="12"/>
       <c r="BH169" s="12"/>
       <c r="BI169" s="12"/>
-      <c r="BJ169" s="12"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="11"/>
@@ -11789,7 +11844,6 @@
       <c r="BG170" s="11"/>
       <c r="BH170" s="11"/>
       <c r="BI170" s="11"/>
-      <c r="BJ170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="12"/>
@@ -11853,7 +11907,6 @@
       <c r="BG171" s="12"/>
       <c r="BH171" s="12"/>
       <c r="BI171" s="12"/>
-      <c r="BJ171" s="12"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="11"/>
@@ -11917,7 +11970,6 @@
       <c r="BG172" s="11"/>
       <c r="BH172" s="11"/>
       <c r="BI172" s="11"/>
-      <c r="BJ172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="12"/>
@@ -11981,7 +12033,6 @@
       <c r="BG173" s="12"/>
       <c r="BH173" s="12"/>
       <c r="BI173" s="12"/>
-      <c r="BJ173" s="12"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="11"/>
@@ -12045,7 +12096,6 @@
       <c r="BG174" s="11"/>
       <c r="BH174" s="11"/>
       <c r="BI174" s="11"/>
-      <c r="BJ174" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="12"/>
@@ -12109,7 +12159,6 @@
       <c r="BG175" s="12"/>
       <c r="BH175" s="12"/>
       <c r="BI175" s="12"/>
-      <c r="BJ175" s="12"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="11"/>
@@ -12173,7 +12222,6 @@
       <c r="BG176" s="11"/>
       <c r="BH176" s="11"/>
       <c r="BI176" s="11"/>
-      <c r="BJ176" s="11"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="12"/>
@@ -12237,7 +12285,6 @@
       <c r="BG177" s="12"/>
       <c r="BH177" s="12"/>
       <c r="BI177" s="12"/>
-      <c r="BJ177" s="12"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="11"/>
@@ -12301,7 +12348,6 @@
       <c r="BG178" s="11"/>
       <c r="BH178" s="11"/>
       <c r="BI178" s="11"/>
-      <c r="BJ178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="12"/>
@@ -12365,7 +12411,6 @@
       <c r="BG179" s="12"/>
       <c r="BH179" s="12"/>
       <c r="BI179" s="12"/>
-      <c r="BJ179" s="12"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="11"/>
@@ -12429,7 +12474,6 @@
       <c r="BG180" s="11"/>
       <c r="BH180" s="11"/>
       <c r="BI180" s="11"/>
-      <c r="BJ180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="12"/>
@@ -12493,7 +12537,6 @@
       <c r="BG181" s="12"/>
       <c r="BH181" s="12"/>
       <c r="BI181" s="12"/>
-      <c r="BJ181" s="12"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="11"/>
@@ -12557,7 +12600,6 @@
       <c r="BG182" s="11"/>
       <c r="BH182" s="11"/>
       <c r="BI182" s="11"/>
-      <c r="BJ182" s="11"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="12"/>
@@ -12621,7 +12663,6 @@
       <c r="BG183" s="12"/>
       <c r="BH183" s="12"/>
       <c r="BI183" s="12"/>
-      <c r="BJ183" s="12"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="11"/>
@@ -12685,7 +12726,6 @@
       <c r="BG184" s="11"/>
       <c r="BH184" s="11"/>
       <c r="BI184" s="11"/>
-      <c r="BJ184" s="11"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="12"/>
@@ -12749,7 +12789,6 @@
       <c r="BG185" s="12"/>
       <c r="BH185" s="12"/>
       <c r="BI185" s="12"/>
-      <c r="BJ185" s="12"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="11"/>
@@ -12813,7 +12852,6 @@
       <c r="BG186" s="11"/>
       <c r="BH186" s="11"/>
       <c r="BI186" s="11"/>
-      <c r="BJ186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="12"/>
@@ -12877,7 +12915,6 @@
       <c r="BG187" s="12"/>
       <c r="BH187" s="12"/>
       <c r="BI187" s="12"/>
-      <c r="BJ187" s="12"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="11"/>
@@ -12941,7 +12978,6 @@
       <c r="BG188" s="11"/>
       <c r="BH188" s="11"/>
       <c r="BI188" s="11"/>
-      <c r="BJ188" s="11"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="12"/>
@@ -13005,7 +13041,6 @@
       <c r="BG189" s="12"/>
       <c r="BH189" s="12"/>
       <c r="BI189" s="12"/>
-      <c r="BJ189" s="12"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="11"/>
@@ -13069,7 +13104,6 @@
       <c r="BG190" s="11"/>
       <c r="BH190" s="11"/>
       <c r="BI190" s="11"/>
-      <c r="BJ190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="12"/>
@@ -13133,7 +13167,6 @@
       <c r="BG191" s="12"/>
       <c r="BH191" s="12"/>
       <c r="BI191" s="12"/>
-      <c r="BJ191" s="12"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="11"/>
@@ -13197,7 +13230,6 @@
       <c r="BG192" s="11"/>
       <c r="BH192" s="11"/>
       <c r="BI192" s="11"/>
-      <c r="BJ192" s="11"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="12"/>
@@ -13261,7 +13293,6 @@
       <c r="BG193" s="12"/>
       <c r="BH193" s="12"/>
       <c r="BI193" s="12"/>
-      <c r="BJ193" s="12"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="11"/>
@@ -13325,7 +13356,6 @@
       <c r="BG194" s="11"/>
       <c r="BH194" s="11"/>
       <c r="BI194" s="11"/>
-      <c r="BJ194" s="11"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="12"/>
@@ -13389,7 +13419,6 @@
       <c r="BG195" s="12"/>
       <c r="BH195" s="12"/>
       <c r="BI195" s="12"/>
-      <c r="BJ195" s="12"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="11"/>
@@ -13453,7 +13482,6 @@
       <c r="BG196" s="11"/>
       <c r="BH196" s="11"/>
       <c r="BI196" s="11"/>
-      <c r="BJ196" s="11"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="12"/>
@@ -13517,7 +13545,6 @@
       <c r="BG197" s="12"/>
       <c r="BH197" s="12"/>
       <c r="BI197" s="12"/>
-      <c r="BJ197" s="12"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11"/>
@@ -13581,7 +13608,6 @@
       <c r="BG198" s="11"/>
       <c r="BH198" s="11"/>
       <c r="BI198" s="11"/>
-      <c r="BJ198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="12"/>
@@ -13645,7 +13671,6 @@
       <c r="BG199" s="12"/>
       <c r="BH199" s="12"/>
       <c r="BI199" s="12"/>
-      <c r="BJ199" s="12"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="11"/>
@@ -13709,7 +13734,6 @@
       <c r="BG200" s="11"/>
       <c r="BH200" s="11"/>
       <c r="BI200" s="11"/>
-      <c r="BJ200" s="11"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="12"/>
@@ -13773,7 +13797,6 @@
       <c r="BG201" s="12"/>
       <c r="BH201" s="12"/>
       <c r="BI201" s="12"/>
-      <c r="BJ201" s="12"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11"/>
@@ -13837,7 +13860,6 @@
       <c r="BG202" s="11"/>
       <c r="BH202" s="11"/>
       <c r="BI202" s="11"/>
-      <c r="BJ202" s="11"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="12"/>
@@ -13901,7 +13923,6 @@
       <c r="BG203" s="12"/>
       <c r="BH203" s="12"/>
       <c r="BI203" s="12"/>
-      <c r="BJ203" s="12"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="11"/>
@@ -13965,7 +13986,6 @@
       <c r="BG204" s="11"/>
       <c r="BH204" s="11"/>
       <c r="BI204" s="11"/>
-      <c r="BJ204" s="11"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="12"/>
@@ -14029,7 +14049,6 @@
       <c r="BG205" s="12"/>
       <c r="BH205" s="12"/>
       <c r="BI205" s="12"/>
-      <c r="BJ205" s="12"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="11"/>
@@ -14093,7 +14112,6 @@
       <c r="BG206" s="11"/>
       <c r="BH206" s="11"/>
       <c r="BI206" s="11"/>
-      <c r="BJ206" s="11"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="12"/>
@@ -14157,7 +14175,6 @@
       <c r="BG207" s="12"/>
       <c r="BH207" s="12"/>
       <c r="BI207" s="12"/>
-      <c r="BJ207" s="12"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="11"/>
@@ -14221,7 +14238,6 @@
       <c r="BG208" s="11"/>
       <c r="BH208" s="11"/>
       <c r="BI208" s="11"/>
-      <c r="BJ208" s="11"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="12"/>
@@ -14285,7 +14301,6 @@
       <c r="BG209" s="12"/>
       <c r="BH209" s="12"/>
       <c r="BI209" s="12"/>
-      <c r="BJ209" s="12"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="11"/>
@@ -14349,7 +14364,6 @@
       <c r="BG210" s="11"/>
       <c r="BH210" s="11"/>
       <c r="BI210" s="11"/>
-      <c r="BJ210" s="11"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="12"/>
@@ -14413,7 +14427,6 @@
       <c r="BG211" s="12"/>
       <c r="BH211" s="12"/>
       <c r="BI211" s="12"/>
-      <c r="BJ211" s="12"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="11"/>
@@ -14477,7 +14490,6 @@
       <c r="BG212" s="11"/>
       <c r="BH212" s="11"/>
       <c r="BI212" s="11"/>
-      <c r="BJ212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="12"/>
@@ -14541,7 +14553,6 @@
       <c r="BG213" s="12"/>
       <c r="BH213" s="12"/>
       <c r="BI213" s="12"/>
-      <c r="BJ213" s="12"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="11"/>
@@ -14605,7 +14616,6 @@
       <c r="BG214" s="11"/>
       <c r="BH214" s="11"/>
       <c r="BI214" s="11"/>
-      <c r="BJ214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="12"/>
@@ -14669,7 +14679,6 @@
       <c r="BG215" s="12"/>
       <c r="BH215" s="12"/>
       <c r="BI215" s="12"/>
-      <c r="BJ215" s="12"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="11"/>
@@ -14733,7 +14742,6 @@
       <c r="BG216" s="11"/>
       <c r="BH216" s="11"/>
       <c r="BI216" s="11"/>
-      <c r="BJ216" s="11"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="12"/>
@@ -14797,7 +14805,6 @@
       <c r="BG217" s="12"/>
       <c r="BH217" s="12"/>
       <c r="BI217" s="12"/>
-      <c r="BJ217" s="12"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="11"/>
@@ -14861,7 +14868,6 @@
       <c r="BG218" s="11"/>
       <c r="BH218" s="11"/>
       <c r="BI218" s="11"/>
-      <c r="BJ218" s="11"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="12"/>
@@ -14925,7 +14931,6 @@
       <c r="BG219" s="12"/>
       <c r="BH219" s="12"/>
       <c r="BI219" s="12"/>
-      <c r="BJ219" s="12"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="11"/>
@@ -14989,7 +14994,6 @@
       <c r="BG220" s="11"/>
       <c r="BH220" s="11"/>
       <c r="BI220" s="11"/>
-      <c r="BJ220" s="11"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="12"/>
@@ -15053,7 +15057,6 @@
       <c r="BG221" s="12"/>
       <c r="BH221" s="12"/>
       <c r="BI221" s="12"/>
-      <c r="BJ221" s="12"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="11"/>
@@ -15117,7 +15120,6 @@
       <c r="BG222" s="11"/>
       <c r="BH222" s="11"/>
       <c r="BI222" s="11"/>
-      <c r="BJ222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="12"/>
@@ -15181,7 +15183,6 @@
       <c r="BG223" s="12"/>
       <c r="BH223" s="12"/>
       <c r="BI223" s="12"/>
-      <c r="BJ223" s="12"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="11"/>
@@ -15245,7 +15246,6 @@
       <c r="BG224" s="11"/>
       <c r="BH224" s="11"/>
       <c r="BI224" s="11"/>
-      <c r="BJ224" s="11"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="12"/>
@@ -15309,7 +15309,6 @@
       <c r="BG225" s="12"/>
       <c r="BH225" s="12"/>
       <c r="BI225" s="12"/>
-      <c r="BJ225" s="12"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="11"/>
@@ -15373,7 +15372,6 @@
       <c r="BG226" s="11"/>
       <c r="BH226" s="11"/>
       <c r="BI226" s="11"/>
-      <c r="BJ226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="12"/>
@@ -15437,7 +15435,6 @@
       <c r="BG227" s="12"/>
       <c r="BH227" s="12"/>
       <c r="BI227" s="12"/>
-      <c r="BJ227" s="12"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="11"/>
@@ -15501,7 +15498,6 @@
       <c r="BG228" s="11"/>
       <c r="BH228" s="11"/>
       <c r="BI228" s="11"/>
-      <c r="BJ228" s="11"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="12"/>
@@ -15565,7 +15561,6 @@
       <c r="BG229" s="12"/>
       <c r="BH229" s="12"/>
       <c r="BI229" s="12"/>
-      <c r="BJ229" s="12"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="11"/>
@@ -15629,7 +15624,6 @@
       <c r="BG230" s="11"/>
       <c r="BH230" s="11"/>
       <c r="BI230" s="11"/>
-      <c r="BJ230" s="11"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="12"/>
@@ -15693,7 +15687,6 @@
       <c r="BG231" s="12"/>
       <c r="BH231" s="12"/>
       <c r="BI231" s="12"/>
-      <c r="BJ231" s="12"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="11"/>
@@ -15757,7 +15750,6 @@
       <c r="BG232" s="11"/>
       <c r="BH232" s="11"/>
       <c r="BI232" s="11"/>
-      <c r="BJ232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="12"/>
@@ -15821,7 +15813,6 @@
       <c r="BG233" s="12"/>
       <c r="BH233" s="12"/>
       <c r="BI233" s="12"/>
-      <c r="BJ233" s="12"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="11"/>
@@ -15885,7 +15876,6 @@
       <c r="BG234" s="11"/>
       <c r="BH234" s="11"/>
       <c r="BI234" s="11"/>
-      <c r="BJ234" s="11"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="12"/>
@@ -15949,7 +15939,6 @@
       <c r="BG235" s="12"/>
       <c r="BH235" s="12"/>
       <c r="BI235" s="12"/>
-      <c r="BJ235" s="12"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="11"/>
@@ -16013,7 +16002,6 @@
       <c r="BG236" s="11"/>
       <c r="BH236" s="11"/>
       <c r="BI236" s="11"/>
-      <c r="BJ236" s="11"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="12"/>
@@ -16077,7 +16065,6 @@
       <c r="BG237" s="12"/>
       <c r="BH237" s="12"/>
       <c r="BI237" s="12"/>
-      <c r="BJ237" s="12"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="11"/>
@@ -16141,7 +16128,6 @@
       <c r="BG238" s="11"/>
       <c r="BH238" s="11"/>
       <c r="BI238" s="11"/>
-      <c r="BJ238" s="11"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="12"/>
@@ -16205,7 +16191,6 @@
       <c r="BG239" s="12"/>
       <c r="BH239" s="12"/>
       <c r="BI239" s="12"/>
-      <c r="BJ239" s="12"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="11"/>
@@ -16269,7 +16254,6 @@
       <c r="BG240" s="11"/>
       <c r="BH240" s="11"/>
       <c r="BI240" s="11"/>
-      <c r="BJ240" s="11"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="12"/>
@@ -16333,7 +16317,6 @@
       <c r="BG241" s="12"/>
       <c r="BH241" s="12"/>
       <c r="BI241" s="12"/>
-      <c r="BJ241" s="12"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="11"/>
@@ -16397,7 +16380,6 @@
       <c r="BG242" s="11"/>
       <c r="BH242" s="11"/>
       <c r="BI242" s="11"/>
-      <c r="BJ242" s="11"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="12"/>
@@ -16461,7 +16443,6 @@
       <c r="BG243" s="12"/>
       <c r="BH243" s="12"/>
       <c r="BI243" s="12"/>
-      <c r="BJ243" s="12"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="11"/>
@@ -16525,7 +16506,6 @@
       <c r="BG244" s="11"/>
       <c r="BH244" s="11"/>
       <c r="BI244" s="11"/>
-      <c r="BJ244" s="11"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="12"/>
@@ -16589,7 +16569,6 @@
       <c r="BG245" s="12"/>
       <c r="BH245" s="12"/>
       <c r="BI245" s="12"/>
-      <c r="BJ245" s="12"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="11"/>
@@ -16653,7 +16632,6 @@
       <c r="BG246" s="11"/>
       <c r="BH246" s="11"/>
       <c r="BI246" s="11"/>
-      <c r="BJ246" s="11"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="12"/>
@@ -16717,7 +16695,6 @@
       <c r="BG247" s="12"/>
       <c r="BH247" s="12"/>
       <c r="BI247" s="12"/>
-      <c r="BJ247" s="12"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="11"/>
@@ -16781,7 +16758,6 @@
       <c r="BG248" s="11"/>
       <c r="BH248" s="11"/>
       <c r="BI248" s="11"/>
-      <c r="BJ248" s="11"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="12"/>
@@ -16845,7 +16821,6 @@
       <c r="BG249" s="12"/>
       <c r="BH249" s="12"/>
       <c r="BI249" s="12"/>
-      <c r="BJ249" s="12"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="11"/>
@@ -16909,7 +16884,6 @@
       <c r="BG250" s="11"/>
       <c r="BH250" s="11"/>
       <c r="BI250" s="11"/>
-      <c r="BJ250" s="11"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="12"/>
@@ -16973,7 +16947,6 @@
       <c r="BG251" s="12"/>
       <c r="BH251" s="12"/>
       <c r="BI251" s="12"/>
-      <c r="BJ251" s="12"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="11"/>
@@ -17037,7 +17010,6 @@
       <c r="BG252" s="11"/>
       <c r="BH252" s="11"/>
       <c r="BI252" s="11"/>
-      <c r="BJ252" s="11"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="12"/>
@@ -17101,7 +17073,6 @@
       <c r="BG253" s="12"/>
       <c r="BH253" s="12"/>
       <c r="BI253" s="12"/>
-      <c r="BJ253" s="12"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="11"/>
@@ -17165,7 +17136,6 @@
       <c r="BG254" s="11"/>
       <c r="BH254" s="11"/>
       <c r="BI254" s="11"/>
-      <c r="BJ254" s="11"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="12"/>
@@ -17229,7 +17199,6 @@
       <c r="BG255" s="12"/>
       <c r="BH255" s="12"/>
       <c r="BI255" s="12"/>
-      <c r="BJ255" s="12"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="11"/>
@@ -17293,7 +17262,6 @@
       <c r="BG256" s="11"/>
       <c r="BH256" s="11"/>
       <c r="BI256" s="11"/>
-      <c r="BJ256" s="11"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="12"/>
@@ -17357,7 +17325,6 @@
       <c r="BG257" s="12"/>
       <c r="BH257" s="12"/>
       <c r="BI257" s="12"/>
-      <c r="BJ257" s="12"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="11"/>
@@ -17421,7 +17388,6 @@
       <c r="BG258" s="11"/>
       <c r="BH258" s="11"/>
       <c r="BI258" s="11"/>
-      <c r="BJ258" s="11"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="12"/>
@@ -17485,7 +17451,6 @@
       <c r="BG259" s="12"/>
       <c r="BH259" s="12"/>
       <c r="BI259" s="12"/>
-      <c r="BJ259" s="12"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="11"/>
@@ -17549,7 +17514,6 @@
       <c r="BG260" s="11"/>
       <c r="BH260" s="11"/>
       <c r="BI260" s="11"/>
-      <c r="BJ260" s="11"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="12"/>
@@ -17613,7 +17577,6 @@
       <c r="BG261" s="12"/>
       <c r="BH261" s="12"/>
       <c r="BI261" s="12"/>
-      <c r="BJ261" s="12"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="11"/>
@@ -17677,7 +17640,6 @@
       <c r="BG262" s="11"/>
       <c r="BH262" s="11"/>
       <c r="BI262" s="11"/>
-      <c r="BJ262" s="11"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="12"/>
@@ -17741,7 +17703,6 @@
       <c r="BG263" s="12"/>
       <c r="BH263" s="12"/>
       <c r="BI263" s="12"/>
-      <c r="BJ263" s="12"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="11"/>
@@ -17805,7 +17766,6 @@
       <c r="BG264" s="11"/>
       <c r="BH264" s="11"/>
       <c r="BI264" s="11"/>
-      <c r="BJ264" s="11"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="12"/>
@@ -17869,7 +17829,6 @@
       <c r="BG265" s="12"/>
       <c r="BH265" s="12"/>
       <c r="BI265" s="12"/>
-      <c r="BJ265" s="12"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="11"/>
@@ -17933,7 +17892,6 @@
       <c r="BG266" s="11"/>
       <c r="BH266" s="11"/>
       <c r="BI266" s="11"/>
-      <c r="BJ266" s="11"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12"/>
@@ -17997,7 +17955,6 @@
       <c r="BG267" s="12"/>
       <c r="BH267" s="12"/>
       <c r="BI267" s="12"/>
-      <c r="BJ267" s="12"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="11"/>
@@ -18061,7 +18018,6 @@
       <c r="BG268" s="11"/>
       <c r="BH268" s="11"/>
       <c r="BI268" s="11"/>
-      <c r="BJ268" s="11"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="12"/>
@@ -18125,7 +18081,6 @@
       <c r="BG269" s="12"/>
       <c r="BH269" s="12"/>
       <c r="BI269" s="12"/>
-      <c r="BJ269" s="12"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="11"/>
@@ -18189,7 +18144,6 @@
       <c r="BG270" s="11"/>
       <c r="BH270" s="11"/>
       <c r="BI270" s="11"/>
-      <c r="BJ270" s="11"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="12"/>
@@ -18253,7 +18207,6 @@
       <c r="BG271" s="12"/>
       <c r="BH271" s="12"/>
       <c r="BI271" s="12"/>
-      <c r="BJ271" s="12"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="11"/>
@@ -18317,7 +18270,6 @@
       <c r="BG272" s="11"/>
       <c r="BH272" s="11"/>
       <c r="BI272" s="11"/>
-      <c r="BJ272" s="11"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="12"/>
@@ -18381,7 +18333,6 @@
       <c r="BG273" s="12"/>
       <c r="BH273" s="12"/>
       <c r="BI273" s="12"/>
-      <c r="BJ273" s="12"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="11"/>
@@ -18445,7 +18396,6 @@
       <c r="BG274" s="11"/>
       <c r="BH274" s="11"/>
       <c r="BI274" s="11"/>
-      <c r="BJ274" s="11"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="12"/>
@@ -18509,7 +18459,6 @@
       <c r="BG275" s="12"/>
       <c r="BH275" s="12"/>
       <c r="BI275" s="12"/>
-      <c r="BJ275" s="12"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="11"/>
@@ -18573,7 +18522,6 @@
       <c r="BG276" s="11"/>
       <c r="BH276" s="11"/>
       <c r="BI276" s="11"/>
-      <c r="BJ276" s="11"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="12"/>
@@ -18637,7 +18585,6 @@
       <c r="BG277" s="12"/>
       <c r="BH277" s="12"/>
       <c r="BI277" s="12"/>
-      <c r="BJ277" s="12"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="11"/>
@@ -18701,7 +18648,6 @@
       <c r="BG278" s="11"/>
       <c r="BH278" s="11"/>
       <c r="BI278" s="11"/>
-      <c r="BJ278" s="11"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="12"/>
@@ -18765,7 +18711,6 @@
       <c r="BG279" s="12"/>
       <c r="BH279" s="12"/>
       <c r="BI279" s="12"/>
-      <c r="BJ279" s="12"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="11"/>
@@ -18829,7 +18774,6 @@
       <c r="BG280" s="11"/>
       <c r="BH280" s="11"/>
       <c r="BI280" s="11"/>
-      <c r="BJ280" s="11"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="12"/>
@@ -18893,7 +18837,6 @@
       <c r="BG281" s="12"/>
       <c r="BH281" s="12"/>
       <c r="BI281" s="12"/>
-      <c r="BJ281" s="12"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="11"/>
@@ -18957,7 +18900,6 @@
       <c r="BG282" s="11"/>
       <c r="BH282" s="11"/>
       <c r="BI282" s="11"/>
-      <c r="BJ282" s="11"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="12"/>
@@ -19021,7 +18963,6 @@
       <c r="BG283" s="12"/>
       <c r="BH283" s="12"/>
       <c r="BI283" s="12"/>
-      <c r="BJ283" s="12"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="11"/>
@@ -19085,7 +19026,6 @@
       <c r="BG284" s="11"/>
       <c r="BH284" s="11"/>
       <c r="BI284" s="11"/>
-      <c r="BJ284" s="11"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="12"/>
@@ -19149,7 +19089,6 @@
       <c r="BG285" s="12"/>
       <c r="BH285" s="12"/>
       <c r="BI285" s="12"/>
-      <c r="BJ285" s="12"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="11"/>
@@ -19213,7 +19152,6 @@
       <c r="BG286" s="11"/>
       <c r="BH286" s="11"/>
       <c r="BI286" s="11"/>
-      <c r="BJ286" s="11"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="12"/>
@@ -19277,7 +19215,6 @@
       <c r="BG287" s="12"/>
       <c r="BH287" s="12"/>
       <c r="BI287" s="12"/>
-      <c r="BJ287" s="12"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="11"/>
@@ -19341,7 +19278,6 @@
       <c r="BG288" s="11"/>
       <c r="BH288" s="11"/>
       <c r="BI288" s="11"/>
-      <c r="BJ288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="12"/>
@@ -19405,7 +19341,6 @@
       <c r="BG289" s="12"/>
       <c r="BH289" s="12"/>
       <c r="BI289" s="12"/>
-      <c r="BJ289" s="12"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="11"/>
@@ -19469,7 +19404,6 @@
       <c r="BG290" s="11"/>
       <c r="BH290" s="11"/>
       <c r="BI290" s="11"/>
-      <c r="BJ290" s="11"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="12"/>
@@ -19533,7 +19467,6 @@
       <c r="BG291" s="12"/>
       <c r="BH291" s="12"/>
       <c r="BI291" s="12"/>
-      <c r="BJ291" s="12"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="11"/>
@@ -19597,7 +19530,6 @@
       <c r="BG292" s="11"/>
       <c r="BH292" s="11"/>
       <c r="BI292" s="11"/>
-      <c r="BJ292" s="11"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="12"/>
@@ -19661,7 +19593,6 @@
       <c r="BG293" s="12"/>
       <c r="BH293" s="12"/>
       <c r="BI293" s="12"/>
-      <c r="BJ293" s="12"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="11"/>
@@ -19725,7 +19656,6 @@
       <c r="BG294" s="11"/>
       <c r="BH294" s="11"/>
       <c r="BI294" s="11"/>
-      <c r="BJ294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="12"/>
@@ -19789,7 +19719,6 @@
       <c r="BG295" s="12"/>
       <c r="BH295" s="12"/>
       <c r="BI295" s="12"/>
-      <c r="BJ295" s="12"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="11"/>
@@ -19853,7 +19782,6 @@
       <c r="BG296" s="11"/>
       <c r="BH296" s="11"/>
       <c r="BI296" s="11"/>
-      <c r="BJ296" s="11"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="12"/>
@@ -19917,7 +19845,6 @@
       <c r="BG297" s="12"/>
       <c r="BH297" s="12"/>
       <c r="BI297" s="12"/>
-      <c r="BJ297" s="12"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="11"/>
@@ -19981,7 +19908,6 @@
       <c r="BG298" s="11"/>
       <c r="BH298" s="11"/>
       <c r="BI298" s="11"/>
-      <c r="BJ298" s="11"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="12"/>
@@ -20045,7 +19971,6 @@
       <c r="BG299" s="12"/>
       <c r="BH299" s="12"/>
       <c r="BI299" s="12"/>
-      <c r="BJ299" s="12"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="11"/>
@@ -20109,7 +20034,6 @@
       <c r="BG300" s="11"/>
       <c r="BH300" s="11"/>
       <c r="BI300" s="11"/>
-      <c r="BJ300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="12"/>
@@ -20173,7 +20097,6 @@
       <c r="BG301" s="12"/>
       <c r="BH301" s="12"/>
       <c r="BI301" s="12"/>
-      <c r="BJ301" s="12"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="11"/>
@@ -20237,7 +20160,6 @@
       <c r="BG302" s="11"/>
       <c r="BH302" s="11"/>
       <c r="BI302" s="11"/>
-      <c r="BJ302" s="11"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="12"/>
@@ -20301,7 +20223,6 @@
       <c r="BG303" s="12"/>
       <c r="BH303" s="12"/>
       <c r="BI303" s="12"/>
-      <c r="BJ303" s="12"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="11"/>
@@ -20365,7 +20286,6 @@
       <c r="BG304" s="11"/>
       <c r="BH304" s="11"/>
       <c r="BI304" s="11"/>
-      <c r="BJ304" s="11"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="12"/>
@@ -20429,7 +20349,6 @@
       <c r="BG305" s="12"/>
       <c r="BH305" s="12"/>
       <c r="BI305" s="12"/>
-      <c r="BJ305" s="12"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="11"/>
@@ -20493,7 +20412,6 @@
       <c r="BG306" s="11"/>
       <c r="BH306" s="11"/>
       <c r="BI306" s="11"/>
-      <c r="BJ306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="12"/>
@@ -20557,7 +20475,6 @@
       <c r="BG307" s="12"/>
       <c r="BH307" s="12"/>
       <c r="BI307" s="12"/>
-      <c r="BJ307" s="12"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="11"/>
@@ -20621,7 +20538,6 @@
       <c r="BG308" s="11"/>
       <c r="BH308" s="11"/>
       <c r="BI308" s="11"/>
-      <c r="BJ308" s="11"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="12"/>
@@ -20685,7 +20601,6 @@
       <c r="BG309" s="12"/>
       <c r="BH309" s="12"/>
       <c r="BI309" s="12"/>
-      <c r="BJ309" s="12"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="11"/>
@@ -20749,7 +20664,6 @@
       <c r="BG310" s="11"/>
       <c r="BH310" s="11"/>
       <c r="BI310" s="11"/>
-      <c r="BJ310" s="11"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="12"/>
@@ -20813,7 +20727,6 @@
       <c r="BG311" s="12"/>
       <c r="BH311" s="12"/>
       <c r="BI311" s="12"/>
-      <c r="BJ311" s="12"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="11"/>
@@ -20877,7 +20790,6 @@
       <c r="BG312" s="11"/>
       <c r="BH312" s="11"/>
       <c r="BI312" s="11"/>
-      <c r="BJ312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="12"/>
@@ -20941,7 +20853,6 @@
       <c r="BG313" s="12"/>
       <c r="BH313" s="12"/>
       <c r="BI313" s="12"/>
-      <c r="BJ313" s="12"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="11"/>
@@ -21005,7 +20916,6 @@
       <c r="BG314" s="11"/>
       <c r="BH314" s="11"/>
       <c r="BI314" s="11"/>
-      <c r="BJ314" s="11"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="12"/>
@@ -21069,7 +20979,6 @@
       <c r="BG315" s="12"/>
       <c r="BH315" s="12"/>
       <c r="BI315" s="12"/>
-      <c r="BJ315" s="12"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="11"/>
@@ -21133,7 +21042,6 @@
       <c r="BG316" s="11"/>
       <c r="BH316" s="11"/>
       <c r="BI316" s="11"/>
-      <c r="BJ316" s="11"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="12"/>
@@ -21197,7 +21105,6 @@
       <c r="BG317" s="12"/>
       <c r="BH317" s="12"/>
       <c r="BI317" s="12"/>
-      <c r="BJ317" s="12"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="11"/>
@@ -21261,7 +21168,6 @@
       <c r="BG318" s="11"/>
       <c r="BH318" s="11"/>
       <c r="BI318" s="11"/>
-      <c r="BJ318" s="11"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="12"/>
@@ -21325,7 +21231,6 @@
       <c r="BG319" s="12"/>
       <c r="BH319" s="12"/>
       <c r="BI319" s="12"/>
-      <c r="BJ319" s="12"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="11"/>
@@ -21389,7 +21294,6 @@
       <c r="BG320" s="11"/>
       <c r="BH320" s="11"/>
       <c r="BI320" s="11"/>
-      <c r="BJ320" s="11"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="12"/>
@@ -21453,7 +21357,6 @@
       <c r="BG321" s="12"/>
       <c r="BH321" s="12"/>
       <c r="BI321" s="12"/>
-      <c r="BJ321" s="12"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="11"/>
@@ -21517,7 +21420,6 @@
       <c r="BG322" s="11"/>
       <c r="BH322" s="11"/>
       <c r="BI322" s="11"/>
-      <c r="BJ322" s="11"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="12"/>
@@ -21581,7 +21483,6 @@
       <c r="BG323" s="12"/>
       <c r="BH323" s="12"/>
       <c r="BI323" s="12"/>
-      <c r="BJ323" s="12"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="11"/>
@@ -21645,7 +21546,6 @@
       <c r="BG324" s="11"/>
       <c r="BH324" s="11"/>
       <c r="BI324" s="11"/>
-      <c r="BJ324" s="11"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="12"/>
@@ -21709,7 +21609,6 @@
       <c r="BG325" s="12"/>
       <c r="BH325" s="12"/>
       <c r="BI325" s="12"/>
-      <c r="BJ325" s="12"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="11"/>
@@ -21773,7 +21672,6 @@
       <c r="BG326" s="11"/>
       <c r="BH326" s="11"/>
       <c r="BI326" s="11"/>
-      <c r="BJ326" s="11"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="12"/>
@@ -21837,7 +21735,6 @@
       <c r="BG327" s="12"/>
       <c r="BH327" s="12"/>
       <c r="BI327" s="12"/>
-      <c r="BJ327" s="12"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="11"/>
@@ -21901,7 +21798,6 @@
       <c r="BG328" s="11"/>
       <c r="BH328" s="11"/>
       <c r="BI328" s="11"/>
-      <c r="BJ328" s="11"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="12"/>
@@ -21965,7 +21861,6 @@
       <c r="BG329" s="12"/>
       <c r="BH329" s="12"/>
       <c r="BI329" s="12"/>
-      <c r="BJ329" s="12"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="11"/>
@@ -22029,7 +21924,6 @@
       <c r="BG330" s="11"/>
       <c r="BH330" s="11"/>
       <c r="BI330" s="11"/>
-      <c r="BJ330" s="11"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="12"/>
@@ -22093,7 +21987,6 @@
       <c r="BG331" s="12"/>
       <c r="BH331" s="12"/>
       <c r="BI331" s="12"/>
-      <c r="BJ331" s="12"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="11"/>
@@ -22157,7 +22050,6 @@
       <c r="BG332" s="11"/>
       <c r="BH332" s="11"/>
       <c r="BI332" s="11"/>
-      <c r="BJ332" s="11"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="12"/>
@@ -22221,7 +22113,6 @@
       <c r="BG333" s="12"/>
       <c r="BH333" s="12"/>
       <c r="BI333" s="12"/>
-      <c r="BJ333" s="12"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="11"/>
@@ -22285,7 +22176,6 @@
       <c r="BG334" s="11"/>
       <c r="BH334" s="11"/>
       <c r="BI334" s="11"/>
-      <c r="BJ334" s="11"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="12"/>
@@ -22349,7 +22239,6 @@
       <c r="BG335" s="12"/>
       <c r="BH335" s="12"/>
       <c r="BI335" s="12"/>
-      <c r="BJ335" s="12"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="11"/>
@@ -22413,7 +22302,6 @@
       <c r="BG336" s="11"/>
       <c r="BH336" s="11"/>
       <c r="BI336" s="11"/>
-      <c r="BJ336" s="11"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="12"/>
@@ -22477,7 +22365,6 @@
       <c r="BG337" s="12"/>
       <c r="BH337" s="12"/>
       <c r="BI337" s="12"/>
-      <c r="BJ337" s="12"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="11"/>
@@ -22541,7 +22428,6 @@
       <c r="BG338" s="11"/>
       <c r="BH338" s="11"/>
       <c r="BI338" s="11"/>
-      <c r="BJ338" s="11"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="12"/>
@@ -22605,7 +22491,6 @@
       <c r="BG339" s="12"/>
       <c r="BH339" s="12"/>
       <c r="BI339" s="12"/>
-      <c r="BJ339" s="12"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="11"/>
@@ -22669,7 +22554,6 @@
       <c r="BG340" s="11"/>
       <c r="BH340" s="11"/>
       <c r="BI340" s="11"/>
-      <c r="BJ340" s="11"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="12"/>
@@ -22733,7 +22617,6 @@
       <c r="BG341" s="12"/>
       <c r="BH341" s="12"/>
       <c r="BI341" s="12"/>
-      <c r="BJ341" s="12"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="11"/>
@@ -22797,7 +22680,6 @@
       <c r="BG342" s="11"/>
       <c r="BH342" s="11"/>
       <c r="BI342" s="11"/>
-      <c r="BJ342" s="11"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="12"/>
@@ -22861,7 +22743,6 @@
       <c r="BG343" s="12"/>
       <c r="BH343" s="12"/>
       <c r="BI343" s="12"/>
-      <c r="BJ343" s="12"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="11"/>
@@ -22925,7 +22806,6 @@
       <c r="BG344" s="11"/>
       <c r="BH344" s="11"/>
       <c r="BI344" s="11"/>
-      <c r="BJ344" s="11"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="12"/>
@@ -22989,7 +22869,6 @@
       <c r="BG345" s="12"/>
       <c r="BH345" s="12"/>
       <c r="BI345" s="12"/>
-      <c r="BJ345" s="12"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="11"/>
@@ -23053,7 +22932,6 @@
       <c r="BG346" s="11"/>
       <c r="BH346" s="11"/>
       <c r="BI346" s="11"/>
-      <c r="BJ346" s="11"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="12"/>
@@ -23117,7 +22995,6 @@
       <c r="BG347" s="12"/>
       <c r="BH347" s="12"/>
       <c r="BI347" s="12"/>
-      <c r="BJ347" s="12"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="11"/>
@@ -23181,7 +23058,6 @@
       <c r="BG348" s="11"/>
       <c r="BH348" s="11"/>
       <c r="BI348" s="11"/>
-      <c r="BJ348" s="11"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="12"/>
@@ -23245,7 +23121,6 @@
       <c r="BG349" s="12"/>
       <c r="BH349" s="12"/>
       <c r="BI349" s="12"/>
-      <c r="BJ349" s="12"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="11"/>
@@ -23309,7 +23184,6 @@
       <c r="BG350" s="11"/>
       <c r="BH350" s="11"/>
       <c r="BI350" s="11"/>
-      <c r="BJ350" s="11"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="12"/>
@@ -23373,7 +23247,6 @@
       <c r="BG351" s="12"/>
       <c r="BH351" s="12"/>
       <c r="BI351" s="12"/>
-      <c r="BJ351" s="12"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="11"/>
@@ -23437,7 +23310,6 @@
       <c r="BG352" s="11"/>
       <c r="BH352" s="11"/>
       <c r="BI352" s="11"/>
-      <c r="BJ352" s="11"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="12"/>
@@ -23501,7 +23373,6 @@
       <c r="BG353" s="12"/>
       <c r="BH353" s="12"/>
       <c r="BI353" s="12"/>
-      <c r="BJ353" s="12"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="11"/>
@@ -23565,7 +23436,6 @@
       <c r="BG354" s="11"/>
       <c r="BH354" s="11"/>
       <c r="BI354" s="11"/>
-      <c r="BJ354" s="11"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="12"/>
@@ -23629,7 +23499,6 @@
       <c r="BG355" s="12"/>
       <c r="BH355" s="12"/>
       <c r="BI355" s="12"/>
-      <c r="BJ355" s="12"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="11"/>
@@ -23693,7 +23562,6 @@
       <c r="BG356" s="11"/>
       <c r="BH356" s="11"/>
       <c r="BI356" s="11"/>
-      <c r="BJ356" s="11"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="12"/>
@@ -23757,7 +23625,6 @@
       <c r="BG357" s="12"/>
       <c r="BH357" s="12"/>
       <c r="BI357" s="12"/>
-      <c r="BJ357" s="12"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="11"/>
@@ -23821,7 +23688,6 @@
       <c r="BG358" s="11"/>
       <c r="BH358" s="11"/>
       <c r="BI358" s="11"/>
-      <c r="BJ358" s="11"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="12"/>
@@ -23885,7 +23751,6 @@
       <c r="BG359" s="12"/>
       <c r="BH359" s="12"/>
       <c r="BI359" s="12"/>
-      <c r="BJ359" s="12"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="11"/>
@@ -23949,7 +23814,6 @@
       <c r="BG360" s="11"/>
       <c r="BH360" s="11"/>
       <c r="BI360" s="11"/>
-      <c r="BJ360" s="11"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="12"/>
@@ -24013,7 +23877,6 @@
       <c r="BG361" s="12"/>
       <c r="BH361" s="12"/>
       <c r="BI361" s="12"/>
-      <c r="BJ361" s="12"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="11"/>
@@ -24077,7 +23940,6 @@
       <c r="BG362" s="11"/>
       <c r="BH362" s="11"/>
       <c r="BI362" s="11"/>
-      <c r="BJ362" s="11"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="12"/>
@@ -24141,7 +24003,6 @@
       <c r="BG363" s="12"/>
       <c r="BH363" s="12"/>
       <c r="BI363" s="12"/>
-      <c r="BJ363" s="12"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="11"/>
@@ -24205,7 +24066,6 @@
       <c r="BG364" s="11"/>
       <c r="BH364" s="11"/>
       <c r="BI364" s="11"/>
-      <c r="BJ364" s="11"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="12"/>
@@ -24269,7 +24129,6 @@
       <c r="BG365" s="12"/>
       <c r="BH365" s="12"/>
       <c r="BI365" s="12"/>
-      <c r="BJ365" s="12"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="11"/>
@@ -24333,7 +24192,6 @@
       <c r="BG366" s="11"/>
       <c r="BH366" s="11"/>
       <c r="BI366" s="11"/>
-      <c r="BJ366" s="11"/>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="12"/>
@@ -24397,7 +24255,6 @@
       <c r="BG367" s="12"/>
       <c r="BH367" s="12"/>
       <c r="BI367" s="12"/>
-      <c r="BJ367" s="12"/>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="11"/>
@@ -24461,7 +24318,6 @@
       <c r="BG368" s="11"/>
       <c r="BH368" s="11"/>
       <c r="BI368" s="11"/>
-      <c r="BJ368" s="11"/>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="12"/>
@@ -24525,7 +24381,6 @@
       <c r="BG369" s="12"/>
       <c r="BH369" s="12"/>
       <c r="BI369" s="12"/>
-      <c r="BJ369" s="12"/>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="11"/>
@@ -24589,7 +24444,6 @@
       <c r="BG370" s="11"/>
       <c r="BH370" s="11"/>
       <c r="BI370" s="11"/>
-      <c r="BJ370" s="11"/>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="12"/>
@@ -24653,7 +24507,6 @@
       <c r="BG371" s="12"/>
       <c r="BH371" s="12"/>
       <c r="BI371" s="12"/>
-      <c r="BJ371" s="12"/>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="11"/>
@@ -24717,7 +24570,6 @@
       <c r="BG372" s="11"/>
       <c r="BH372" s="11"/>
       <c r="BI372" s="11"/>
-      <c r="BJ372" s="11"/>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="12"/>
@@ -24781,7 +24633,6 @@
       <c r="BG373" s="12"/>
       <c r="BH373" s="12"/>
       <c r="BI373" s="12"/>
-      <c r="BJ373" s="12"/>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="11"/>
@@ -24845,7 +24696,6 @@
       <c r="BG374" s="11"/>
       <c r="BH374" s="11"/>
       <c r="BI374" s="11"/>
-      <c r="BJ374" s="11"/>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="12"/>
@@ -24909,7 +24759,6 @@
       <c r="BG375" s="12"/>
       <c r="BH375" s="12"/>
       <c r="BI375" s="12"/>
-      <c r="BJ375" s="12"/>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="11"/>
@@ -24973,7 +24822,6 @@
       <c r="BG376" s="11"/>
       <c r="BH376" s="11"/>
       <c r="BI376" s="11"/>
-      <c r="BJ376" s="11"/>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="12"/>
@@ -25037,7 +24885,6 @@
       <c r="BG377" s="12"/>
       <c r="BH377" s="12"/>
       <c r="BI377" s="12"/>
-      <c r="BJ377" s="12"/>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="11"/>
@@ -25101,7 +24948,6 @@
       <c r="BG378" s="11"/>
       <c r="BH378" s="11"/>
       <c r="BI378" s="11"/>
-      <c r="BJ378" s="11"/>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="12"/>
@@ -25165,7 +25011,6 @@
       <c r="BG379" s="12"/>
       <c r="BH379" s="12"/>
       <c r="BI379" s="12"/>
-      <c r="BJ379" s="12"/>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="11"/>
@@ -25229,7 +25074,6 @@
       <c r="BG380" s="11"/>
       <c r="BH380" s="11"/>
       <c r="BI380" s="11"/>
-      <c r="BJ380" s="11"/>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="12"/>
@@ -25293,7 +25137,6 @@
       <c r="BG381" s="12"/>
       <c r="BH381" s="12"/>
       <c r="BI381" s="12"/>
-      <c r="BJ381" s="12"/>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="11"/>
@@ -25357,7 +25200,6 @@
       <c r="BG382" s="11"/>
       <c r="BH382" s="11"/>
       <c r="BI382" s="11"/>
-      <c r="BJ382" s="11"/>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="12"/>
@@ -25421,7 +25263,6 @@
       <c r="BG383" s="12"/>
       <c r="BH383" s="12"/>
       <c r="BI383" s="12"/>
-      <c r="BJ383" s="12"/>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="11"/>
@@ -25485,7 +25326,6 @@
       <c r="BG384" s="11"/>
       <c r="BH384" s="11"/>
       <c r="BI384" s="11"/>
-      <c r="BJ384" s="11"/>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="12"/>
@@ -25549,7 +25389,6 @@
       <c r="BG385" s="12"/>
       <c r="BH385" s="12"/>
       <c r="BI385" s="12"/>
-      <c r="BJ385" s="12"/>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="11"/>
@@ -25613,7 +25452,6 @@
       <c r="BG386" s="11"/>
       <c r="BH386" s="11"/>
       <c r="BI386" s="11"/>
-      <c r="BJ386" s="11"/>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="12"/>
@@ -25677,7 +25515,6 @@
       <c r="BG387" s="12"/>
       <c r="BH387" s="12"/>
       <c r="BI387" s="12"/>
-      <c r="BJ387" s="12"/>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="11"/>
@@ -25741,7 +25578,6 @@
       <c r="BG388" s="11"/>
       <c r="BH388" s="11"/>
       <c r="BI388" s="11"/>
-      <c r="BJ388" s="11"/>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="12"/>
@@ -25805,7 +25641,6 @@
       <c r="BG389" s="12"/>
       <c r="BH389" s="12"/>
       <c r="BI389" s="12"/>
-      <c r="BJ389" s="12"/>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="11"/>
@@ -25869,7 +25704,6 @@
       <c r="BG390" s="11"/>
       <c r="BH390" s="11"/>
       <c r="BI390" s="11"/>
-      <c r="BJ390" s="11"/>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="12"/>
@@ -25933,7 +25767,6 @@
       <c r="BG391" s="12"/>
       <c r="BH391" s="12"/>
       <c r="BI391" s="12"/>
-      <c r="BJ391" s="12"/>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="11"/>
@@ -25997,7 +25830,6 @@
       <c r="BG392" s="11"/>
       <c r="BH392" s="11"/>
       <c r="BI392" s="11"/>
-      <c r="BJ392" s="11"/>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="12"/>
@@ -26061,7 +25893,6 @@
       <c r="BG393" s="12"/>
       <c r="BH393" s="12"/>
       <c r="BI393" s="12"/>
-      <c r="BJ393" s="12"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/3/19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/3/20</t>
   </si>
 </sst>
 </file>
@@ -485,8 +488,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4664,14 +4667,22 @@
       <c r="BI56" s="11"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
+      <c r="A57" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D57" s="12"/>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
+      <c r="H57" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I57" s="12"/>
       <c r="J57" s="12"/>
       <c r="K57" s="12"/>
@@ -4727,9 +4738,15 @@
       <c r="BI57" s="12"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
+      <c r="A58" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
@@ -4749,7 +4766,9 @@
       <c r="T58" s="11"/>
       <c r="U58" s="11"/>
       <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
+      <c r="W58" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X58" s="11"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
@@ -4780,7 +4799,9 @@
       <c r="AY58" s="11"/>
       <c r="AZ58" s="11"/>
       <c r="BA58" s="11"/>
-      <c r="BB58" s="11"/>
+      <c r="BB58" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BC58" s="11"/>
       <c r="BD58" s="11"/>
       <c r="BE58" s="11"/>
@@ -4790,9 +4811,15 @@
       <c r="BI58" s="11"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
+      <c r="A59" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -4823,7 +4850,9 @@
       <c r="AE59" s="12"/>
       <c r="AF59" s="12"/>
       <c r="AG59" s="12"/>
-      <c r="AH59" s="12"/>
+      <c r="AH59" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI59" s="12"/>
       <c r="AJ59" s="12"/>
       <c r="AK59" s="12"/>
@@ -4853,9 +4882,15 @@
       <c r="BI59" s="12"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
+      <c r="A60" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
@@ -4865,7 +4900,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
+      <c r="M60" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
@@ -4916,11 +4953,19 @@
       <c r="BI60" s="11"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="E61" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" s="12"/>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -4979,9 +5024,15 @@
       <c r="BI61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
+      <c r="A62" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
       <c r="F62" s="11"/>
@@ -5010,7 +5061,9 @@
       <c r="AC62" s="11"/>
       <c r="AD62" s="11"/>
       <c r="AE62" s="11"/>
-      <c r="AF62" s="11"/>
+      <c r="AF62" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="AG62" s="11"/>
       <c r="AH62" s="11"/>
       <c r="AI62" s="11"/>
@@ -5042,9 +5095,15 @@
       <c r="BI62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
+      <c r="A63" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -5061,7 +5120,9 @@
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
       <c r="S63" s="12"/>
-      <c r="T63" s="12"/>
+      <c r="T63" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="U63" s="12"/>
       <c r="V63" s="12"/>
       <c r="W63" s="12"/>
@@ -5105,9 +5166,15 @@
       <c r="BI63" s="12"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
+      <c r="A64" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
       <c r="F64" s="11"/>
@@ -5130,7 +5197,9 @@
       <c r="W64" s="11"/>
       <c r="X64" s="11"/>
       <c r="Y64" s="11"/>
-      <c r="Z64" s="11"/>
+      <c r="Z64" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AA64" s="11"/>
       <c r="AB64" s="11"/>
       <c r="AC64" s="11"/>
@@ -5168,9 +5237,15 @@
       <c r="BI64" s="11"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
+      <c r="A65" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -5178,7 +5253,9 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
       <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
+      <c r="K65" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="L65" s="12"/>
       <c r="M65" s="12"/>
       <c r="N65" s="12"/>
@@ -5231,9 +5308,15 @@
       <c r="BI65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="A66" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D66" s="11"/>
       <c r="E66" s="11"/>
       <c r="F66" s="11"/>
@@ -5294,9 +5377,15 @@
       <c r="BI66" s="11"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
+      <c r="A67" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5316,7 +5405,9 @@
       <c r="T67" s="12"/>
       <c r="U67" s="12"/>
       <c r="V67" s="12"/>
-      <c r="W67" s="12"/>
+      <c r="W67" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="X67" s="12"/>
       <c r="Y67" s="12"/>
       <c r="Z67" s="12"/>
@@ -5357,9 +5448,15 @@
       <c r="BI67" s="12"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
+      <c r="A68" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -5396,7 +5493,9 @@
       <c r="AK68" s="11"/>
       <c r="AL68" s="11"/>
       <c r="AM68" s="11"/>
-      <c r="AN68" s="11"/>
+      <c r="AN68" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AO68" s="11"/>
       <c r="AP68" s="11"/>
       <c r="AQ68" s="11"/>
@@ -5420,9 +5519,15 @@
       <c r="BI68" s="11"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
+      <c r="A69" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -5441,7 +5546,9 @@
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
       <c r="U69" s="12"/>
-      <c r="V69" s="12"/>
+      <c r="V69" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W69" s="12"/>
       <c r="X69" s="12"/>
       <c r="Y69" s="12"/>
@@ -5483,9 +5590,15 @@
       <c r="BI69" s="12"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="11"/>
+      <c r="A70" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B70" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11"/>
       <c r="F70" s="11"/>
@@ -5510,7 +5623,9 @@
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
       <c r="AA70" s="11"/>
-      <c r="AB70" s="11"/>
+      <c r="AB70" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="AC70" s="11"/>
       <c r="AD70" s="11"/>
       <c r="AE70" s="11"/>
@@ -5546,14 +5661,22 @@
       <c r="BI70" s="11"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
+      <c r="A71" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B71" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D71" s="12"/>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
       <c r="G71" s="12"/>
-      <c r="H71" s="12"/>
+      <c r="H71" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I71" s="12"/>
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
@@ -5609,9 +5732,15 @@
       <c r="BI71" s="12"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
+      <c r="A72" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11"/>
       <c r="F72" s="11"/>
@@ -5640,7 +5769,9 @@
       <c r="AC72" s="11"/>
       <c r="AD72" s="11"/>
       <c r="AE72" s="11"/>
-      <c r="AF72" s="11"/>
+      <c r="AF72" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="AG72" s="11"/>
       <c r="AH72" s="11"/>
       <c r="AI72" s="11"/>
@@ -5672,9 +5803,15 @@
       <c r="BI72" s="11"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
+      <c r="A73" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -5689,7 +5826,9 @@
       <c r="O73" s="12"/>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
-      <c r="R73" s="12"/>
+      <c r="R73" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
       <c r="U73" s="12"/>
@@ -5735,9 +5874,15 @@
       <c r="BI73" s="12"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
+      <c r="A74" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B74" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
@@ -5756,7 +5901,9 @@
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
+      <c r="V74" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
@@ -5798,9 +5945,15 @@
       <c r="BI74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
+      <c r="A75" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -5821,7 +5974,9 @@
       <c r="U75" s="12"/>
       <c r="V75" s="12"/>
       <c r="W75" s="12"/>
-      <c r="X75" s="12"/>
+      <c r="X75" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y75" s="12"/>
       <c r="Z75" s="12"/>
       <c r="AA75" s="12"/>
@@ -5851,7 +6006,9 @@
       <c r="AY75" s="12"/>
       <c r="AZ75" s="12"/>
       <c r="BA75" s="12"/>
-      <c r="BB75" s="12"/>
+      <c r="BB75" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BC75" s="12"/>
       <c r="BD75" s="12"/>
       <c r="BE75" s="12"/>
@@ -5861,9 +6018,15 @@
       <c r="BI75" s="12"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
+      <c r="A76" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
@@ -5887,7 +6050,9 @@
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
-      <c r="AA76" s="11"/>
+      <c r="AA76" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB76" s="11"/>
       <c r="AC76" s="11"/>
       <c r="AD76" s="11"/>
@@ -5924,9 +6089,15 @@
       <c r="BI76" s="11"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
+      <c r="A77" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D77" s="12"/>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -5936,7 +6107,9 @@
       <c r="J77" s="12"/>
       <c r="K77" s="12"/>
       <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
+      <c r="M77" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
       <c r="P77" s="12"/>
@@ -5987,9 +6160,15 @@
       <c r="BI77" s="12"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="11"/>
+      <c r="A78" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B78" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
@@ -6014,7 +6193,9 @@
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
       <c r="AA78" s="11"/>
-      <c r="AB78" s="11"/>
+      <c r="AB78" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="AC78" s="11"/>
       <c r="AD78" s="11"/>
       <c r="AE78" s="11"/>
@@ -6050,9 +6231,15 @@
       <c r="BI78" s="11"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
+      <c r="A79" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -6071,7 +6258,9 @@
       <c r="S79" s="12"/>
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
-      <c r="V79" s="12"/>
+      <c r="V79" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W79" s="12"/>
       <c r="X79" s="12"/>
       <c r="Y79" s="12"/>
@@ -6113,9 +6302,15 @@
       <c r="BI79" s="12"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="11"/>
+      <c r="A80" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B80" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
       <c r="F80" s="11"/>
@@ -6135,7 +6330,9 @@
       <c r="T80" s="11"/>
       <c r="U80" s="11"/>
       <c r="V80" s="11"/>
-      <c r="W80" s="11"/>
+      <c r="W80" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
@@ -6176,9 +6373,15 @@
       <c r="BI80" s="11"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
+      <c r="A81" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B81" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -6192,7 +6395,9 @@
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
       <c r="P81" s="12"/>
-      <c r="Q81" s="12"/>
+      <c r="Q81" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="R81" s="12"/>
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
@@ -6239,9 +6444,15 @@
       <c r="BI81" s="12"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="11"/>
+      <c r="A82" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11"/>
@@ -6270,7 +6481,9 @@
       <c r="AC82" s="11"/>
       <c r="AD82" s="11"/>
       <c r="AE82" s="11"/>
-      <c r="AF82" s="11"/>
+      <c r="AF82" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="AG82" s="11"/>
       <c r="AH82" s="11"/>
       <c r="AI82" s="11"/>
@@ -6302,9 +6515,15 @@
       <c r="BI82" s="11"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
+      <c r="A83" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B83" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -6320,7 +6539,9 @@
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
+      <c r="S83" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
       <c r="V83" s="12"/>
@@ -6355,7 +6576,9 @@
       <c r="AY83" s="12"/>
       <c r="AZ83" s="12"/>
       <c r="BA83" s="12"/>
-      <c r="BB83" s="12"/>
+      <c r="BB83" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BC83" s="12"/>
       <c r="BD83" s="12"/>
       <c r="BE83" s="12"/>
@@ -6365,9 +6588,15 @@
       <c r="BI83" s="12"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
+      <c r="A84" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
@@ -6397,7 +6626,9 @@
       <c r="AD84" s="11"/>
       <c r="AE84" s="11"/>
       <c r="AF84" s="11"/>
-      <c r="AG84" s="11"/>
+      <c r="AG84" s="11" t="n">
+        <v>3000</v>
+      </c>
       <c r="AH84" s="11"/>
       <c r="AI84" s="11"/>
       <c r="AJ84" s="11"/>
@@ -6428,14 +6659,22 @@
       <c r="BI84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
+      <c r="A85" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B85" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
       <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
+      <c r="H85" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I85" s="12"/>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
@@ -6491,9 +6730,15 @@
       <c r="BI85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="11"/>
+      <c r="A86" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B86" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11"/>
       <c r="F86" s="11"/>
@@ -6513,7 +6758,9 @@
       <c r="T86" s="11"/>
       <c r="U86" s="11"/>
       <c r="V86" s="11"/>
-      <c r="W86" s="11"/>
+      <c r="W86" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X86" s="11"/>
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
@@ -6554,9 +6801,15 @@
       <c r="BI86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
+      <c r="A87" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B87" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -6587,7 +6840,9 @@
       <c r="AE87" s="12"/>
       <c r="AF87" s="12"/>
       <c r="AG87" s="12"/>
-      <c r="AH87" s="12"/>
+      <c r="AH87" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI87" s="12"/>
       <c r="AJ87" s="12"/>
       <c r="AK87" s="12"/>
@@ -6617,9 +6872,15 @@
       <c r="BI87" s="12"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="11"/>
+      <c r="A88" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B88" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11"/>
       <c r="F88" s="11"/>
@@ -6650,7 +6911,9 @@
       <c r="AE88" s="11"/>
       <c r="AF88" s="11"/>
       <c r="AG88" s="11"/>
-      <c r="AH88" s="11"/>
+      <c r="AH88" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="AI88" s="11"/>
       <c r="AJ88" s="11"/>
       <c r="AK88" s="11"/>
@@ -6680,9 +6943,15 @@
       <c r="BI88" s="11"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
+      <c r="A89" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -6694,7 +6963,9 @@
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
       <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
+      <c r="O89" s="12" t="n">
+        <v>25</v>
+      </c>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
@@ -6743,9 +7014,15 @@
       <c r="BI89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="11"/>
+      <c r="A90" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B90" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11"/>
       <c r="F90" s="11"/>
@@ -6775,7 +7052,9 @@
       <c r="AD90" s="11"/>
       <c r="AE90" s="11"/>
       <c r="AF90" s="11"/>
-      <c r="AG90" s="11"/>
+      <c r="AG90" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH90" s="11"/>
       <c r="AI90" s="11"/>
       <c r="AJ90" s="11"/>
@@ -6806,11 +7085,19 @@
       <c r="BI90" s="11"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
+      <c r="A91" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
+      <c r="E91" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
       <c r="H91" s="12"/>
@@ -6869,9 +7156,15 @@
       <c r="BI91" s="12"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
+      <c r="A92" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11"/>
       <c r="F92" s="11"/>
@@ -6901,7 +7194,9 @@
       <c r="AD92" s="11"/>
       <c r="AE92" s="11"/>
       <c r="AF92" s="11"/>
-      <c r="AG92" s="11"/>
+      <c r="AG92" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH92" s="11"/>
       <c r="AI92" s="11"/>
       <c r="AJ92" s="11"/>
@@ -6932,9 +7227,15 @@
       <c r="BI92" s="11"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
+      <c r="A93" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B93" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -6961,7 +7262,9 @@
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
       <c r="AC93" s="12"/>
-      <c r="AD93" s="12"/>
+      <c r="AD93" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="AE93" s="12"/>
       <c r="AF93" s="12"/>
       <c r="AG93" s="12"/>
@@ -6995,9 +7298,15 @@
       <c r="BI93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="11"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="11"/>
+      <c r="A94" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B94" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11"/>
       <c r="F94" s="11"/>
@@ -7018,7 +7327,9 @@
       <c r="U94" s="11"/>
       <c r="V94" s="11"/>
       <c r="W94" s="11"/>
-      <c r="X94" s="11"/>
+      <c r="X94" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y94" s="11"/>
       <c r="Z94" s="11"/>
       <c r="AA94" s="11"/>
@@ -7058,16 +7369,24 @@
       <c r="BI94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
+      <c r="A95" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
       <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
+      <c r="J95" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" s="12"/>
       <c r="L95" s="12"/>
       <c r="M95" s="12"/>
@@ -7121,9 +7440,15 @@
       <c r="BI95" s="12"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
+      <c r="A96" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11"/>
       <c r="F96" s="11"/>
@@ -7133,7 +7458,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
       <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
+      <c r="M96" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>

--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/3/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/3/23</t>
   </si>
 </sst>
 </file>
@@ -488,8 +491,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7511,9 +7514,15 @@
       <c r="BI96" s="11"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
+      <c r="A97" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -7574,9 +7583,15 @@
       <c r="BI97" s="12"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
+      <c r="A98" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11"/>
       <c r="F98" s="11"/>
@@ -7596,7 +7611,9 @@
       <c r="T98" s="11"/>
       <c r="U98" s="11"/>
       <c r="V98" s="11"/>
-      <c r="W98" s="11"/>
+      <c r="W98" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X98" s="11"/>
       <c r="Y98" s="11"/>
       <c r="Z98" s="11"/>
@@ -7637,9 +7654,15 @@
       <c r="BI98" s="11"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
+      <c r="A99" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B99" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -7669,7 +7692,9 @@
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
       <c r="AF99" s="12"/>
-      <c r="AG99" s="12"/>
+      <c r="AG99" s="12" t="n">
+        <v>370</v>
+      </c>
       <c r="AH99" s="12"/>
       <c r="AI99" s="12"/>
       <c r="AJ99" s="12"/>
@@ -7690,7 +7715,9 @@
       <c r="AY99" s="12"/>
       <c r="AZ99" s="12"/>
       <c r="BA99" s="12"/>
-      <c r="BB99" s="12"/>
+      <c r="BB99" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BC99" s="12"/>
       <c r="BD99" s="12"/>
       <c r="BE99" s="12"/>
@@ -7700,9 +7727,15 @@
       <c r="BI99" s="12"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="11"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
+      <c r="A100" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="11"/>
@@ -7722,7 +7755,9 @@
       <c r="T100" s="11"/>
       <c r="U100" s="11"/>
       <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
+      <c r="W100" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X100" s="11"/>
       <c r="Y100" s="11"/>
       <c r="Z100" s="11"/>
@@ -7763,9 +7798,15 @@
       <c r="BI100" s="11"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
+      <c r="A101" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B101" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -7786,7 +7827,9 @@
       <c r="U101" s="12"/>
       <c r="V101" s="12"/>
       <c r="W101" s="12"/>
-      <c r="X101" s="12"/>
+      <c r="X101" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y101" s="12"/>
       <c r="Z101" s="12"/>
       <c r="AA101" s="12"/>
@@ -7826,9 +7869,15 @@
       <c r="BI101" s="12"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="11"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="11"/>
+      <c r="A102" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B102" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
       <c r="F102" s="11"/>
@@ -7851,7 +7900,9 @@
       <c r="W102" s="11"/>
       <c r="X102" s="11"/>
       <c r="Y102" s="11"/>
-      <c r="Z102" s="11"/>
+      <c r="Z102" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AA102" s="11"/>
       <c r="AB102" s="11"/>
       <c r="AC102" s="11"/>
@@ -7889,9 +7940,15 @@
       <c r="BI102" s="11"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
+      <c r="A103" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B103" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D103" s="12"/>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -7922,7 +7979,9 @@
       <c r="AE103" s="12"/>
       <c r="AF103" s="12"/>
       <c r="AG103" s="12"/>
-      <c r="AH103" s="12"/>
+      <c r="AH103" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI103" s="12"/>
       <c r="AJ103" s="12"/>
       <c r="AK103" s="12"/>
@@ -7952,9 +8011,15 @@
       <c r="BI103" s="12"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="11"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="11"/>
+      <c r="A104" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B104" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11"/>
       <c r="F104" s="11"/>
@@ -7966,7 +8031,9 @@
       <c r="L104" s="11"/>
       <c r="M104" s="11"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
+      <c r="O104" s="11" t="n">
+        <v>25</v>
+      </c>
       <c r="P104" s="11"/>
       <c r="Q104" s="11"/>
       <c r="R104" s="11"/>
@@ -8015,9 +8082,15 @@
       <c r="BI104" s="11"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
+      <c r="A105" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D105" s="12"/>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -8042,7 +8115,9 @@
       <c r="Y105" s="12"/>
       <c r="Z105" s="12"/>
       <c r="AA105" s="12"/>
-      <c r="AB105" s="12"/>
+      <c r="AB105" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="AC105" s="12"/>
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
@@ -8078,9 +8153,15 @@
       <c r="BI105" s="12"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="11"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="11"/>
+      <c r="A106" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B106" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11"/>
@@ -8110,7 +8191,9 @@
       <c r="AD106" s="11"/>
       <c r="AE106" s="11"/>
       <c r="AF106" s="11"/>
-      <c r="AG106" s="11"/>
+      <c r="AG106" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH106" s="11"/>
       <c r="AI106" s="11"/>
       <c r="AJ106" s="11"/>
@@ -8141,9 +8224,15 @@
       <c r="BI106" s="11"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
+      <c r="A107" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B107" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D107" s="12"/>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -8166,7 +8255,9 @@
       <c r="W107" s="12"/>
       <c r="X107" s="12"/>
       <c r="Y107" s="12"/>
-      <c r="Z107" s="12"/>
+      <c r="Z107" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AA107" s="12"/>
       <c r="AB107" s="12"/>
       <c r="AC107" s="12"/>
@@ -8204,14 +8295,22 @@
       <c r="BI107" s="12"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="11"/>
+      <c r="A108" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B108" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="11"/>
+      <c r="H108" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
@@ -8267,9 +8366,15 @@
       <c r="BI108" s="11"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
+      <c r="A109" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B109" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D109" s="12"/>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -8281,7 +8386,9 @@
       <c r="L109" s="12"/>
       <c r="M109" s="12"/>
       <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
+      <c r="O109" s="12" t="n">
+        <v>25</v>
+      </c>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
       <c r="R109" s="12"/>
@@ -8330,9 +8437,15 @@
       <c r="BI109" s="12"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
+      <c r="A110" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B110" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
       <c r="F110" s="11"/>
@@ -8393,9 +8506,15 @@
       <c r="BI110" s="11"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
+      <c r="A111" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B111" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -8456,9 +8575,15 @@
       <c r="BI111" s="12"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11"/>
+      <c r="A112" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B112" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
       <c r="F112" s="11"/>
@@ -8481,7 +8606,9 @@
       <c r="W112" s="11"/>
       <c r="X112" s="11"/>
       <c r="Y112" s="11"/>
-      <c r="Z112" s="11"/>
+      <c r="Z112" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AA112" s="11"/>
       <c r="AB112" s="11"/>
       <c r="AC112" s="11"/>
@@ -8519,9 +8646,15 @@
       <c r="BI112" s="11"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
+      <c r="A113" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B113" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -8549,7 +8682,9 @@
       <c r="AB113" s="12"/>
       <c r="AC113" s="12"/>
       <c r="AD113" s="12"/>
-      <c r="AE113" s="12"/>
+      <c r="AE113" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AF113" s="12"/>
       <c r="AG113" s="12"/>
       <c r="AH113" s="12"/>
@@ -8582,9 +8717,15 @@
       <c r="BI113" s="12"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="11"/>
+      <c r="A114" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11"/>
       <c r="F114" s="11"/>
@@ -8614,7 +8755,9 @@
       <c r="AD114" s="11"/>
       <c r="AE114" s="11"/>
       <c r="AF114" s="11"/>
-      <c r="AG114" s="11"/>
+      <c r="AG114" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH114" s="11"/>
       <c r="AI114" s="11"/>
       <c r="AJ114" s="11"/>
@@ -8645,9 +8788,15 @@
       <c r="BI114" s="11"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
+      <c r="A115" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -8676,7 +8825,9 @@
       <c r="AC115" s="12"/>
       <c r="AD115" s="12"/>
       <c r="AE115" s="12"/>
-      <c r="AF115" s="12"/>
+      <c r="AF115" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AG115" s="12"/>
       <c r="AH115" s="12"/>
       <c r="AI115" s="12"/>
@@ -8708,9 +8859,15 @@
       <c r="BI115" s="12"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="11"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="11"/>
+      <c r="A116" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B116" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11"/>
       <c r="F116" s="11"/>
@@ -8730,7 +8887,9 @@
       <c r="T116" s="11"/>
       <c r="U116" s="11"/>
       <c r="V116" s="11"/>
-      <c r="W116" s="11"/>
+      <c r="W116" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X116" s="11"/>
       <c r="Y116" s="11"/>
       <c r="Z116" s="11"/>
@@ -8771,16 +8930,24 @@
       <c r="BI116" s="11"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
+      <c r="A117" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B117" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12"/>
       <c r="H117" s="12"/>
       <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
+      <c r="J117" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" s="12"/>
       <c r="L117" s="12"/>
       <c r="M117" s="12"/>
@@ -8834,9 +9001,15 @@
       <c r="BI117" s="12"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="11"/>
+      <c r="A118" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B118" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
       <c r="F118" s="11"/>
@@ -8860,7 +9033,9 @@
       <c r="X118" s="11"/>
       <c r="Y118" s="11"/>
       <c r="Z118" s="11"/>
-      <c r="AA118" s="11"/>
+      <c r="AA118" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB118" s="11"/>
       <c r="AC118" s="11"/>
       <c r="AD118" s="11"/>
@@ -8897,9 +9072,15 @@
       <c r="BI118" s="11"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
+      <c r="A119" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B119" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -8960,9 +9141,15 @@
       <c r="BI119" s="12"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="11"/>
+      <c r="A120" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B120" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11"/>
       <c r="F120" s="11"/>
@@ -8980,7 +9167,9 @@
       <c r="R120" s="11"/>
       <c r="S120" s="11"/>
       <c r="T120" s="11"/>
-      <c r="U120" s="11"/>
+      <c r="U120" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="V120" s="11"/>
       <c r="W120" s="11"/>
       <c r="X120" s="11"/>
@@ -9023,16 +9212,24 @@
       <c r="BI120" s="11"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
+      <c r="A121" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B121" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12"/>
       <c r="H121" s="12"/>
       <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
+      <c r="J121" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K121" s="12"/>
       <c r="L121" s="12"/>
       <c r="M121" s="12"/>
@@ -9086,9 +9283,15 @@
       <c r="BI121" s="12"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="11"/>
+      <c r="A122" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B122" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11"/>
       <c r="F122" s="11"/>
@@ -9118,7 +9321,9 @@
       <c r="AD122" s="11"/>
       <c r="AE122" s="11"/>
       <c r="AF122" s="11"/>
-      <c r="AG122" s="11"/>
+      <c r="AG122" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH122" s="11"/>
       <c r="AI122" s="11"/>
       <c r="AJ122" s="11"/>
@@ -9149,9 +9354,15 @@
       <c r="BI122" s="11"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
+      <c r="A123" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B123" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
@@ -9181,7 +9392,9 @@
       <c r="AD123" s="12"/>
       <c r="AE123" s="12"/>
       <c r="AF123" s="12"/>
-      <c r="AG123" s="12"/>
+      <c r="AG123" s="12" t="n">
+        <v>370</v>
+      </c>
       <c r="AH123" s="12"/>
       <c r="AI123" s="12"/>
       <c r="AJ123" s="12"/>
@@ -9212,14 +9425,22 @@
       <c r="BI123" s="12"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
+      <c r="A124" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B124" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="11"/>
+      <c r="H124" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I124" s="11"/>
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
@@ -9265,7 +9486,9 @@
       <c r="AY124" s="11"/>
       <c r="AZ124" s="11"/>
       <c r="BA124" s="11"/>
-      <c r="BB124" s="11"/>
+      <c r="BB124" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BC124" s="11"/>
       <c r="BD124" s="11"/>
       <c r="BE124" s="11"/>
@@ -9275,9 +9498,15 @@
       <c r="BI124" s="11"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
+      <c r="A125" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -9307,7 +9536,9 @@
       <c r="AD125" s="12"/>
       <c r="AE125" s="12"/>
       <c r="AF125" s="12"/>
-      <c r="AG125" s="12"/>
+      <c r="AG125" s="12" t="n">
+        <v>370</v>
+      </c>
       <c r="AH125" s="12"/>
       <c r="AI125" s="12"/>
       <c r="AJ125" s="12"/>
@@ -9338,9 +9569,15 @@
       <c r="BI125" s="12"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
+      <c r="A126" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B126" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11"/>
       <c r="F126" s="11"/>
@@ -9364,7 +9601,9 @@
       <c r="X126" s="11"/>
       <c r="Y126" s="11"/>
       <c r="Z126" s="11"/>
-      <c r="AA126" s="11"/>
+      <c r="AA126" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB126" s="11"/>
       <c r="AC126" s="11"/>
       <c r="AD126" s="11"/>
@@ -9401,9 +9640,15 @@
       <c r="BI126" s="11"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
+      <c r="A127" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B127" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
@@ -9428,7 +9673,9 @@
       <c r="Y127" s="12"/>
       <c r="Z127" s="12"/>
       <c r="AA127" s="12"/>
-      <c r="AB127" s="12"/>
+      <c r="AB127" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="AC127" s="12"/>
       <c r="AD127" s="12"/>
       <c r="AE127" s="12"/>
@@ -9464,9 +9711,15 @@
       <c r="BI127" s="12"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="11"/>
+      <c r="A128" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B128" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="11"/>
@@ -9489,7 +9742,9 @@
       <c r="W128" s="11"/>
       <c r="X128" s="11"/>
       <c r="Y128" s="11"/>
-      <c r="Z128" s="11"/>
+      <c r="Z128" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AA128" s="11"/>
       <c r="AB128" s="11"/>
       <c r="AC128" s="11"/>
@@ -9527,14 +9782,22 @@
       <c r="BI128" s="11"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
+      <c r="A129" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B129" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12"/>
-      <c r="H129" s="12"/>
+      <c r="H129" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I129" s="12"/>
       <c r="J129" s="12"/>
       <c r="K129" s="12"/>
@@ -9590,9 +9853,15 @@
       <c r="BI129" s="12"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
+      <c r="A130" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B130" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11"/>
       <c r="F130" s="11"/>
@@ -9614,7 +9883,9 @@
       <c r="V130" s="11"/>
       <c r="W130" s="11"/>
       <c r="X130" s="11"/>
-      <c r="Y130" s="11"/>
+      <c r="Y130" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="Z130" s="11"/>
       <c r="AA130" s="11"/>
       <c r="AB130" s="11"/>
@@ -9653,9 +9924,15 @@
       <c r="BI130" s="11"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
+      <c r="A131" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B131" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D131" s="12"/>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
@@ -9665,7 +9942,9 @@
       <c r="J131" s="12"/>
       <c r="K131" s="12"/>
       <c r="L131" s="12"/>
-      <c r="M131" s="12"/>
+      <c r="M131" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="N131" s="12"/>
       <c r="O131" s="12"/>
       <c r="P131" s="12"/>
@@ -9706,7 +9985,9 @@
       <c r="AY131" s="12"/>
       <c r="AZ131" s="12"/>
       <c r="BA131" s="12"/>
-      <c r="BB131" s="12"/>
+      <c r="BB131" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BC131" s="12"/>
       <c r="BD131" s="12"/>
       <c r="BE131" s="12"/>
@@ -9716,9 +9997,15 @@
       <c r="BI131" s="12"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11"/>
+      <c r="A132" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B132" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
       <c r="F132" s="11"/>
@@ -9728,7 +10015,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="11"/>
       <c r="L132" s="11"/>
-      <c r="M132" s="11"/>
+      <c r="M132" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="N132" s="11"/>
       <c r="O132" s="11"/>
       <c r="P132" s="11"/>
@@ -9769,7 +10058,9 @@
       <c r="AY132" s="11"/>
       <c r="AZ132" s="11"/>
       <c r="BA132" s="11"/>
-      <c r="BB132" s="11"/>
+      <c r="BB132" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BC132" s="11"/>
       <c r="BD132" s="11"/>
       <c r="BE132" s="11"/>
@@ -9779,9 +10070,15 @@
       <c r="BI132" s="11"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
+      <c r="A133" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B133" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D133" s="12"/>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
@@ -9842,9 +10139,15 @@
       <c r="BI133" s="12"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="11"/>
+      <c r="A134" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B134" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
       <c r="F134" s="11"/>
@@ -9867,12 +10170,16 @@
       <c r="W134" s="11"/>
       <c r="X134" s="11"/>
       <c r="Y134" s="11"/>
-      <c r="Z134" s="11"/>
+      <c r="Z134" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AA134" s="11"/>
       <c r="AB134" s="11"/>
       <c r="AC134" s="11"/>
       <c r="AD134" s="11"/>
-      <c r="AE134" s="11"/>
+      <c r="AE134" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="AF134" s="11"/>
       <c r="AG134" s="11"/>
       <c r="AH134" s="11"/>
@@ -9905,9 +10212,15 @@
       <c r="BI134" s="11"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
+      <c r="A135" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B135" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D135" s="12"/>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -9932,7 +10245,9 @@
       <c r="Y135" s="12"/>
       <c r="Z135" s="12"/>
       <c r="AA135" s="12"/>
-      <c r="AB135" s="12"/>
+      <c r="AB135" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="AC135" s="12"/>
       <c r="AD135" s="12"/>
       <c r="AE135" s="12"/>
@@ -9968,9 +10283,15 @@
       <c r="BI135" s="12"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="11"/>
+      <c r="A136" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B136" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D136" s="11"/>
       <c r="E136" s="11"/>
       <c r="F136" s="11"/>
@@ -9990,7 +10311,9 @@
       <c r="T136" s="11"/>
       <c r="U136" s="11"/>
       <c r="V136" s="11"/>
-      <c r="W136" s="11"/>
+      <c r="W136" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X136" s="11"/>
       <c r="Y136" s="11"/>
       <c r="Z136" s="11"/>
@@ -10021,7 +10344,9 @@
       <c r="AY136" s="11"/>
       <c r="AZ136" s="11"/>
       <c r="BA136" s="11"/>
-      <c r="BB136" s="11"/>
+      <c r="BB136" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BC136" s="11"/>
       <c r="BD136" s="11"/>
       <c r="BE136" s="11"/>
@@ -10031,9 +10356,15 @@
       <c r="BI136" s="11"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
+      <c r="A137" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B137" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -10064,7 +10395,9 @@
       <c r="AE137" s="12"/>
       <c r="AF137" s="12"/>
       <c r="AG137" s="12"/>
-      <c r="AH137" s="12"/>
+      <c r="AH137" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI137" s="12"/>
       <c r="AJ137" s="12"/>
       <c r="AK137" s="12"/>
@@ -10094,9 +10427,15 @@
       <c r="BI137" s="12"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="11"/>
+      <c r="A138" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B138" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
       <c r="F138" s="11"/>
@@ -10116,7 +10455,9 @@
       <c r="T138" s="11"/>
       <c r="U138" s="11"/>
       <c r="V138" s="11"/>
-      <c r="W138" s="11"/>
+      <c r="W138" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X138" s="11"/>
       <c r="Y138" s="11"/>
       <c r="Z138" s="11"/>
@@ -10157,9 +10498,15 @@
       <c r="BI138" s="11"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
+      <c r="A139" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B139" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
@@ -10190,7 +10537,9 @@
       <c r="AE139" s="12"/>
       <c r="AF139" s="12"/>
       <c r="AG139" s="12"/>
-      <c r="AH139" s="12"/>
+      <c r="AH139" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI139" s="12"/>
       <c r="AJ139" s="12"/>
       <c r="AK139" s="12"/>
@@ -10220,9 +10569,15 @@
       <c r="BI139" s="12"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="11"/>
-      <c r="B140" s="11"/>
-      <c r="C140" s="11"/>
+      <c r="A140" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
       <c r="F140" s="11"/>
@@ -10242,7 +10597,9 @@
       <c r="T140" s="11"/>
       <c r="U140" s="11"/>
       <c r="V140" s="11"/>
-      <c r="W140" s="11"/>
+      <c r="W140" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X140" s="11"/>
       <c r="Y140" s="11"/>
       <c r="Z140" s="11"/>

--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="66">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/3/23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/3/24</t>
   </si>
 </sst>
 </file>
@@ -491,8 +494,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C141" activeCellId="0" sqref="C141"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10640,9 +10643,15 @@
       <c r="BI140" s="11"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
+      <c r="A141" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
@@ -10670,7 +10679,9 @@
       <c r="AB141" s="12"/>
       <c r="AC141" s="12"/>
       <c r="AD141" s="12"/>
-      <c r="AE141" s="12"/>
+      <c r="AE141" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AF141" s="12"/>
       <c r="AG141" s="12"/>
       <c r="AH141" s="12"/>
@@ -10703,9 +10714,15 @@
       <c r="BI141" s="12"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
+      <c r="A142" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B142" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
       <c r="F142" s="11"/>
@@ -10725,7 +10742,9 @@
       <c r="T142" s="11"/>
       <c r="U142" s="11"/>
       <c r="V142" s="11"/>
-      <c r="W142" s="11"/>
+      <c r="W142" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X142" s="11"/>
       <c r="Y142" s="11"/>
       <c r="Z142" s="11"/>
@@ -10766,9 +10785,15 @@
       <c r="BI142" s="11"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
+      <c r="A143" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
       <c r="F143" s="12"/>
@@ -10796,7 +10821,9 @@
       <c r="AB143" s="12"/>
       <c r="AC143" s="12"/>
       <c r="AD143" s="12"/>
-      <c r="AE143" s="12"/>
+      <c r="AE143" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AF143" s="12"/>
       <c r="AG143" s="12"/>
       <c r="AH143" s="12"/>
@@ -10829,9 +10856,15 @@
       <c r="BI143" s="12"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
+      <c r="A144" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B144" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
       <c r="F144" s="11"/>
@@ -10852,7 +10885,9 @@
       <c r="U144" s="11"/>
       <c r="V144" s="11"/>
       <c r="W144" s="11"/>
-      <c r="X144" s="11"/>
+      <c r="X144" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y144" s="11"/>
       <c r="Z144" s="11"/>
       <c r="AA144" s="11"/>
@@ -10892,14 +10927,22 @@
       <c r="BI144" s="11"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
+      <c r="A145" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="12"/>
-      <c r="H145" s="12"/>
+      <c r="H145" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I145" s="12"/>
       <c r="J145" s="12"/>
       <c r="K145" s="12"/>
@@ -10955,9 +10998,15 @@
       <c r="BI145" s="12"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="11"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="11"/>
+      <c r="A146" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B146" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
       <c r="F146" s="11"/>
@@ -10979,7 +11028,9 @@
       <c r="V146" s="11"/>
       <c r="W146" s="11"/>
       <c r="X146" s="11"/>
-      <c r="Y146" s="11"/>
+      <c r="Y146" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="Z146" s="11"/>
       <c r="AA146" s="11"/>
       <c r="AB146" s="11"/>
@@ -11018,9 +11069,15 @@
       <c r="BI146" s="11"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
+      <c r="A147" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B147" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
@@ -11044,7 +11101,9 @@
       <c r="X147" s="12"/>
       <c r="Y147" s="12"/>
       <c r="Z147" s="12"/>
-      <c r="AA147" s="12"/>
+      <c r="AA147" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AB147" s="12"/>
       <c r="AC147" s="12"/>
       <c r="AD147" s="12"/>
@@ -11081,9 +11140,15 @@
       <c r="BI147" s="12"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="11"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="11"/>
+      <c r="A148" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B148" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
       <c r="F148" s="11"/>
@@ -11102,7 +11167,9 @@
       <c r="S148" s="11"/>
       <c r="T148" s="11"/>
       <c r="U148" s="11"/>
-      <c r="V148" s="11"/>
+      <c r="V148" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W148" s="11"/>
       <c r="X148" s="11"/>
       <c r="Y148" s="11"/>
@@ -11144,9 +11211,15 @@
       <c r="BI148" s="11"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
+      <c r="A149" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B149" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
@@ -11156,7 +11229,9 @@
       <c r="J149" s="12"/>
       <c r="K149" s="12"/>
       <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
+      <c r="M149" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="N149" s="12"/>
       <c r="O149" s="12"/>
       <c r="P149" s="12"/>
@@ -11207,9 +11282,15 @@
       <c r="BI149" s="12"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="11"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="11"/>
+      <c r="A150" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B150" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
       <c r="F150" s="11"/>
@@ -11230,7 +11311,9 @@
       <c r="U150" s="11"/>
       <c r="V150" s="11"/>
       <c r="W150" s="11"/>
-      <c r="X150" s="11"/>
+      <c r="X150" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y150" s="11"/>
       <c r="Z150" s="11"/>
       <c r="AA150" s="11"/>
@@ -11270,9 +11353,15 @@
       <c r="BI150" s="11"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
+      <c r="A151" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B151" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
@@ -11296,7 +11385,9 @@
       <c r="X151" s="12"/>
       <c r="Y151" s="12"/>
       <c r="Z151" s="12"/>
-      <c r="AA151" s="12"/>
+      <c r="AA151" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AB151" s="12"/>
       <c r="AC151" s="12"/>
       <c r="AD151" s="12"/>
@@ -11333,16 +11424,24 @@
       <c r="BI151" s="12"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="11"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="11"/>
+      <c r="A152" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B152" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D152" s="11"/>
       <c r="E152" s="11"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
+      <c r="J152" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="K152" s="11"/>
       <c r="L152" s="11"/>
       <c r="M152" s="11"/>
@@ -11396,9 +11495,15 @@
       <c r="BI152" s="11"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
+      <c r="A153" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -11411,7 +11516,9 @@
       <c r="M153" s="12"/>
       <c r="N153" s="12"/>
       <c r="O153" s="12"/>
-      <c r="P153" s="12"/>
+      <c r="P153" s="12" t="n">
+        <v>30</v>
+      </c>
       <c r="Q153" s="12"/>
       <c r="R153" s="12"/>
       <c r="S153" s="12"/>
@@ -11459,9 +11566,15 @@
       <c r="BI153" s="12"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11"/>
+      <c r="A154" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B154" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
       <c r="F154" s="11"/>
@@ -11479,7 +11592,9 @@
       <c r="R154" s="11"/>
       <c r="S154" s="11"/>
       <c r="T154" s="11"/>
-      <c r="U154" s="11"/>
+      <c r="U154" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="V154" s="11"/>
       <c r="W154" s="11"/>
       <c r="X154" s="11"/>
@@ -11522,9 +11637,15 @@
       <c r="BI154" s="11"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
+      <c r="A155" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B155" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D155" s="12"/>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
@@ -11543,7 +11664,9 @@
       <c r="S155" s="12"/>
       <c r="T155" s="12"/>
       <c r="U155" s="12"/>
-      <c r="V155" s="12"/>
+      <c r="V155" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W155" s="12"/>
       <c r="X155" s="12"/>
       <c r="Y155" s="12"/>
@@ -11585,9 +11708,15 @@
       <c r="BI155" s="12"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="11"/>
+      <c r="A156" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B156" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
       <c r="F156" s="11"/>
@@ -11596,7 +11725,9 @@
       <c r="I156" s="11"/>
       <c r="J156" s="11"/>
       <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
+      <c r="L156" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="M156" s="11"/>
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
@@ -11648,9 +11779,15 @@
       <c r="BI156" s="11"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
+      <c r="A157" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B157" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
@@ -11677,7 +11814,9 @@
       <c r="AA157" s="12"/>
       <c r="AB157" s="12"/>
       <c r="AC157" s="12"/>
-      <c r="AD157" s="12"/>
+      <c r="AD157" s="12" t="n">
+        <v>3</v>
+      </c>
       <c r="AE157" s="12"/>
       <c r="AF157" s="12"/>
       <c r="AG157" s="12"/>
@@ -11706,14 +11845,22 @@
       <c r="BD157" s="12"/>
       <c r="BE157" s="12"/>
       <c r="BF157" s="12"/>
-      <c r="BG157" s="12"/>
+      <c r="BG157" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BH157" s="12"/>
       <c r="BI157" s="12"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
+      <c r="A158" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11"/>
       <c r="F158" s="11"/>
@@ -11722,7 +11869,9 @@
       <c r="I158" s="11"/>
       <c r="J158" s="11"/>
       <c r="K158" s="11"/>
-      <c r="L158" s="11"/>
+      <c r="L158" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="M158" s="11"/>
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
@@ -11774,9 +11923,15 @@
       <c r="BI158" s="11"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
+      <c r="A159" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B159" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D159" s="12"/>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
@@ -11795,7 +11950,9 @@
       <c r="S159" s="12"/>
       <c r="T159" s="12"/>
       <c r="U159" s="12"/>
-      <c r="V159" s="12"/>
+      <c r="V159" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W159" s="12"/>
       <c r="X159" s="12"/>
       <c r="Y159" s="12"/>
@@ -11837,9 +11994,15 @@
       <c r="BI159" s="12"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="11"/>
+      <c r="A160" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B160" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
       <c r="F160" s="11"/>
@@ -11866,7 +12029,9 @@
       <c r="AA160" s="11"/>
       <c r="AB160" s="11"/>
       <c r="AC160" s="11"/>
-      <c r="AD160" s="11"/>
+      <c r="AD160" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="AE160" s="11"/>
       <c r="AF160" s="11"/>
       <c r="AG160" s="11"/>
@@ -11900,9 +12065,15 @@
       <c r="BI160" s="11"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
+      <c r="A161" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B161" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D161" s="12"/>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
@@ -11933,7 +12104,9 @@
       <c r="AE161" s="12"/>
       <c r="AF161" s="12"/>
       <c r="AG161" s="12"/>
-      <c r="AH161" s="12"/>
+      <c r="AH161" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI161" s="12"/>
       <c r="AJ161" s="12"/>
       <c r="AK161" s="12"/>
@@ -11963,9 +12136,15 @@
       <c r="BI161" s="12"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
+      <c r="A162" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B162" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
       <c r="F162" s="11"/>
@@ -11987,7 +12166,9 @@
       <c r="V162" s="11"/>
       <c r="W162" s="11"/>
       <c r="X162" s="11"/>
-      <c r="Y162" s="11"/>
+      <c r="Y162" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="Z162" s="11"/>
       <c r="AA162" s="11"/>
       <c r="AB162" s="11"/>
@@ -12026,9 +12207,15 @@
       <c r="BI162" s="11"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
+      <c r="A163" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B163" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
@@ -12046,7 +12233,9 @@
       <c r="R163" s="12"/>
       <c r="S163" s="12"/>
       <c r="T163" s="12"/>
-      <c r="U163" s="12"/>
+      <c r="U163" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="V163" s="12"/>
       <c r="W163" s="12"/>
       <c r="X163" s="12"/>
@@ -12089,9 +12278,15 @@
       <c r="BI163" s="12"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
+      <c r="A164" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B164" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
       <c r="F164" s="11"/>
@@ -12115,7 +12310,9 @@
       <c r="X164" s="11"/>
       <c r="Y164" s="11"/>
       <c r="Z164" s="11"/>
-      <c r="AA164" s="11"/>
+      <c r="AA164" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB164" s="11"/>
       <c r="AC164" s="11"/>
       <c r="AD164" s="11"/>
@@ -12152,9 +12349,15 @@
       <c r="BI164" s="11"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
+      <c r="A165" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B165" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
       <c r="F165" s="12"/>
@@ -12175,7 +12378,9 @@
       <c r="U165" s="12"/>
       <c r="V165" s="12"/>
       <c r="W165" s="12"/>
-      <c r="X165" s="12"/>
+      <c r="X165" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y165" s="12"/>
       <c r="Z165" s="12"/>
       <c r="AA165" s="12"/>
@@ -12215,9 +12420,15 @@
       <c r="BI165" s="12"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
+      <c r="A166" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B166" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
       <c r="F166" s="11"/>
@@ -12248,7 +12459,9 @@
       <c r="AE166" s="11"/>
       <c r="AF166" s="11"/>
       <c r="AG166" s="11"/>
-      <c r="AH166" s="11"/>
+      <c r="AH166" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="AI166" s="11"/>
       <c r="AJ166" s="11"/>
       <c r="AK166" s="11"/>
@@ -12278,9 +12491,15 @@
       <c r="BI166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
+      <c r="A167" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B167" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
       <c r="F167" s="12"/>
@@ -12299,7 +12518,9 @@
       <c r="S167" s="12"/>
       <c r="T167" s="12"/>
       <c r="U167" s="12"/>
-      <c r="V167" s="12"/>
+      <c r="V167" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W167" s="12"/>
       <c r="X167" s="12"/>
       <c r="Y167" s="12"/>
@@ -12341,9 +12562,15 @@
       <c r="BI167" s="12"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
+      <c r="A168" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B168" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D168" s="11"/>
       <c r="E168" s="11"/>
       <c r="F168" s="11"/>
@@ -12368,7 +12595,9 @@
       <c r="Y168" s="11"/>
       <c r="Z168" s="11"/>
       <c r="AA168" s="11"/>
-      <c r="AB168" s="11"/>
+      <c r="AB168" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="AC168" s="11"/>
       <c r="AD168" s="11"/>
       <c r="AE168" s="11"/>
@@ -12404,16 +12633,24 @@
       <c r="BI168" s="11"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
+      <c r="A169" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B169" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
       <c r="F169" s="12"/>
       <c r="G169" s="12"/>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
-      <c r="J169" s="12"/>
+      <c r="J169" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K169" s="12"/>
       <c r="L169" s="12"/>
       <c r="M169" s="12"/>
@@ -12467,16 +12704,24 @@
       <c r="BI169" s="12"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
+      <c r="A170" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B170" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D170" s="11"/>
       <c r="E170" s="11"/>
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
       <c r="I170" s="11"/>
-      <c r="J170" s="11"/>
+      <c r="J170" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="K170" s="11"/>
       <c r="L170" s="11"/>
       <c r="M170" s="11"/>
@@ -12520,7 +12765,9 @@
       <c r="AY170" s="11"/>
       <c r="AZ170" s="11"/>
       <c r="BA170" s="11"/>
-      <c r="BB170" s="11"/>
+      <c r="BB170" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BC170" s="11"/>
       <c r="BD170" s="11"/>
       <c r="BE170" s="11"/>
@@ -12530,9 +12777,15 @@
       <c r="BI170" s="11"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
+      <c r="A171" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B171" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
       <c r="F171" s="12"/>
@@ -12551,7 +12804,9 @@
       <c r="S171" s="12"/>
       <c r="T171" s="12"/>
       <c r="U171" s="12"/>
-      <c r="V171" s="12"/>
+      <c r="V171" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W171" s="12"/>
       <c r="X171" s="12"/>
       <c r="Y171" s="12"/>
@@ -12593,9 +12848,15 @@
       <c r="BI171" s="12"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
+      <c r="A172" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B172" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D172" s="11"/>
       <c r="E172" s="11"/>
       <c r="F172" s="11"/>
@@ -12625,7 +12886,9 @@
       <c r="AD172" s="11"/>
       <c r="AE172" s="11"/>
       <c r="AF172" s="11"/>
-      <c r="AG172" s="11"/>
+      <c r="AG172" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH172" s="11"/>
       <c r="AI172" s="11"/>
       <c r="AJ172" s="11"/>
@@ -12656,9 +12919,15 @@
       <c r="BI172" s="11"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
+      <c r="A173" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B173" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
       <c r="F173" s="12"/>
@@ -12678,7 +12947,9 @@
       <c r="T173" s="12"/>
       <c r="U173" s="12"/>
       <c r="V173" s="12"/>
-      <c r="W173" s="12"/>
+      <c r="W173" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="X173" s="12"/>
       <c r="Y173" s="12"/>
       <c r="Z173" s="12"/>
@@ -12719,9 +12990,15 @@
       <c r="BI173" s="12"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
+      <c r="A174" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B174" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D174" s="11"/>
       <c r="E174" s="11"/>
       <c r="F174" s="11"/>
@@ -12740,7 +13017,9 @@
       <c r="S174" s="11"/>
       <c r="T174" s="11"/>
       <c r="U174" s="11"/>
-      <c r="V174" s="11"/>
+      <c r="V174" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W174" s="11"/>
       <c r="X174" s="11"/>
       <c r="Y174" s="11"/>
@@ -12782,9 +13061,15 @@
       <c r="BI174" s="11"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
+      <c r="A175" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B175" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D175" s="12"/>
       <c r="E175" s="12"/>
       <c r="F175" s="12"/>
@@ -12809,7 +13094,9 @@
       <c r="Y175" s="12"/>
       <c r="Z175" s="12"/>
       <c r="AA175" s="12"/>
-      <c r="AB175" s="12"/>
+      <c r="AB175" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="AC175" s="12"/>
       <c r="AD175" s="12"/>
       <c r="AE175" s="12"/>
@@ -12845,7 +13132,9 @@
       <c r="BI175" s="12"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="11"/>
+      <c r="A176" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="11"/>
@@ -12908,7 +13197,9 @@
       <c r="BI176" s="11"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="12"/>
+      <c r="A177" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
       <c r="D177" s="12"/>
@@ -12971,7 +13262,9 @@
       <c r="BI177" s="12"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="11"/>
+      <c r="A178" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
@@ -13034,7 +13327,9 @@
       <c r="BI178" s="11"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="12"/>
+      <c r="A179" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
       <c r="D179" s="12"/>
@@ -13097,7 +13392,9 @@
       <c r="BI179" s="12"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="11"/>
+      <c r="A180" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
@@ -13160,7 +13457,9 @@
       <c r="BI180" s="11"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="12"/>
+      <c r="A181" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
       <c r="D181" s="12"/>
@@ -13223,7 +13522,9 @@
       <c r="BI181" s="12"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="11"/>
+      <c r="A182" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -13286,7 +13587,9 @@
       <c r="BI182" s="11"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="12"/>
+      <c r="A183" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
       <c r="D183" s="12"/>
@@ -13349,7 +13652,9 @@
       <c r="BI183" s="12"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="11"/>
+      <c r="A184" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -13412,7 +13717,9 @@
       <c r="BI184" s="11"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="12"/>
+      <c r="A185" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
       <c r="D185" s="12"/>
@@ -13475,7 +13782,9 @@
       <c r="BI185" s="12"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="11"/>
+      <c r="A186" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -13538,7 +13847,9 @@
       <c r="BI186" s="11"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="12"/>
+      <c r="A187" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
       <c r="D187" s="12"/>
@@ -13601,7 +13912,9 @@
       <c r="BI187" s="12"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="11"/>
+      <c r="A188" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -13664,7 +13977,9 @@
       <c r="BI188" s="11"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="12"/>
+      <c r="A189" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
       <c r="D189" s="12"/>
@@ -13727,7 +14042,9 @@
       <c r="BI189" s="12"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="11"/>
+      <c r="A190" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -13790,7 +14107,9 @@
       <c r="BI190" s="11"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="12"/>
+      <c r="A191" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
       <c r="D191" s="12"/>
@@ -13853,7 +14172,9 @@
       <c r="BI191" s="12"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="11"/>
+      <c r="A192" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -13916,7 +14237,9 @@
       <c r="BI192" s="11"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="12"/>
+      <c r="A193" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
       <c r="D193" s="12"/>
@@ -13979,7 +14302,9 @@
       <c r="BI193" s="12"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="11"/>
+      <c r="A194" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -14042,7 +14367,9 @@
       <c r="BI194" s="11"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="12"/>
+      <c r="A195" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
@@ -14105,7 +14432,9 @@
       <c r="BI195" s="12"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="11"/>
+      <c r="A196" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
@@ -14168,7 +14497,9 @@
       <c r="BI196" s="11"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="12"/>
+      <c r="A197" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
       <c r="D197" s="12"/>
@@ -14231,7 +14562,9 @@
       <c r="BI197" s="12"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="11"/>
+      <c r="A198" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
@@ -14294,7 +14627,9 @@
       <c r="BI198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="12"/>
+      <c r="A199" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
       <c r="D199" s="12"/>
@@ -14357,7 +14692,9 @@
       <c r="BI199" s="12"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="11"/>
+      <c r="A200" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
@@ -14420,7 +14757,9 @@
       <c r="BI200" s="11"/>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="12"/>
+      <c r="A201" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
       <c r="D201" s="12"/>
@@ -14483,7 +14822,9 @@
       <c r="BI201" s="12"/>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="11"/>
+      <c r="A202" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
@@ -14546,7 +14887,9 @@
       <c r="BI202" s="11"/>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="12"/>
+      <c r="A203" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
       <c r="D203" s="12"/>
@@ -14609,7 +14952,9 @@
       <c r="BI203" s="12"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="11"/>
+      <c r="A204" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>

--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="67">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/3/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/3/25</t>
   </si>
 </sst>
 </file>
@@ -494,8 +497,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B175" activeCellId="0" sqref="B175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D198" activeCellId="0" sqref="D198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13133,10 +13136,14 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B176" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
       <c r="F176" s="11"/>
@@ -13166,7 +13173,9 @@
       <c r="AD176" s="11"/>
       <c r="AE176" s="11"/>
       <c r="AF176" s="11"/>
-      <c r="AG176" s="11"/>
+      <c r="AG176" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH176" s="11"/>
       <c r="AI176" s="11"/>
       <c r="AJ176" s="11"/>
@@ -13198,10 +13207,14 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B177" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D177" s="12"/>
       <c r="E177" s="12"/>
       <c r="F177" s="12"/>
@@ -13226,7 +13239,9 @@
       <c r="Y177" s="12"/>
       <c r="Z177" s="12"/>
       <c r="AA177" s="12"/>
-      <c r="AB177" s="12"/>
+      <c r="AB177" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="AC177" s="12"/>
       <c r="AD177" s="12"/>
       <c r="AE177" s="12"/>
@@ -13263,10 +13278,14 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B178" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
       <c r="F178" s="11"/>
@@ -13291,7 +13310,9 @@
       <c r="Y178" s="11"/>
       <c r="Z178" s="11"/>
       <c r="AA178" s="11"/>
-      <c r="AB178" s="11"/>
+      <c r="AB178" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="AC178" s="11"/>
       <c r="AD178" s="11"/>
       <c r="AE178" s="11"/>
@@ -13328,17 +13349,23 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B179" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D179" s="12"/>
       <c r="E179" s="12"/>
       <c r="F179" s="12"/>
       <c r="G179" s="12"/>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
+      <c r="J179" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K179" s="12"/>
       <c r="L179" s="12"/>
       <c r="M179" s="12"/>
@@ -13393,10 +13420,14 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B180" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D180" s="11"/>
       <c r="E180" s="11"/>
       <c r="F180" s="11"/>
@@ -13404,7 +13435,9 @@
       <c r="H180" s="11"/>
       <c r="I180" s="11"/>
       <c r="J180" s="11"/>
-      <c r="K180" s="11"/>
+      <c r="K180" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="L180" s="11"/>
       <c r="M180" s="11"/>
       <c r="N180" s="11"/>
@@ -13458,17 +13491,23 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B181" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D181" s="12"/>
       <c r="E181" s="12"/>
       <c r="F181" s="12"/>
       <c r="G181" s="12"/>
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
-      <c r="J181" s="12"/>
+      <c r="J181" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K181" s="12"/>
       <c r="L181" s="12"/>
       <c r="M181" s="12"/>
@@ -13523,10 +13562,14 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B182" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
       <c r="F182" s="11"/>
@@ -13556,7 +13599,9 @@
       <c r="AD182" s="11"/>
       <c r="AE182" s="11"/>
       <c r="AF182" s="11"/>
-      <c r="AG182" s="11"/>
+      <c r="AG182" s="11" t="n">
+        <v>771</v>
+      </c>
       <c r="AH182" s="11"/>
       <c r="AI182" s="11"/>
       <c r="AJ182" s="11"/>
@@ -13588,10 +13633,14 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B183" s="12"/>
-      <c r="C183" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B183" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D183" s="12"/>
       <c r="E183" s="12"/>
       <c r="F183" s="12"/>
@@ -13613,7 +13662,9 @@
       <c r="V183" s="12"/>
       <c r="W183" s="12"/>
       <c r="X183" s="12"/>
-      <c r="Y183" s="12"/>
+      <c r="Y183" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="Z183" s="12"/>
       <c r="AA183" s="12"/>
       <c r="AB183" s="12"/>
@@ -13653,10 +13704,14 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B184" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
       <c r="F184" s="11"/>
@@ -13676,7 +13731,9 @@
       <c r="T184" s="11"/>
       <c r="U184" s="11"/>
       <c r="V184" s="11"/>
-      <c r="W184" s="11"/>
+      <c r="W184" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X184" s="11"/>
       <c r="Y184" s="11"/>
       <c r="Z184" s="11"/>
@@ -13718,10 +13775,14 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B185" s="12"/>
-      <c r="C185" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B185" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D185" s="12"/>
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
@@ -13729,7 +13790,9 @@
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
       <c r="J185" s="12"/>
-      <c r="K185" s="12"/>
+      <c r="K185" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="L185" s="12"/>
       <c r="M185" s="12"/>
       <c r="N185" s="12"/>
@@ -13783,10 +13846,14 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B186" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
       <c r="F186" s="11"/>
@@ -13810,7 +13877,9 @@
       <c r="X186" s="11"/>
       <c r="Y186" s="11"/>
       <c r="Z186" s="11"/>
-      <c r="AA186" s="11"/>
+      <c r="AA186" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB186" s="11"/>
       <c r="AC186" s="11"/>
       <c r="AD186" s="11"/>
@@ -13848,10 +13917,14 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B187" s="12"/>
-      <c r="C187" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B187" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
       <c r="F187" s="12"/>
@@ -13872,7 +13945,9 @@
       <c r="U187" s="12"/>
       <c r="V187" s="12"/>
       <c r="W187" s="12"/>
-      <c r="X187" s="12"/>
+      <c r="X187" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y187" s="12"/>
       <c r="Z187" s="12"/>
       <c r="AA187" s="12"/>
@@ -13913,10 +13988,14 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B188" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
       <c r="F188" s="11"/>
@@ -13947,7 +14026,9 @@
       <c r="AE188" s="11"/>
       <c r="AF188" s="11"/>
       <c r="AG188" s="11"/>
-      <c r="AH188" s="11"/>
+      <c r="AH188" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="AI188" s="11"/>
       <c r="AJ188" s="11"/>
       <c r="AK188" s="11"/>
@@ -13978,10 +14059,14 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B189" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
       <c r="F189" s="12"/>
@@ -14012,7 +14097,9 @@
       <c r="AE189" s="12"/>
       <c r="AF189" s="12"/>
       <c r="AG189" s="12"/>
-      <c r="AH189" s="12"/>
+      <c r="AH189" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI189" s="12"/>
       <c r="AJ189" s="12"/>
       <c r="AK189" s="12"/>
@@ -14043,10 +14130,14 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B190" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D190" s="11"/>
       <c r="E190" s="11"/>
       <c r="F190" s="11"/>
@@ -14065,7 +14156,9 @@
       <c r="S190" s="11"/>
       <c r="T190" s="11"/>
       <c r="U190" s="11"/>
-      <c r="V190" s="11"/>
+      <c r="V190" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W190" s="11"/>
       <c r="X190" s="11"/>
       <c r="Y190" s="11"/>
@@ -14108,10 +14201,14 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B191" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
       <c r="F191" s="12"/>
@@ -14131,7 +14228,9 @@
       <c r="T191" s="12"/>
       <c r="U191" s="12"/>
       <c r="V191" s="12"/>
-      <c r="W191" s="12"/>
+      <c r="W191" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="X191" s="12"/>
       <c r="Y191" s="12"/>
       <c r="Z191" s="12"/>
@@ -14173,10 +14272,14 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B192" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D192" s="11"/>
       <c r="E192" s="11"/>
       <c r="F192" s="11"/>
@@ -14196,7 +14299,9 @@
       <c r="T192" s="11"/>
       <c r="U192" s="11"/>
       <c r="V192" s="11"/>
-      <c r="W192" s="11"/>
+      <c r="W192" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X192" s="11"/>
       <c r="Y192" s="11"/>
       <c r="Z192" s="11"/>
@@ -14238,17 +14343,23 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B193" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
       <c r="F193" s="12"/>
       <c r="G193" s="12"/>
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
-      <c r="J193" s="12"/>
+      <c r="J193" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K193" s="12"/>
       <c r="L193" s="12"/>
       <c r="M193" s="12"/>
@@ -14303,10 +14414,14 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B194" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D194" s="11"/>
       <c r="E194" s="11"/>
       <c r="F194" s="11"/>
@@ -14336,7 +14451,9 @@
       <c r="AD194" s="11"/>
       <c r="AE194" s="11"/>
       <c r="AF194" s="11"/>
-      <c r="AG194" s="11"/>
+      <c r="AG194" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH194" s="11"/>
       <c r="AI194" s="11"/>
       <c r="AJ194" s="11"/>
@@ -14368,10 +14485,14 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B195" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
       <c r="F195" s="12"/>
@@ -14399,7 +14520,9 @@
       <c r="AB195" s="12"/>
       <c r="AC195" s="12"/>
       <c r="AD195" s="12"/>
-      <c r="AE195" s="12"/>
+      <c r="AE195" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AF195" s="12"/>
       <c r="AG195" s="12"/>
       <c r="AH195" s="12"/>
@@ -14433,10 +14556,14 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B196" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D196" s="11"/>
       <c r="E196" s="11"/>
       <c r="F196" s="11"/>
@@ -14457,7 +14584,9 @@
       <c r="U196" s="11"/>
       <c r="V196" s="11"/>
       <c r="W196" s="11"/>
-      <c r="X196" s="11"/>
+      <c r="X196" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y196" s="11"/>
       <c r="Z196" s="11"/>
       <c r="AA196" s="11"/>
@@ -14498,10 +14627,14 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B197" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D197" s="12"/>
       <c r="E197" s="12"/>
       <c r="F197" s="12"/>
@@ -14509,7 +14642,9 @@
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
       <c r="J197" s="12"/>
-      <c r="K197" s="12"/>
+      <c r="K197" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="L197" s="12"/>
       <c r="M197" s="12"/>
       <c r="N197" s="12"/>
@@ -14563,10 +14698,14 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B198" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
       <c r="F198" s="11"/>
@@ -14574,7 +14713,9 @@
       <c r="H198" s="11"/>
       <c r="I198" s="11"/>
       <c r="J198" s="11"/>
-      <c r="K198" s="11"/>
+      <c r="K198" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="L198" s="11"/>
       <c r="M198" s="11"/>
       <c r="N198" s="11"/>
@@ -14628,10 +14769,14 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B199" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D199" s="12"/>
       <c r="E199" s="12"/>
       <c r="F199" s="12"/>
@@ -14650,7 +14795,9 @@
       <c r="S199" s="12"/>
       <c r="T199" s="12"/>
       <c r="U199" s="12"/>
-      <c r="V199" s="12"/>
+      <c r="V199" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W199" s="12"/>
       <c r="X199" s="12"/>
       <c r="Y199" s="12"/>
@@ -14693,10 +14840,14 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B200" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
       <c r="F200" s="11"/>
@@ -14730,7 +14881,9 @@
       <c r="AH200" s="11"/>
       <c r="AI200" s="11"/>
       <c r="AJ200" s="11"/>
-      <c r="AK200" s="11"/>
+      <c r="AK200" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AL200" s="11"/>
       <c r="AM200" s="11"/>
       <c r="AN200" s="11"/>
@@ -14758,10 +14911,14 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B201" s="12"/>
-      <c r="C201" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B201" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D201" s="12"/>
       <c r="E201" s="12"/>
       <c r="F201" s="12"/>
@@ -14807,7 +14964,9 @@
       <c r="AT201" s="12"/>
       <c r="AU201" s="12"/>
       <c r="AV201" s="12"/>
-      <c r="AW201" s="12"/>
+      <c r="AW201" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="AX201" s="12"/>
       <c r="AY201" s="12"/>
       <c r="AZ201" s="12"/>
@@ -14823,10 +14982,14 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
+        <v>66</v>
+      </c>
+      <c r="B202" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D202" s="11"/>
       <c r="E202" s="11"/>
       <c r="F202" s="11"/>
@@ -14838,7 +15001,9 @@
       <c r="L202" s="11"/>
       <c r="M202" s="11"/>
       <c r="N202" s="11"/>
-      <c r="O202" s="11"/>
+      <c r="O202" s="11" t="n">
+        <v>25</v>
+      </c>
       <c r="P202" s="11"/>
       <c r="Q202" s="11"/>
       <c r="R202" s="11"/>
@@ -14888,15 +15053,21 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B203" s="12"/>
-      <c r="C203" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="B203" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D203" s="12"/>
       <c r="E203" s="12"/>
       <c r="F203" s="12"/>
       <c r="G203" s="12"/>
-      <c r="H203" s="12"/>
+      <c r="H203" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I203" s="12"/>
       <c r="J203" s="12"/>
       <c r="K203" s="12"/>
@@ -14952,9 +15123,7 @@
       <c r="BI203" s="12"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>

--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="68">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/3/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/3/26</t>
   </si>
 </sst>
 </file>
@@ -497,8 +500,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ393"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A163" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D198" activeCellId="0" sqref="D198"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A225" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C289" activeCellId="0" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15123,9 +15126,15 @@
       <c r="BI203" s="12"/>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
+      <c r="A204" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B204" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
       <c r="F204" s="11"/>
@@ -15155,7 +15164,9 @@
       <c r="AD204" s="11"/>
       <c r="AE204" s="11"/>
       <c r="AF204" s="11"/>
-      <c r="AG204" s="11"/>
+      <c r="AG204" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH204" s="11"/>
       <c r="AI204" s="11"/>
       <c r="AJ204" s="11"/>
@@ -15186,9 +15197,15 @@
       <c r="BI204" s="11"/>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="12"/>
+      <c r="A205" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B205" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D205" s="12"/>
       <c r="E205" s="12"/>
       <c r="F205" s="12"/>
@@ -15200,7 +15217,9 @@
       <c r="L205" s="12"/>
       <c r="M205" s="12"/>
       <c r="N205" s="12"/>
-      <c r="O205" s="12"/>
+      <c r="O205" s="12" t="n">
+        <v>25</v>
+      </c>
       <c r="P205" s="12"/>
       <c r="Q205" s="12"/>
       <c r="R205" s="12"/>
@@ -15249,9 +15268,15 @@
       <c r="BI205" s="12"/>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
+      <c r="A206" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B206" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
       <c r="F206" s="11"/>
@@ -15281,7 +15306,9 @@
       <c r="AD206" s="11"/>
       <c r="AE206" s="11"/>
       <c r="AF206" s="11"/>
-      <c r="AG206" s="11"/>
+      <c r="AG206" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH206" s="11"/>
       <c r="AI206" s="11"/>
       <c r="AJ206" s="11"/>
@@ -15312,16 +15339,24 @@
       <c r="BI206" s="11"/>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="12"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="12"/>
+      <c r="A207" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B207" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D207" s="12"/>
       <c r="E207" s="12"/>
       <c r="F207" s="12"/>
       <c r="G207" s="12"/>
       <c r="H207" s="12"/>
       <c r="I207" s="12"/>
-      <c r="J207" s="12"/>
+      <c r="J207" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K207" s="12"/>
       <c r="L207" s="12"/>
       <c r="M207" s="12"/>
@@ -15375,9 +15410,15 @@
       <c r="BI207" s="12"/>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
+      <c r="A208" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B208" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
       <c r="F208" s="11"/>
@@ -15401,7 +15442,9 @@
       <c r="X208" s="11"/>
       <c r="Y208" s="11"/>
       <c r="Z208" s="11"/>
-      <c r="AA208" s="11"/>
+      <c r="AA208" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB208" s="11"/>
       <c r="AC208" s="11"/>
       <c r="AD208" s="11"/>
@@ -15438,9 +15481,15 @@
       <c r="BI208" s="11"/>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="12"/>
-      <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
+      <c r="A209" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B209" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D209" s="12"/>
       <c r="E209" s="12"/>
       <c r="F209" s="12"/>
@@ -15461,7 +15510,9 @@
       <c r="U209" s="12"/>
       <c r="V209" s="12"/>
       <c r="W209" s="12"/>
-      <c r="X209" s="12"/>
+      <c r="X209" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y209" s="12"/>
       <c r="Z209" s="12"/>
       <c r="AA209" s="12"/>
@@ -15501,9 +15552,15 @@
       <c r="BI209" s="12"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
+      <c r="A210" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B210" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
       <c r="F210" s="11"/>
@@ -15523,7 +15580,9 @@
       <c r="T210" s="11"/>
       <c r="U210" s="11"/>
       <c r="V210" s="11"/>
-      <c r="W210" s="11"/>
+      <c r="W210" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X210" s="11"/>
       <c r="Y210" s="11"/>
       <c r="Z210" s="11"/>
@@ -15564,16 +15623,24 @@
       <c r="BI210" s="11"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="12"/>
+      <c r="A211" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B211" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
       <c r="F211" s="12"/>
       <c r="G211" s="12"/>
       <c r="H211" s="12"/>
       <c r="I211" s="12"/>
-      <c r="J211" s="12"/>
+      <c r="J211" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="K211" s="12"/>
       <c r="L211" s="12"/>
       <c r="M211" s="12"/>
@@ -15627,9 +15694,15 @@
       <c r="BI211" s="12"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
+      <c r="A212" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B212" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D212" s="11"/>
       <c r="E212" s="11"/>
       <c r="F212" s="11"/>
@@ -15651,7 +15724,9 @@
       <c r="V212" s="11"/>
       <c r="W212" s="11"/>
       <c r="X212" s="11"/>
-      <c r="Y212" s="11"/>
+      <c r="Y212" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="Z212" s="11"/>
       <c r="AA212" s="11"/>
       <c r="AB212" s="11"/>
@@ -15690,9 +15765,15 @@
       <c r="BI212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="12"/>
+      <c r="A213" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B213" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
       <c r="F213" s="12"/>
@@ -15712,7 +15793,9 @@
       <c r="T213" s="12"/>
       <c r="U213" s="12"/>
       <c r="V213" s="12"/>
-      <c r="W213" s="12"/>
+      <c r="W213" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="X213" s="12"/>
       <c r="Y213" s="12"/>
       <c r="Z213" s="12"/>
@@ -15753,9 +15836,15 @@
       <c r="BI213" s="12"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
+      <c r="A214" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B214" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D214" s="11"/>
       <c r="E214" s="11"/>
       <c r="F214" s="11"/>
@@ -15785,7 +15874,9 @@
       <c r="AD214" s="11"/>
       <c r="AE214" s="11"/>
       <c r="AF214" s="11"/>
-      <c r="AG214" s="11"/>
+      <c r="AG214" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH214" s="11"/>
       <c r="AI214" s="11"/>
       <c r="AJ214" s="11"/>
@@ -15816,9 +15907,15 @@
       <c r="BI214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="12"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="12"/>
+      <c r="A215" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B215" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
       <c r="F215" s="12"/>
@@ -15839,7 +15936,9 @@
       <c r="U215" s="12"/>
       <c r="V215" s="12"/>
       <c r="W215" s="12"/>
-      <c r="X215" s="12"/>
+      <c r="X215" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y215" s="12"/>
       <c r="Z215" s="12"/>
       <c r="AA215" s="12"/>
@@ -15879,9 +15978,15 @@
       <c r="BI215" s="12"/>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
+      <c r="A216" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B216" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
       <c r="F216" s="11"/>
@@ -15900,7 +16005,9 @@
       <c r="S216" s="11"/>
       <c r="T216" s="11"/>
       <c r="U216" s="11"/>
-      <c r="V216" s="11"/>
+      <c r="V216" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W216" s="11"/>
       <c r="X216" s="11"/>
       <c r="Y216" s="11"/>
@@ -15942,9 +16049,15 @@
       <c r="BI216" s="11"/>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="12"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="12"/>
+      <c r="A217" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B217" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D217" s="12"/>
       <c r="E217" s="12"/>
       <c r="F217" s="12"/>
@@ -15964,7 +16077,9 @@
       <c r="T217" s="12"/>
       <c r="U217" s="12"/>
       <c r="V217" s="12"/>
-      <c r="W217" s="12"/>
+      <c r="W217" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="X217" s="12"/>
       <c r="Y217" s="12"/>
       <c r="Z217" s="12"/>
@@ -16005,9 +16120,15 @@
       <c r="BI217" s="12"/>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
+      <c r="A218" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B218" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D218" s="11"/>
       <c r="E218" s="11"/>
       <c r="F218" s="11"/>
@@ -16025,7 +16146,9 @@
       <c r="R218" s="11"/>
       <c r="S218" s="11"/>
       <c r="T218" s="11"/>
-      <c r="U218" s="11"/>
+      <c r="U218" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="V218" s="11"/>
       <c r="W218" s="11"/>
       <c r="X218" s="11"/>
@@ -16068,9 +16191,15 @@
       <c r="BI218" s="11"/>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="12"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="12"/>
+      <c r="A219" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B219" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
       <c r="F219" s="12"/>
@@ -16091,7 +16220,9 @@
       <c r="U219" s="12"/>
       <c r="V219" s="12"/>
       <c r="W219" s="12"/>
-      <c r="X219" s="12"/>
+      <c r="X219" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y219" s="12"/>
       <c r="Z219" s="12"/>
       <c r="AA219" s="12"/>
@@ -16131,14 +16262,22 @@
       <c r="BI219" s="12"/>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
+      <c r="A220" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B220" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
-      <c r="H220" s="11"/>
+      <c r="H220" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I220" s="11"/>
       <c r="J220" s="11"/>
       <c r="K220" s="11"/>
@@ -16194,9 +16333,15 @@
       <c r="BI220" s="11"/>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="12"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="12"/>
+      <c r="A221" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B221" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D221" s="12"/>
       <c r="E221" s="12"/>
       <c r="F221" s="12"/>
@@ -16227,7 +16372,9 @@
       <c r="AE221" s="12"/>
       <c r="AF221" s="12"/>
       <c r="AG221" s="12"/>
-      <c r="AH221" s="12"/>
+      <c r="AH221" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI221" s="12"/>
       <c r="AJ221" s="12"/>
       <c r="AK221" s="12"/>
@@ -16247,7 +16394,9 @@
       <c r="AY221" s="12"/>
       <c r="AZ221" s="12"/>
       <c r="BA221" s="12"/>
-      <c r="BB221" s="12"/>
+      <c r="BB221" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BC221" s="12"/>
       <c r="BD221" s="12"/>
       <c r="BE221" s="12"/>
@@ -16257,9 +16406,15 @@
       <c r="BI221" s="12"/>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="11"/>
-      <c r="B222" s="11"/>
-      <c r="C222" s="11"/>
+      <c r="A222" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B222" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
       <c r="F222" s="11"/>
@@ -16284,7 +16439,9 @@
       <c r="Y222" s="11"/>
       <c r="Z222" s="11"/>
       <c r="AA222" s="11"/>
-      <c r="AB222" s="11"/>
+      <c r="AB222" s="11" t="n">
+        <v>5</v>
+      </c>
       <c r="AC222" s="11"/>
       <c r="AD222" s="11"/>
       <c r="AE222" s="11"/>
@@ -16320,9 +16477,15 @@
       <c r="BI222" s="11"/>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="12"/>
+      <c r="A223" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B223" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D223" s="12"/>
       <c r="E223" s="12"/>
       <c r="F223" s="12"/>
@@ -16344,7 +16507,9 @@
       <c r="V223" s="12"/>
       <c r="W223" s="12"/>
       <c r="X223" s="12"/>
-      <c r="Y223" s="12"/>
+      <c r="Y223" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="Z223" s="12"/>
       <c r="AA223" s="12"/>
       <c r="AB223" s="12"/>
@@ -16383,16 +16548,24 @@
       <c r="BI223" s="12"/>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="11"/>
-      <c r="B224" s="11"/>
-      <c r="C224" s="11"/>
+      <c r="A224" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B224" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D224" s="11"/>
       <c r="E224" s="11"/>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
       <c r="H224" s="11"/>
       <c r="I224" s="11"/>
-      <c r="J224" s="11"/>
+      <c r="J224" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="K224" s="11"/>
       <c r="L224" s="11"/>
       <c r="M224" s="11"/>
@@ -16446,9 +16619,15 @@
       <c r="BI224" s="11"/>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="12"/>
+      <c r="A225" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B225" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D225" s="12"/>
       <c r="E225" s="12"/>
       <c r="F225" s="12"/>
@@ -16470,7 +16649,9 @@
       <c r="V225" s="12"/>
       <c r="W225" s="12"/>
       <c r="X225" s="12"/>
-      <c r="Y225" s="12"/>
+      <c r="Y225" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="Z225" s="12"/>
       <c r="AA225" s="12"/>
       <c r="AB225" s="12"/>
@@ -16509,16 +16690,24 @@
       <c r="BI225" s="12"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="11"/>
-      <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
+      <c r="A226" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B226" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
       <c r="I226" s="11"/>
-      <c r="J226" s="11"/>
+      <c r="J226" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="K226" s="11"/>
       <c r="L226" s="11"/>
       <c r="M226" s="11"/>
@@ -16572,9 +16761,15 @@
       <c r="BI226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
+      <c r="A227" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B227" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D227" s="12"/>
       <c r="E227" s="12"/>
       <c r="F227" s="12"/>
@@ -16596,7 +16791,9 @@
       <c r="V227" s="12"/>
       <c r="W227" s="12"/>
       <c r="X227" s="12"/>
-      <c r="Y227" s="12"/>
+      <c r="Y227" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="Z227" s="12"/>
       <c r="AA227" s="12"/>
       <c r="AB227" s="12"/>
@@ -16635,9 +16832,15 @@
       <c r="BI227" s="12"/>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="11"/>
-      <c r="B228" s="11"/>
-      <c r="C228" s="11"/>
+      <c r="A228" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B228" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
       <c r="F228" s="11"/>
@@ -16649,7 +16852,9 @@
       <c r="L228" s="11"/>
       <c r="M228" s="11"/>
       <c r="N228" s="11"/>
-      <c r="O228" s="11"/>
+      <c r="O228" s="11" t="n">
+        <v>25</v>
+      </c>
       <c r="P228" s="11"/>
       <c r="Q228" s="11"/>
       <c r="R228" s="11"/>
@@ -16698,9 +16903,15 @@
       <c r="BI228" s="11"/>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
+      <c r="A229" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B229" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D229" s="12"/>
       <c r="E229" s="12"/>
       <c r="F229" s="12"/>
@@ -16719,7 +16930,9 @@
       <c r="S229" s="12"/>
       <c r="T229" s="12"/>
       <c r="U229" s="12"/>
-      <c r="V229" s="12"/>
+      <c r="V229" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W229" s="12"/>
       <c r="X229" s="12"/>
       <c r="Y229" s="12"/>
@@ -16761,9 +16974,15 @@
       <c r="BI229" s="12"/>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="11"/>
-      <c r="B230" s="11"/>
-      <c r="C230" s="11"/>
+      <c r="A230" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B230" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
       <c r="F230" s="11"/>
@@ -16786,7 +17005,9 @@
       <c r="W230" s="11"/>
       <c r="X230" s="11"/>
       <c r="Y230" s="11"/>
-      <c r="Z230" s="11"/>
+      <c r="Z230" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AA230" s="11"/>
       <c r="AB230" s="11"/>
       <c r="AC230" s="11"/>
@@ -16824,9 +17045,15 @@
       <c r="BI230" s="11"/>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="12"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
+      <c r="A231" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B231" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D231" s="12"/>
       <c r="E231" s="12"/>
       <c r="F231" s="12"/>
@@ -16854,7 +17081,9 @@
       <c r="AB231" s="12"/>
       <c r="AC231" s="12"/>
       <c r="AD231" s="12"/>
-      <c r="AE231" s="12"/>
+      <c r="AE231" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AF231" s="12"/>
       <c r="AG231" s="12"/>
       <c r="AH231" s="12"/>
@@ -16887,9 +17116,15 @@
       <c r="BI231" s="12"/>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
+      <c r="A232" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B232" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
       <c r="F232" s="11"/>
@@ -16897,7 +17132,9 @@
       <c r="H232" s="11"/>
       <c r="I232" s="11"/>
       <c r="J232" s="11"/>
-      <c r="K232" s="11"/>
+      <c r="K232" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="L232" s="11"/>
       <c r="M232" s="11"/>
       <c r="N232" s="11"/>
@@ -16950,9 +17187,15 @@
       <c r="BI232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
+      <c r="A233" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B233" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
       <c r="F233" s="12"/>
@@ -16978,7 +17221,9 @@
       <c r="Z233" s="12"/>
       <c r="AA233" s="12"/>
       <c r="AB233" s="12"/>
-      <c r="AC233" s="12"/>
+      <c r="AC233" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AD233" s="12"/>
       <c r="AE233" s="12"/>
       <c r="AF233" s="12"/>
@@ -17013,9 +17258,15 @@
       <c r="BI233" s="12"/>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
+      <c r="A234" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B234" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D234" s="11"/>
       <c r="E234" s="11"/>
       <c r="F234" s="11"/>
@@ -17034,7 +17285,9 @@
       <c r="S234" s="11"/>
       <c r="T234" s="11"/>
       <c r="U234" s="11"/>
-      <c r="V234" s="11"/>
+      <c r="V234" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W234" s="11"/>
       <c r="X234" s="11"/>
       <c r="Y234" s="11"/>
@@ -17076,9 +17329,15 @@
       <c r="BI234" s="11"/>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="12"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="12"/>
+      <c r="A235" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B235" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
       <c r="F235" s="12"/>
@@ -17096,7 +17355,9 @@
       <c r="R235" s="12"/>
       <c r="S235" s="12"/>
       <c r="T235" s="12"/>
-      <c r="U235" s="12"/>
+      <c r="U235" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="V235" s="12"/>
       <c r="W235" s="12"/>
       <c r="X235" s="12"/>
@@ -17139,9 +17400,15 @@
       <c r="BI235" s="12"/>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
-      <c r="C236" s="11"/>
+      <c r="A236" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B236" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
       <c r="F236" s="11"/>
@@ -17155,7 +17422,9 @@
       <c r="N236" s="11"/>
       <c r="O236" s="11"/>
       <c r="P236" s="11"/>
-      <c r="Q236" s="11"/>
+      <c r="Q236" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="R236" s="11"/>
       <c r="S236" s="11"/>
       <c r="T236" s="11"/>
@@ -17202,9 +17471,15 @@
       <c r="BI236" s="11"/>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12"/>
-      <c r="C237" s="12"/>
+      <c r="A237" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B237" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
       <c r="F237" s="12"/>
@@ -17238,7 +17513,9 @@
       <c r="AH237" s="12"/>
       <c r="AI237" s="12"/>
       <c r="AJ237" s="12"/>
-      <c r="AK237" s="12"/>
+      <c r="AK237" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="AL237" s="12"/>
       <c r="AM237" s="12"/>
       <c r="AN237" s="12"/>
@@ -17265,9 +17542,15 @@
       <c r="BI237" s="12"/>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
-      <c r="C238" s="11"/>
+      <c r="A238" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B238" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D238" s="11"/>
       <c r="E238" s="11"/>
       <c r="F238" s="11"/>
@@ -17297,7 +17580,9 @@
       <c r="AD238" s="11"/>
       <c r="AE238" s="11"/>
       <c r="AF238" s="11"/>
-      <c r="AG238" s="11"/>
+      <c r="AG238" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH238" s="11"/>
       <c r="AI238" s="11"/>
       <c r="AJ238" s="11"/>
@@ -17328,9 +17613,15 @@
       <c r="BI238" s="11"/>
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="12"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
+      <c r="A239" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B239" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D239" s="12"/>
       <c r="E239" s="12"/>
       <c r="F239" s="12"/>
@@ -17349,7 +17640,9 @@
       <c r="S239" s="12"/>
       <c r="T239" s="12"/>
       <c r="U239" s="12"/>
-      <c r="V239" s="12"/>
+      <c r="V239" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W239" s="12"/>
       <c r="X239" s="12"/>
       <c r="Y239" s="12"/>
@@ -17391,16 +17684,24 @@
       <c r="BI239" s="12"/>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
+      <c r="A240" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B240" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D240" s="11"/>
       <c r="E240" s="11"/>
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
       <c r="H240" s="11"/>
       <c r="I240" s="11"/>
-      <c r="J240" s="11"/>
+      <c r="J240" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" s="11"/>
       <c r="L240" s="11"/>
       <c r="M240" s="11"/>
@@ -17454,9 +17755,15 @@
       <c r="BI240" s="11"/>
     </row>
     <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
+      <c r="A241" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B241" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D241" s="12"/>
       <c r="E241" s="12"/>
       <c r="F241" s="12"/>
@@ -17487,7 +17794,9 @@
       <c r="AE241" s="12"/>
       <c r="AF241" s="12"/>
       <c r="AG241" s="12"/>
-      <c r="AH241" s="12"/>
+      <c r="AH241" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI241" s="12"/>
       <c r="AJ241" s="12"/>
       <c r="AK241" s="12"/>
@@ -17517,9 +17826,15 @@
       <c r="BI241" s="12"/>
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="11"/>
-      <c r="B242" s="11"/>
-      <c r="C242" s="11"/>
+      <c r="A242" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B242" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
       <c r="F242" s="11"/>
@@ -17547,7 +17862,9 @@
       <c r="AB242" s="11"/>
       <c r="AC242" s="11"/>
       <c r="AD242" s="11"/>
-      <c r="AE242" s="11"/>
+      <c r="AE242" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="AF242" s="11"/>
       <c r="AG242" s="11"/>
       <c r="AH242" s="11"/>
@@ -17580,14 +17897,22 @@
       <c r="BI242" s="11"/>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="12"/>
-      <c r="B243" s="12"/>
-      <c r="C243" s="12"/>
+      <c r="A243" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B243" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D243" s="12"/>
       <c r="E243" s="12"/>
       <c r="F243" s="12"/>
       <c r="G243" s="12"/>
-      <c r="H243" s="12"/>
+      <c r="H243" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I243" s="12"/>
       <c r="J243" s="12"/>
       <c r="K243" s="12"/>
@@ -17643,9 +17968,15 @@
       <c r="BI243" s="12"/>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
+      <c r="A244" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B244" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
       <c r="F244" s="11"/>
@@ -17653,7 +17984,9 @@
       <c r="H244" s="11"/>
       <c r="I244" s="11"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="11"/>
+      <c r="K244" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="L244" s="11"/>
       <c r="M244" s="11"/>
       <c r="N244" s="11"/>
@@ -17706,9 +18039,15 @@
       <c r="BI244" s="11"/>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="12"/>
-      <c r="B245" s="12"/>
-      <c r="C245" s="12"/>
+      <c r="A245" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B245" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D245" s="12"/>
       <c r="E245" s="12"/>
       <c r="F245" s="12"/>
@@ -17736,7 +18075,9 @@
       <c r="AB245" s="12"/>
       <c r="AC245" s="12"/>
       <c r="AD245" s="12"/>
-      <c r="AE245" s="12"/>
+      <c r="AE245" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AF245" s="12"/>
       <c r="AG245" s="12"/>
       <c r="AH245" s="12"/>
@@ -17769,9 +18110,15 @@
       <c r="BI245" s="12"/>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
+      <c r="A246" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B246" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D246" s="11"/>
       <c r="E246" s="11"/>
       <c r="F246" s="11"/>
@@ -17793,7 +18140,9 @@
       <c r="V246" s="11"/>
       <c r="W246" s="11"/>
       <c r="X246" s="11"/>
-      <c r="Y246" s="11"/>
+      <c r="Y246" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="Z246" s="11"/>
       <c r="AA246" s="11"/>
       <c r="AB246" s="11"/>
@@ -17832,9 +18181,15 @@
       <c r="BI246" s="11"/>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
-      <c r="C247" s="12"/>
+      <c r="A247" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B247" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D247" s="12"/>
       <c r="E247" s="12"/>
       <c r="F247" s="12"/>
@@ -17855,7 +18210,9 @@
       <c r="U247" s="12"/>
       <c r="V247" s="12"/>
       <c r="W247" s="12"/>
-      <c r="X247" s="12"/>
+      <c r="X247" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="Y247" s="12"/>
       <c r="Z247" s="12"/>
       <c r="AA247" s="12"/>
@@ -17895,9 +18252,15 @@
       <c r="BI247" s="12"/>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
+      <c r="A248" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B248" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
       <c r="F248" s="11"/>
@@ -17910,7 +18273,9 @@
       <c r="M248" s="11"/>
       <c r="N248" s="11"/>
       <c r="O248" s="11"/>
-      <c r="P248" s="11"/>
+      <c r="P248" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="Q248" s="11"/>
       <c r="R248" s="11"/>
       <c r="S248" s="11"/>
@@ -17958,9 +18323,15 @@
       <c r="BI248" s="11"/>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="12"/>
-      <c r="B249" s="12"/>
-      <c r="C249" s="12"/>
+      <c r="A249" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B249" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D249" s="12"/>
       <c r="E249" s="12"/>
       <c r="F249" s="12"/>
@@ -17991,7 +18362,9 @@
       <c r="AE249" s="12"/>
       <c r="AF249" s="12"/>
       <c r="AG249" s="12"/>
-      <c r="AH249" s="12"/>
+      <c r="AH249" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI249" s="12"/>
       <c r="AJ249" s="12"/>
       <c r="AK249" s="12"/>
@@ -18021,9 +18394,15 @@
       <c r="BI249" s="12"/>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
+      <c r="A250" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B250" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
       <c r="F250" s="11"/>
@@ -18084,9 +18463,15 @@
       <c r="BI250" s="11"/>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="12"/>
-      <c r="B251" s="12"/>
-      <c r="C251" s="12"/>
+      <c r="A251" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B251" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D251" s="12"/>
       <c r="E251" s="12"/>
       <c r="F251" s="12"/>
@@ -18111,7 +18496,9 @@
       <c r="Y251" s="12"/>
       <c r="Z251" s="12"/>
       <c r="AA251" s="12"/>
-      <c r="AB251" s="12"/>
+      <c r="AB251" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="AC251" s="12"/>
       <c r="AD251" s="12"/>
       <c r="AE251" s="12"/>
@@ -18147,9 +18534,15 @@
       <c r="BI251" s="12"/>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
-      <c r="C252" s="11"/>
+      <c r="A252" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B252" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
       <c r="F252" s="11"/>
@@ -18210,9 +18603,15 @@
       <c r="BI252" s="11"/>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="12"/>
-      <c r="B253" s="12"/>
-      <c r="C253" s="12"/>
+      <c r="A253" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B253" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D253" s="12"/>
       <c r="E253" s="12"/>
       <c r="F253" s="12"/>
@@ -18224,7 +18623,9 @@
       <c r="L253" s="12"/>
       <c r="M253" s="12"/>
       <c r="N253" s="12"/>
-      <c r="O253" s="12"/>
+      <c r="O253" s="12" t="n">
+        <v>25</v>
+      </c>
       <c r="P253" s="12"/>
       <c r="Q253" s="12"/>
       <c r="R253" s="12"/>
@@ -18273,9 +18674,15 @@
       <c r="BI253" s="12"/>
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="11"/>
-      <c r="B254" s="11"/>
-      <c r="C254" s="11"/>
+      <c r="A254" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B254" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
       <c r="F254" s="11"/>
@@ -18301,7 +18708,9 @@
       <c r="Z254" s="11"/>
       <c r="AA254" s="11"/>
       <c r="AB254" s="11"/>
-      <c r="AC254" s="11"/>
+      <c r="AC254" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="AD254" s="11"/>
       <c r="AE254" s="11"/>
       <c r="AF254" s="11"/>
@@ -18336,11 +18745,19 @@
       <c r="BI254" s="11"/>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="12"/>
-      <c r="B255" s="12"/>
-      <c r="C255" s="12"/>
+      <c r="A255" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B255" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
+      <c r="E255" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="F255" s="12"/>
       <c r="G255" s="12"/>
       <c r="H255" s="12"/>
@@ -18399,14 +18816,22 @@
       <c r="BI255" s="12"/>
     </row>
     <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="11"/>
-      <c r="B256" s="11"/>
-      <c r="C256" s="11"/>
+      <c r="A256" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B256" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D256" s="11"/>
       <c r="E256" s="11"/>
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
-      <c r="H256" s="11"/>
+      <c r="H256" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I256" s="11"/>
       <c r="J256" s="11"/>
       <c r="K256" s="11"/>
@@ -18462,9 +18887,15 @@
       <c r="BI256" s="11"/>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="12"/>
-      <c r="B257" s="12"/>
-      <c r="C257" s="12"/>
+      <c r="A257" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B257" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
       <c r="F257" s="12"/>
@@ -18517,7 +18948,9 @@
       <c r="BA257" s="12"/>
       <c r="BB257" s="12"/>
       <c r="BC257" s="12"/>
-      <c r="BD257" s="12"/>
+      <c r="BD257" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BE257" s="12"/>
       <c r="BF257" s="12"/>
       <c r="BG257" s="12"/>
@@ -18525,9 +18958,15 @@
       <c r="BI257" s="12"/>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="11"/>
-      <c r="B258" s="11"/>
-      <c r="C258" s="11"/>
+      <c r="A258" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D258" s="11"/>
       <c r="E258" s="11"/>
       <c r="F258" s="11"/>
@@ -18535,7 +18974,9 @@
       <c r="H258" s="11"/>
       <c r="I258" s="11"/>
       <c r="J258" s="11"/>
-      <c r="K258" s="11"/>
+      <c r="K258" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="L258" s="11"/>
       <c r="M258" s="11"/>
       <c r="N258" s="11"/>
@@ -18588,7 +19029,9 @@
       <c r="BI258" s="11"/>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="12"/>
+      <c r="A259" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
       <c r="D259" s="12"/>
@@ -18651,7 +19094,9 @@
       <c r="BI259" s="12"/>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="11"/>
+      <c r="A260" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
@@ -18714,7 +19159,9 @@
       <c r="BI260" s="11"/>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="12"/>
+      <c r="A261" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
@@ -18777,7 +19224,9 @@
       <c r="BI261" s="12"/>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="11"/>
+      <c r="A262" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
       <c r="D262" s="11"/>
@@ -18840,7 +19289,9 @@
       <c r="BI262" s="11"/>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="12"/>
+      <c r="A263" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
       <c r="D263" s="12"/>
@@ -18903,7 +19354,9 @@
       <c r="BI263" s="12"/>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="11"/>
+      <c r="A264" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
       <c r="D264" s="11"/>
@@ -18966,7 +19419,9 @@
       <c r="BI264" s="11"/>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="12"/>
+      <c r="A265" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
       <c r="D265" s="12"/>
@@ -19029,7 +19484,9 @@
       <c r="BI265" s="12"/>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="11"/>
+      <c r="A266" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
@@ -19092,7 +19549,9 @@
       <c r="BI266" s="11"/>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="12"/>
+      <c r="A267" s="12" t="s">
+        <v>67</v>
+      </c>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
       <c r="D267" s="12"/>

--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="69">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/3/26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/3/27</t>
   </si>
 </sst>
 </file>
@@ -501,7 +504,7 @@
   <dimension ref="A1:AMJ393"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A225" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C289" activeCellId="0" sqref="C289"/>
+      <selection pane="topLeft" activeCell="C303" activeCellId="0" sqref="C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19030,10 +19033,14 @@
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B259" s="12"/>
-      <c r="C259" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="B259" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
       <c r="F259" s="12"/>
@@ -19053,7 +19060,9 @@
       <c r="T259" s="12"/>
       <c r="U259" s="12"/>
       <c r="V259" s="12"/>
-      <c r="W259" s="12"/>
+      <c r="W259" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="X259" s="12"/>
       <c r="Y259" s="12"/>
       <c r="Z259" s="12"/>
@@ -19095,15 +19104,21 @@
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B260" s="11"/>
-      <c r="C260" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="B260" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D260" s="11"/>
       <c r="E260" s="11"/>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
-      <c r="H260" s="11"/>
+      <c r="H260" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I260" s="11"/>
       <c r="J260" s="11"/>
       <c r="K260" s="11"/>
@@ -19160,15 +19175,21 @@
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B261" s="12"/>
-      <c r="C261" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="B261" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
       <c r="F261" s="12"/>
       <c r="G261" s="12"/>
-      <c r="H261" s="12"/>
+      <c r="H261" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I261" s="12"/>
       <c r="J261" s="12"/>
       <c r="K261" s="12"/>
@@ -19225,10 +19246,14 @@
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B262" s="11"/>
-      <c r="C262" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="B262" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D262" s="11"/>
       <c r="E262" s="11"/>
       <c r="F262" s="11"/>
@@ -19252,7 +19277,9 @@
       <c r="X262" s="11"/>
       <c r="Y262" s="11"/>
       <c r="Z262" s="11"/>
-      <c r="AA262" s="11"/>
+      <c r="AA262" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB262" s="11"/>
       <c r="AC262" s="11"/>
       <c r="AD262" s="11"/>
@@ -19290,10 +19317,14 @@
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B263" s="12"/>
-      <c r="C263" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="B263" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D263" s="12"/>
       <c r="E263" s="12"/>
       <c r="F263" s="12"/>
@@ -19306,7 +19337,9 @@
       <c r="M263" s="12"/>
       <c r="N263" s="12"/>
       <c r="O263" s="12"/>
-      <c r="P263" s="12"/>
+      <c r="P263" s="12" t="n">
+        <v>30</v>
+      </c>
       <c r="Q263" s="12"/>
       <c r="R263" s="12"/>
       <c r="S263" s="12"/>
@@ -19355,10 +19388,14 @@
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="B264" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
       <c r="F264" s="11"/>
@@ -19393,7 +19430,9 @@
       <c r="AI264" s="11"/>
       <c r="AJ264" s="11"/>
       <c r="AK264" s="11"/>
-      <c r="AL264" s="11"/>
+      <c r="AL264" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="AM264" s="11"/>
       <c r="AN264" s="11"/>
       <c r="AO264" s="11"/>
@@ -19420,10 +19459,14 @@
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B265" s="12"/>
-      <c r="C265" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="B265" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D265" s="12"/>
       <c r="E265" s="12"/>
       <c r="F265" s="12"/>
@@ -19448,7 +19491,9 @@
       <c r="Y265" s="12"/>
       <c r="Z265" s="12"/>
       <c r="AA265" s="12"/>
-      <c r="AB265" s="12"/>
+      <c r="AB265" s="12" t="n">
+        <v>5</v>
+      </c>
       <c r="AC265" s="12"/>
       <c r="AD265" s="12"/>
       <c r="AE265" s="12"/>
@@ -19485,10 +19530,14 @@
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B266" s="11"/>
-      <c r="C266" s="11"/>
+        <v>68</v>
+      </c>
+      <c r="B266" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
       <c r="F266" s="11"/>
@@ -19508,7 +19557,9 @@
       <c r="T266" s="11"/>
       <c r="U266" s="11"/>
       <c r="V266" s="11"/>
-      <c r="W266" s="11"/>
+      <c r="W266" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="X266" s="11"/>
       <c r="Y266" s="11"/>
       <c r="Z266" s="11"/>
@@ -19550,10 +19601,14 @@
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B267" s="12"/>
-      <c r="C267" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="B267" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D267" s="12"/>
       <c r="E267" s="12"/>
       <c r="F267" s="12"/>
@@ -19562,7 +19617,9 @@
       <c r="I267" s="12"/>
       <c r="J267" s="12"/>
       <c r="K267" s="12"/>
-      <c r="L267" s="12"/>
+      <c r="L267" s="12" t="n">
+        <v>20</v>
+      </c>
       <c r="M267" s="12"/>
       <c r="N267" s="12"/>
       <c r="O267" s="12"/>
@@ -19614,9 +19671,15 @@
       <c r="BI267" s="12"/>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
+      <c r="A268" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B268" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D268" s="11"/>
       <c r="E268" s="11"/>
       <c r="F268" s="11"/>
@@ -19624,7 +19687,9 @@
       <c r="H268" s="11"/>
       <c r="I268" s="11"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="11"/>
+      <c r="K268" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="L268" s="11"/>
       <c r="M268" s="11"/>
       <c r="N268" s="11"/>
@@ -19677,9 +19742,15 @@
       <c r="BI268" s="11"/>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="12"/>
-      <c r="B269" s="12"/>
-      <c r="C269" s="12"/>
+      <c r="A269" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B269" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D269" s="12"/>
       <c r="E269" s="12"/>
       <c r="F269" s="12"/>
@@ -19689,7 +19760,9 @@
       <c r="J269" s="12"/>
       <c r="K269" s="12"/>
       <c r="L269" s="12"/>
-      <c r="M269" s="12"/>
+      <c r="M269" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="N269" s="12"/>
       <c r="O269" s="12"/>
       <c r="P269" s="12"/>
@@ -19740,9 +19813,15 @@
       <c r="BI269" s="12"/>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="11"/>
-      <c r="B270" s="11"/>
-      <c r="C270" s="11"/>
+      <c r="A270" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B270" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
       <c r="F270" s="11"/>
@@ -19753,7 +19832,9 @@
       <c r="K270" s="11"/>
       <c r="L270" s="11"/>
       <c r="M270" s="11"/>
-      <c r="N270" s="11"/>
+      <c r="N270" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="O270" s="11"/>
       <c r="P270" s="11"/>
       <c r="Q270" s="11"/>
@@ -19803,9 +19884,15 @@
       <c r="BI270" s="11"/>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="12"/>
-      <c r="B271" s="12"/>
-      <c r="C271" s="12"/>
+      <c r="A271" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B271" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D271" s="12"/>
       <c r="E271" s="12"/>
       <c r="F271" s="12"/>
@@ -19835,7 +19922,9 @@
       <c r="AD271" s="12"/>
       <c r="AE271" s="12"/>
       <c r="AF271" s="12"/>
-      <c r="AG271" s="12"/>
+      <c r="AG271" s="12" t="n">
+        <v>766</v>
+      </c>
       <c r="AH271" s="12"/>
       <c r="AI271" s="12"/>
       <c r="AJ271" s="12"/>
@@ -19856,7 +19945,9 @@
       <c r="AY271" s="12"/>
       <c r="AZ271" s="12"/>
       <c r="BA271" s="12"/>
-      <c r="BB271" s="12"/>
+      <c r="BB271" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BC271" s="12"/>
       <c r="BD271" s="12"/>
       <c r="BE271" s="12"/>
@@ -19866,14 +19957,22 @@
       <c r="BI271" s="12"/>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="11"/>
-      <c r="B272" s="11"/>
-      <c r="C272" s="11"/>
+      <c r="A272" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B272" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
-      <c r="H272" s="11"/>
+      <c r="H272" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I272" s="11"/>
       <c r="J272" s="11"/>
       <c r="K272" s="11"/>
@@ -19929,9 +20028,15 @@
       <c r="BI272" s="11"/>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="12"/>
-      <c r="B273" s="12"/>
-      <c r="C273" s="12"/>
+      <c r="A273" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B273" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D273" s="12"/>
       <c r="E273" s="12"/>
       <c r="F273" s="12"/>
@@ -19992,14 +20097,22 @@
       <c r="BI273" s="12"/>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="11"/>
-      <c r="B274" s="11"/>
-      <c r="C274" s="11"/>
+      <c r="A274" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B274" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
-      <c r="H274" s="11"/>
+      <c r="H274" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="I274" s="11"/>
       <c r="J274" s="11"/>
       <c r="K274" s="11"/>
@@ -20055,14 +20168,22 @@
       <c r="BI274" s="11"/>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="12"/>
-      <c r="B275" s="12"/>
-      <c r="C275" s="12"/>
+      <c r="A275" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B275" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C275" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
       <c r="F275" s="12"/>
       <c r="G275" s="12"/>
-      <c r="H275" s="12"/>
+      <c r="H275" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I275" s="12"/>
       <c r="J275" s="12"/>
       <c r="K275" s="12"/>
@@ -20118,9 +20239,15 @@
       <c r="BI275" s="12"/>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="11"/>
-      <c r="B276" s="11"/>
-      <c r="C276" s="11"/>
+      <c r="A276" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B276" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
       <c r="F276" s="11"/>
@@ -20141,7 +20268,9 @@
       <c r="U276" s="11"/>
       <c r="V276" s="11"/>
       <c r="W276" s="11"/>
-      <c r="X276" s="11"/>
+      <c r="X276" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y276" s="11"/>
       <c r="Z276" s="11"/>
       <c r="AA276" s="11"/>
@@ -20181,9 +20310,15 @@
       <c r="BI276" s="11"/>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="12"/>
-      <c r="B277" s="12"/>
-      <c r="C277" s="12"/>
+      <c r="A277" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B277" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
       <c r="F277" s="12"/>
@@ -20206,7 +20341,9 @@
       <c r="W277" s="12"/>
       <c r="X277" s="12"/>
       <c r="Y277" s="12"/>
-      <c r="Z277" s="12"/>
+      <c r="Z277" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AA277" s="12"/>
       <c r="AB277" s="12"/>
       <c r="AC277" s="12"/>
@@ -20244,9 +20381,15 @@
       <c r="BI277" s="12"/>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="11"/>
-      <c r="B278" s="11"/>
-      <c r="C278" s="11"/>
+      <c r="A278" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B278" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D278" s="11"/>
       <c r="E278" s="11"/>
       <c r="F278" s="11"/>
@@ -20259,7 +20402,9 @@
       <c r="M278" s="11"/>
       <c r="N278" s="11"/>
       <c r="O278" s="11"/>
-      <c r="P278" s="11"/>
+      <c r="P278" s="11" t="n">
+        <v>30</v>
+      </c>
       <c r="Q278" s="11"/>
       <c r="R278" s="11"/>
       <c r="S278" s="11"/>
@@ -20307,9 +20452,15 @@
       <c r="BI278" s="11"/>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="12"/>
-      <c r="B279" s="12"/>
-      <c r="C279" s="12"/>
+      <c r="A279" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B279" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
       <c r="F279" s="12"/>
@@ -20322,7 +20473,9 @@
       <c r="M279" s="12"/>
       <c r="N279" s="12"/>
       <c r="O279" s="12"/>
-      <c r="P279" s="12"/>
+      <c r="P279" s="12" t="n">
+        <v>30</v>
+      </c>
       <c r="Q279" s="12"/>
       <c r="R279" s="12"/>
       <c r="S279" s="12"/>
@@ -20370,9 +20523,15 @@
       <c r="BI279" s="12"/>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="11"/>
-      <c r="B280" s="11"/>
-      <c r="C280" s="11"/>
+      <c r="A280" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B280" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
       <c r="F280" s="11"/>
@@ -20395,7 +20554,9 @@
       <c r="W280" s="11"/>
       <c r="X280" s="11"/>
       <c r="Y280" s="11"/>
-      <c r="Z280" s="11"/>
+      <c r="Z280" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AA280" s="11"/>
       <c r="AB280" s="11"/>
       <c r="AC280" s="11"/>
@@ -20433,9 +20594,15 @@
       <c r="BI280" s="11"/>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="12"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="12"/>
+      <c r="A281" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B281" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
       <c r="F281" s="12"/>
@@ -20465,7 +20632,9 @@
       <c r="AD281" s="12"/>
       <c r="AE281" s="12"/>
       <c r="AF281" s="12"/>
-      <c r="AG281" s="12"/>
+      <c r="AG281" s="12" t="n">
+        <v>370</v>
+      </c>
       <c r="AH281" s="12"/>
       <c r="AI281" s="12"/>
       <c r="AJ281" s="12"/>
@@ -20496,9 +20665,15 @@
       <c r="BI281" s="12"/>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="11"/>
-      <c r="B282" s="11"/>
-      <c r="C282" s="11"/>
+      <c r="A282" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B282" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D282" s="11"/>
       <c r="E282" s="11"/>
       <c r="F282" s="11"/>
@@ -20522,7 +20697,9 @@
       <c r="X282" s="11"/>
       <c r="Y282" s="11"/>
       <c r="Z282" s="11"/>
-      <c r="AA282" s="11"/>
+      <c r="AA282" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB282" s="11"/>
       <c r="AC282" s="11"/>
       <c r="AD282" s="11"/>
@@ -20559,9 +20736,15 @@
       <c r="BI282" s="11"/>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="12"/>
-      <c r="B283" s="12"/>
-      <c r="C283" s="12"/>
+      <c r="A283" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B283" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
       <c r="F283" s="12"/>
@@ -20570,7 +20753,9 @@
       <c r="I283" s="12"/>
       <c r="J283" s="12"/>
       <c r="K283" s="12"/>
-      <c r="L283" s="12"/>
+      <c r="L283" s="12" t="n">
+        <v>20</v>
+      </c>
       <c r="M283" s="12"/>
       <c r="N283" s="12"/>
       <c r="O283" s="12"/>
@@ -20622,11 +20807,19 @@
       <c r="BI283" s="12"/>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="11"/>
-      <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
+      <c r="A284" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B284" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C284" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
+      <c r="E284" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
       <c r="H284" s="11"/>
@@ -20685,9 +20878,15 @@
       <c r="BI284" s="11"/>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="12"/>
-      <c r="B285" s="12"/>
-      <c r="C285" s="12"/>
+      <c r="A285" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B285" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C285" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D285" s="12"/>
       <c r="E285" s="12"/>
       <c r="F285" s="12"/>
@@ -20717,7 +20916,9 @@
       <c r="AD285" s="12"/>
       <c r="AE285" s="12"/>
       <c r="AF285" s="12"/>
-      <c r="AG285" s="12"/>
+      <c r="AG285" s="12" t="n">
+        <v>370</v>
+      </c>
       <c r="AH285" s="12"/>
       <c r="AI285" s="12"/>
       <c r="AJ285" s="12"/>
@@ -20738,7 +20939,9 @@
       <c r="AY285" s="12"/>
       <c r="AZ285" s="12"/>
       <c r="BA285" s="12"/>
-      <c r="BB285" s="12"/>
+      <c r="BB285" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BC285" s="12"/>
       <c r="BD285" s="12"/>
       <c r="BE285" s="12"/>
@@ -20748,9 +20951,15 @@
       <c r="BI285" s="12"/>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="11"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
+      <c r="A286" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B286" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C286" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
       <c r="F286" s="11"/>
@@ -20774,7 +20983,9 @@
       <c r="X286" s="11"/>
       <c r="Y286" s="11"/>
       <c r="Z286" s="11"/>
-      <c r="AA286" s="11"/>
+      <c r="AA286" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB286" s="11"/>
       <c r="AC286" s="11"/>
       <c r="AD286" s="11"/>
@@ -20811,9 +21022,15 @@
       <c r="BI286" s="11"/>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="12"/>
-      <c r="B287" s="12"/>
-      <c r="C287" s="12"/>
+      <c r="A287" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B287" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C287" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D287" s="12"/>
       <c r="E287" s="12"/>
       <c r="F287" s="12"/>
@@ -20833,7 +21050,9 @@
       <c r="T287" s="12"/>
       <c r="U287" s="12"/>
       <c r="V287" s="12"/>
-      <c r="W287" s="12"/>
+      <c r="W287" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="X287" s="12"/>
       <c r="Y287" s="12"/>
       <c r="Z287" s="12"/>
@@ -20874,9 +21093,15 @@
       <c r="BI287" s="12"/>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="11"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="11"/>
+      <c r="A288" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B288" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C288" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
       <c r="F288" s="11"/>
@@ -20904,7 +21129,9 @@
       <c r="AB288" s="11"/>
       <c r="AC288" s="11"/>
       <c r="AD288" s="11"/>
-      <c r="AE288" s="11"/>
+      <c r="AE288" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="AF288" s="11"/>
       <c r="AG288" s="11"/>
       <c r="AH288" s="11"/>
@@ -20927,7 +21154,9 @@
       <c r="AY288" s="11"/>
       <c r="AZ288" s="11"/>
       <c r="BA288" s="11"/>
-      <c r="BB288" s="11"/>
+      <c r="BB288" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BC288" s="11"/>
       <c r="BD288" s="11"/>
       <c r="BE288" s="11"/>
@@ -20937,9 +21166,15 @@
       <c r="BI288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="12"/>
-      <c r="B289" s="12"/>
-      <c r="C289" s="12"/>
+      <c r="A289" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B289" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C289" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D289" s="12"/>
       <c r="E289" s="12"/>
       <c r="F289" s="12"/>
@@ -20962,7 +21197,9 @@
       <c r="W289" s="12"/>
       <c r="X289" s="12"/>
       <c r="Y289" s="12"/>
-      <c r="Z289" s="12"/>
+      <c r="Z289" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AA289" s="12"/>
       <c r="AB289" s="12"/>
       <c r="AC289" s="12"/>
@@ -21000,9 +21237,15 @@
       <c r="BI289" s="12"/>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="11"/>
-      <c r="B290" s="11"/>
-      <c r="C290" s="11"/>
+      <c r="A290" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B290" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D290" s="11"/>
       <c r="E290" s="11"/>
       <c r="F290" s="11"/>
@@ -21026,7 +21269,9 @@
       <c r="X290" s="11"/>
       <c r="Y290" s="11"/>
       <c r="Z290" s="11"/>
-      <c r="AA290" s="11"/>
+      <c r="AA290" s="11" t="n">
+        <v>75</v>
+      </c>
       <c r="AB290" s="11"/>
       <c r="AC290" s="11"/>
       <c r="AD290" s="11"/>
@@ -21063,9 +21308,15 @@
       <c r="BI290" s="11"/>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="12"/>
-      <c r="B291" s="12"/>
-      <c r="C291" s="12"/>
+      <c r="A291" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B291" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D291" s="12"/>
       <c r="E291" s="12"/>
       <c r="F291" s="12"/>
@@ -21089,7 +21340,9 @@
       <c r="X291" s="12"/>
       <c r="Y291" s="12"/>
       <c r="Z291" s="12"/>
-      <c r="AA291" s="12"/>
+      <c r="AA291" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AB291" s="12"/>
       <c r="AC291" s="12"/>
       <c r="AD291" s="12"/>
@@ -21126,9 +21379,15 @@
       <c r="BI291" s="12"/>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="11"/>
-      <c r="B292" s="11"/>
-      <c r="C292" s="11"/>
+      <c r="A292" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B292" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
       <c r="F292" s="11"/>
@@ -21143,7 +21402,9 @@
       <c r="O292" s="11"/>
       <c r="P292" s="11"/>
       <c r="Q292" s="11"/>
-      <c r="R292" s="11"/>
+      <c r="R292" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="S292" s="11"/>
       <c r="T292" s="11"/>
       <c r="U292" s="11"/>
@@ -21189,9 +21450,15 @@
       <c r="BI292" s="11"/>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="12"/>
-      <c r="B293" s="12"/>
-      <c r="C293" s="12"/>
+      <c r="A293" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B293" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D293" s="12"/>
       <c r="E293" s="12"/>
       <c r="F293" s="12"/>
@@ -21217,7 +21484,9 @@
       <c r="Z293" s="12"/>
       <c r="AA293" s="12"/>
       <c r="AB293" s="12"/>
-      <c r="AC293" s="12"/>
+      <c r="AC293" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AD293" s="12"/>
       <c r="AE293" s="12"/>
       <c r="AF293" s="12"/>
@@ -21252,9 +21521,15 @@
       <c r="BI293" s="12"/>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="11"/>
-      <c r="B294" s="11"/>
-      <c r="C294" s="11"/>
+      <c r="A294" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B294" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
       <c r="F294" s="11"/>
@@ -21275,7 +21550,9 @@
       <c r="U294" s="11"/>
       <c r="V294" s="11"/>
       <c r="W294" s="11"/>
-      <c r="X294" s="11"/>
+      <c r="X294" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y294" s="11"/>
       <c r="Z294" s="11"/>
       <c r="AA294" s="11"/>
@@ -21315,9 +21592,15 @@
       <c r="BI294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="12"/>
-      <c r="B295" s="12"/>
-      <c r="C295" s="12"/>
+      <c r="A295" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B295" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D295" s="12"/>
       <c r="E295" s="12"/>
       <c r="F295" s="12"/>
@@ -21341,7 +21624,9 @@
       <c r="X295" s="12"/>
       <c r="Y295" s="12"/>
       <c r="Z295" s="12"/>
-      <c r="AA295" s="12"/>
+      <c r="AA295" s="12" t="n">
+        <v>75</v>
+      </c>
       <c r="AB295" s="12"/>
       <c r="AC295" s="12"/>
       <c r="AD295" s="12"/>
@@ -21378,9 +21663,15 @@
       <c r="BI295" s="12"/>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="11"/>
-      <c r="B296" s="11"/>
-      <c r="C296" s="11"/>
+      <c r="A296" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B296" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
       <c r="F296" s="11"/>
@@ -21401,7 +21692,9 @@
       <c r="U296" s="11"/>
       <c r="V296" s="11"/>
       <c r="W296" s="11"/>
-      <c r="X296" s="11"/>
+      <c r="X296" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y296" s="11"/>
       <c r="Z296" s="11"/>
       <c r="AA296" s="11"/>
@@ -21441,9 +21734,15 @@
       <c r="BI296" s="11"/>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="12"/>
-      <c r="B297" s="12"/>
-      <c r="C297" s="12"/>
+      <c r="A297" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B297" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D297" s="12"/>
       <c r="E297" s="12"/>
       <c r="F297" s="12"/>
@@ -21452,7 +21751,9 @@
       <c r="I297" s="12"/>
       <c r="J297" s="12"/>
       <c r="K297" s="12"/>
-      <c r="L297" s="12"/>
+      <c r="L297" s="12" t="n">
+        <v>20</v>
+      </c>
       <c r="M297" s="12"/>
       <c r="N297" s="12"/>
       <c r="O297" s="12"/>
@@ -21504,9 +21805,15 @@
       <c r="BI297" s="12"/>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="11"/>
-      <c r="B298" s="11"/>
-      <c r="C298" s="11"/>
+      <c r="A298" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B298" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
       <c r="F298" s="11"/>
@@ -21536,7 +21843,9 @@
       <c r="AD298" s="11"/>
       <c r="AE298" s="11"/>
       <c r="AF298" s="11"/>
-      <c r="AG298" s="11"/>
+      <c r="AG298" s="11" t="n">
+        <v>3000</v>
+      </c>
       <c r="AH298" s="11"/>
       <c r="AI298" s="11"/>
       <c r="AJ298" s="11"/>
@@ -21567,14 +21876,22 @@
       <c r="BI298" s="11"/>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="12"/>
-      <c r="B299" s="12"/>
-      <c r="C299" s="12"/>
+      <c r="A299" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B299" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
       <c r="F299" s="12"/>
       <c r="G299" s="12"/>
-      <c r="H299" s="12"/>
+      <c r="H299" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="I299" s="12"/>
       <c r="J299" s="12"/>
       <c r="K299" s="12"/>
@@ -21630,9 +21947,15 @@
       <c r="BI299" s="12"/>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="11"/>
-      <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
+      <c r="A300" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B300" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D300" s="11"/>
       <c r="E300" s="11"/>
       <c r="F300" s="11"/>
@@ -21651,7 +21974,9 @@
       <c r="S300" s="11"/>
       <c r="T300" s="11"/>
       <c r="U300" s="11"/>
-      <c r="V300" s="11"/>
+      <c r="V300" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W300" s="11"/>
       <c r="X300" s="11"/>
       <c r="Y300" s="11"/>
@@ -21683,7 +22008,9 @@
       <c r="AY300" s="11"/>
       <c r="AZ300" s="11"/>
       <c r="BA300" s="11"/>
-      <c r="BB300" s="11"/>
+      <c r="BB300" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="BC300" s="11"/>
       <c r="BD300" s="11"/>
       <c r="BE300" s="11"/>
@@ -21693,9 +22020,15 @@
       <c r="BI300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="12"/>
-      <c r="B301" s="12"/>
-      <c r="C301" s="12"/>
+      <c r="A301" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B301" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C301" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
       <c r="F301" s="12"/>
@@ -21714,7 +22047,9 @@
       <c r="S301" s="12"/>
       <c r="T301" s="12"/>
       <c r="U301" s="12"/>
-      <c r="V301" s="12"/>
+      <c r="V301" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W301" s="12"/>
       <c r="X301" s="12"/>
       <c r="Y301" s="12"/>
@@ -21756,9 +22091,15 @@
       <c r="BI301" s="12"/>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="11"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
+      <c r="A302" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B302" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C302" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D302" s="11"/>
       <c r="E302" s="11"/>
       <c r="F302" s="11"/>
@@ -21788,7 +22129,9 @@
       <c r="AD302" s="11"/>
       <c r="AE302" s="11"/>
       <c r="AF302" s="11"/>
-      <c r="AG302" s="11"/>
+      <c r="AG302" s="11" t="n">
+        <v>370</v>
+      </c>
       <c r="AH302" s="11"/>
       <c r="AI302" s="11"/>
       <c r="AJ302" s="11"/>

--- a/Drops.xlsx
+++ b/Drops.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="70">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020/3/27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020/3/30</t>
   </si>
 </sst>
 </file>
@@ -504,7 +507,7 @@
   <dimension ref="A1:AMJ393"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A225" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C303" activeCellId="0" sqref="C303"/>
+      <selection pane="topLeft" activeCell="F308" activeCellId="0" sqref="F308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22162,9 +22165,15 @@
       <c r="BI302" s="11"/>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="12"/>
-      <c r="B303" s="12"/>
-      <c r="C303" s="12"/>
+      <c r="A303" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B303" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C303" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
       <c r="F303" s="12"/>
@@ -22183,7 +22192,9 @@
       <c r="S303" s="12"/>
       <c r="T303" s="12"/>
       <c r="U303" s="12"/>
-      <c r="V303" s="12"/>
+      <c r="V303" s="12" t="n">
+        <v>50</v>
+      </c>
       <c r="W303" s="12"/>
       <c r="X303" s="12"/>
       <c r="Y303" s="12"/>
@@ -22225,9 +22236,15 @@
       <c r="BI303" s="12"/>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="11"/>
-      <c r="B304" s="11"/>
-      <c r="C304" s="11"/>
+      <c r="A304" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B304" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
       <c r="F304" s="11"/>
@@ -22248,7 +22265,9 @@
       <c r="U304" s="11"/>
       <c r="V304" s="11"/>
       <c r="W304" s="11"/>
-      <c r="X304" s="11"/>
+      <c r="X304" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="Y304" s="11"/>
       <c r="Z304" s="11"/>
       <c r="AA304" s="11"/>
@@ -22288,9 +22307,15 @@
       <c r="BI304" s="11"/>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="12"/>
-      <c r="B305" s="12"/>
-      <c r="C305" s="12"/>
+      <c r="A305" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B305" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C305" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D305" s="12"/>
       <c r="E305" s="12"/>
       <c r="F305" s="12"/>
@@ -22299,7 +22324,9 @@
       <c r="I305" s="12"/>
       <c r="J305" s="12"/>
       <c r="K305" s="12"/>
-      <c r="L305" s="12"/>
+      <c r="L305" s="12" t="n">
+        <v>20</v>
+      </c>
       <c r="M305" s="12"/>
       <c r="N305" s="12"/>
       <c r="O305" s="12"/>
@@ -22351,9 +22378,15 @@
       <c r="BI305" s="12"/>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="11"/>
-      <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
+      <c r="A306" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B306" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C306" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
       <c r="F306" s="11"/>
@@ -22382,7 +22415,9 @@
       <c r="AC306" s="11"/>
       <c r="AD306" s="11"/>
       <c r="AE306" s="11"/>
-      <c r="AF306" s="11"/>
+      <c r="AF306" s="11" t="n">
+        <v>40</v>
+      </c>
       <c r="AG306" s="11"/>
       <c r="AH306" s="11"/>
       <c r="AI306" s="11"/>
@@ -22414,9 +22449,15 @@
       <c r="BI306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="12"/>
-      <c r="B307" s="12"/>
-      <c r="C307" s="12"/>
+      <c r="A307" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B307" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C307" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D307" s="12"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
@@ -22442,7 +22483,9 @@
       <c r="Z307" s="12"/>
       <c r="AA307" s="12"/>
       <c r="AB307" s="12"/>
-      <c r="AC307" s="12"/>
+      <c r="AC307" s="12" t="n">
+        <v>40</v>
+      </c>
       <c r="AD307" s="12"/>
       <c r="AE307" s="12"/>
       <c r="AF307" s="12"/>
@@ -22477,9 +22520,15 @@
       <c r="BI307" s="12"/>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="11"/>
-      <c r="B308" s="11"/>
-      <c r="C308" s="11"/>
+      <c r="A308" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B308" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C308" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
       <c r="F308" s="11"/>
@@ -22498,7 +22547,9 @@
       <c r="S308" s="11"/>
       <c r="T308" s="11"/>
       <c r="U308" s="11"/>
-      <c r="V308" s="11"/>
+      <c r="V308" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W308" s="11"/>
       <c r="X308" s="11"/>
       <c r="Y308" s="11"/>
@@ -22540,9 +22591,15 @@
       <c r="BI308" s="11"/>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="12"/>
-      <c r="B309" s="12"/>
-      <c r="C309" s="12"/>
+      <c r="A309" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B309" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C309" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D309" s="12"/>
       <c r="E309" s="12"/>
       <c r="F309" s="12"/>
@@ -22573,7 +22630,9 @@
       <c r="AE309" s="12"/>
       <c r="AF309" s="12"/>
       <c r="AG309" s="12"/>
-      <c r="AH309" s="12"/>
+      <c r="AH309" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI309" s="12"/>
       <c r="AJ309" s="12"/>
       <c r="AK309" s="12"/>
@@ -22603,9 +22662,15 @@
       <c r="BI309" s="12"/>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="11"/>
-      <c r="B310" s="11"/>
-      <c r="C310" s="11"/>
+      <c r="A310" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B310" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C310" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
       <c r="F310" s="11"/>
@@ -22632,7 +22697,9 @@
       <c r="AA310" s="11"/>
       <c r="AB310" s="11"/>
       <c r="AC310" s="11"/>
-      <c r="AD310" s="11"/>
+      <c r="AD310" s="11" t="n">
+        <v>3</v>
+      </c>
       <c r="AE310" s="11"/>
       <c r="AF310" s="11"/>
       <c r="AG310" s="11"/>
@@ -22666,9 +22733,15 @@
       <c r="BI310" s="11"/>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="12"/>
-      <c r="B311" s="12"/>
-      <c r="C311" s="12"/>
+      <c r="A311" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B311" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C311" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D311" s="12"/>
       <c r="E311" s="12"/>
       <c r="F311" s="12"/>
@@ -22678,7 +22751,9 @@
       <c r="J311" s="12"/>
       <c r="K311" s="12"/>
       <c r="L311" s="12"/>
-      <c r="M311" s="12"/>
+      <c r="M311" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="N311" s="12"/>
       <c r="O311" s="12"/>
       <c r="P311" s="12"/>
@@ -22729,9 +22804,15 @@
       <c r="BI311" s="12"/>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="11"/>
-      <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
+      <c r="A312" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B312" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C312" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D312" s="11"/>
       <c r="E312" s="11"/>
       <c r="F312" s="11"/>
@@ -22750,7 +22831,9 @@
       <c r="S312" s="11"/>
       <c r="T312" s="11"/>
       <c r="U312" s="11"/>
-      <c r="V312" s="11"/>
+      <c r="V312" s="11" t="n">
+        <v>50</v>
+      </c>
       <c r="W312" s="11"/>
       <c r="X312" s="11"/>
       <c r="Y312" s="11"/>
@@ -22792,9 +22875,15 @@
       <c r="BI312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="12"/>
-      <c r="B313" s="12"/>
-      <c r="C313" s="12"/>
+      <c r="A313" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B313" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C313" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D313" s="12"/>
       <c r="E313" s="12"/>
       <c r="F313" s="12"/>
@@ -22825,7 +22914,9 @@
       <c r="AE313" s="12"/>
       <c r="AF313" s="12"/>
       <c r="AG313" s="12"/>
-      <c r="AH313" s="12"/>
+      <c r="AH313" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="AI313" s="12"/>
       <c r="AJ313" s="12"/>
       <c r="AK313" s="12"/>
@@ -22847,7 +22938,9 @@
       <c r="BA313" s="12"/>
       <c r="BB313" s="12"/>
       <c r="BC313" s="12"/>
-      <c r="BD313" s="12"/>
+      <c r="BD313" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="BE313" s="12"/>
       <c r="BF313" s="12"/>
       <c r="BG313" s="12"/>
@@ -22855,9 +22948,15 @@
       <c r="BI313" s="12"/>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="11"/>
-      <c r="B314" s="11"/>
-      <c r="C314" s="11"/>
+      <c r="A314" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B314" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C314" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
       <c r="F314" s="11"/>
@@ -22866,7 +22965,9 @@
       <c r="I314" s="11"/>
       <c r="J314" s="11"/>
       <c r="K314" s="11"/>
-      <c r="L314" s="11"/>
+      <c r="L314" s="11" t="n">
+        <v>20</v>
+      </c>
       <c r="M314" s="11"/>
       <c r="N314" s="11"/>
       <c r="O314" s="11"/>
@@ -22918,9 +23019,15 @@
       <c r="BI314" s="11"/>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="12"/>
-      <c r="B315" s="12"/>
-      <c r="C315" s="12"/>
+      <c r="A315" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B315" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C315" s="12" t="n">
+        <v>2</v>
+      </c>
       <c r="D315" s="12"/>
       <c r="E315" s="12"/>
       <c r="F315" s="12"/>
@@ -22934,7 +23041,9 @@
       <c r="N315" s="12"/>
       <c r="O315" s="12"/>
       <c r="P315" s="12"/>
-      <c r="Q315" s="12"/>
+      <c r="Q315" s="12" t="n">
+        <v>1</v>
+      </c>
       <c r="R315" s="12"/>
       <c r="S315" s="12"/>
       <c r="T315" s="12"/>
@@ -22981,9 +23090,15 @@
       <c r="BI315" s="12"/>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="11"/>
-      <c r="B316" s="11"/>
-      <c r="C316" s="11"/>
+      <c r="A316" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B316" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
       <c r="F316" s="11"/>
@@ -22991,7 +23106,9 @@
       <c r="H316" s="11"/>
       <c r="I316" s="11"/>
       <c r="J316" s="11"/>
-      <c r="K316" s="11"/>
+      <c r="K316" s="11" t="n">
+        <v>2</v>
+      </c>
       <c r="L316" s="11"/>
       <c r="M316" s="11"/>
       <c r="N316" s="11"/>
@@ -23044,7 +23161,9 @@
       <c r="BI316" s="11"/>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="12"/>
+      <c r="A317" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
       <c r="D317" s="12"/>
@@ -23107,7 +23226,9 @@
       <c r="BI317" s="12"/>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="11"/>
+      <c r="A318" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
       <c r="D318" s="11"/>
@@ -23170,7 +23291,9 @@
       <c r="BI318" s="11"/>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="12"/>
+      <c r="A319" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
       <c r="D319" s="12"/>
@@ -23233,7 +23356,9 @@
       <c r="BI319" s="12"/>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="11"/>
+      <c r="A320" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B320" s="11"/>
       <c r="C320" s="11"/>
       <c r="D320" s="11"/>
@@ -23296,7 +23421,9 @@
       <c r="BI320" s="11"/>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="12"/>
+      <c r="A321" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
       <c r="D321" s="12"/>
@@ -23359,7 +23486,9 @@
       <c r="BI321" s="12"/>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="11"/>
+      <c r="A322" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
       <c r="D322" s="11"/>
@@ -23422,7 +23551,9 @@
       <c r="BI322" s="11"/>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="12"/>
+      <c r="A323" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
       <c r="D323" s="12"/>
@@ -23485,7 +23616,9 @@
       <c r="BI323" s="12"/>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="11"/>
+      <c r="A324" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
       <c r="D324" s="11"/>
@@ -23548,7 +23681,9 @@
       <c r="BI324" s="11"/>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="12"/>
+      <c r="A325" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
       <c r="D325" s="12"/>
@@ -23611,7 +23746,9 @@
       <c r="BI325" s="12"/>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="11"/>
+      <c r="A326" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
       <c r="D326" s="11"/>
@@ -23674,7 +23811,9 @@
       <c r="BI326" s="11"/>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="12"/>
+      <c r="A327" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
       <c r="D327" s="12"/>
@@ -23737,7 +23876,9 @@
       <c r="BI327" s="12"/>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="11"/>
+      <c r="A328" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
       <c r="D328" s="11"/>
@@ -23800,7 +23941,9 @@
       <c r="BI328" s="11"/>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="12"/>
+      <c r="A329" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
       <c r="D329" s="12"/>
@@ -23863,7 +24006,9 @@
       <c r="BI329" s="12"/>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="11"/>
+      <c r="A330" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
       <c r="D330" s="11"/>
@@ -23926,7 +24071,9 @@
       <c r="BI330" s="11"/>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="12"/>
+      <c r="A331" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
       <c r="D331" s="12"/>
@@ -23989,7 +24136,9 @@
       <c r="BI331" s="12"/>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="11"/>
+      <c r="A332" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
@@ -24052,7 +24201,9 @@
       <c r="BI332" s="11"/>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="12"/>
+      <c r="A333" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
       <c r="D333" s="12"/>
@@ -24115,7 +24266,9 @@
       <c r="BI333" s="12"/>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="11"/>
+      <c r="A334" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
@@ -24178,7 +24331,9 @@
       <c r="BI334" s="11"/>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="12"/>
+      <c r="A335" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
       <c r="D335" s="12"/>
@@ -24241,7 +24396,9 @@
       <c r="BI335" s="12"/>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="11"/>
+      <c r="A336" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
       <c r="D336" s="11"/>
@@ -24304,7 +24461,9 @@
       <c r="BI336" s="11"/>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="12"/>
+      <c r="A337" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
@@ -24367,7 +24526,9 @@
       <c r="BI337" s="12"/>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="11"/>
+      <c r="A338" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
@@ -24430,7 +24591,9 @@
       <c r="BI338" s="11"/>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="12"/>
+      <c r="A339" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
@@ -24493,7 +24656,9 @@
       <c r="BI339" s="12"/>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="11"/>
+      <c r="A340" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
@@ -24556,7 +24721,9 @@
       <c r="BI340" s="11"/>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="12"/>
+      <c r="A341" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
       <c r="D341" s="12"/>
@@ -24619,7 +24786,9 @@
       <c r="BI341" s="12"/>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="11"/>
+      <c r="A342" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
@@ -24682,7 +24851,9 @@
       <c r="BI342" s="11"/>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="12"/>
+      <c r="A343" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
       <c r="D343" s="12"/>
@@ -24745,7 +24916,9 @@
       <c r="BI343" s="12"/>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="11"/>
+      <c r="A344" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
       <c r="D344" s="11"/>
@@ -24808,7 +24981,9 @@
       <c r="BI344" s="11"/>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="12"/>
+      <c r="A345" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
       <c r="D345" s="12"/>
@@ -24871,7 +25046,9 @@
       <c r="BI345" s="12"/>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="11"/>
+      <c r="A346" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
       <c r="D346" s="11"/>
@@ -24934,7 +25111,9 @@
       <c r="BI346" s="11"/>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="12"/>
+      <c r="A347" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
       <c r="D347" s="12"/>
@@ -24997,7 +25176,9 @@
       <c r="BI347" s="12"/>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="11"/>
+      <c r="A348" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
       <c r="D348" s="11"/>
@@ -25060,7 +25241,9 @@
       <c r="BI348" s="11"/>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="12"/>
+      <c r="A349" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
       <c r="D349" s="12"/>
@@ -25123,7 +25306,9 @@
       <c r="BI349" s="12"/>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="11"/>
+      <c r="A350" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
@@ -25186,7 +25371,9 @@
       <c r="BI350" s="11"/>
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="12"/>
+      <c r="A351" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
       <c r="D351" s="12"/>
@@ -25249,7 +25436,9 @@
       <c r="BI351" s="12"/>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="11"/>
+      <c r="A352" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
@@ -25312,7 +25501,9 @@
       <c r="BI352" s="11"/>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="12"/>
+      <c r="A353" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
       <c r="D353" s="12"/>
@@ -25375,7 +25566,9 @@
       <c r="BI353" s="12"/>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="11"/>
+      <c r="A354" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
       <c r="D354" s="11"/>
@@ -25438,7 +25631,9 @@
       <c r="BI354" s="11"/>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="12"/>
+      <c r="A355" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
       <c r="D355" s="12"/>
@@ -25501,7 +25696,9 @@
       <c r="BI355" s="12"/>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="11"/>
+      <c r="A356" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
       <c r="D356" s="11"/>
@@ -25564,7 +25761,9 @@
       <c r="BI356" s="11"/>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="12"/>
+      <c r="A357" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
       <c r="D357" s="12"/>
@@ -25627,7 +25826,9 @@
       <c r="BI357" s="12"/>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="11"/>
+      <c r="A358" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
@@ -25690,7 +25891,9 @@
       <c r="BI358" s="11"/>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="12"/>
+      <c r="A359" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
       <c r="D359" s="12"/>
@@ -25753,7 +25956,9 @@
       <c r="BI359" s="12"/>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="11"/>
+      <c r="A360" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
@@ -25816,7 +26021,9 @@
       <c r="BI360" s="11"/>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="12"/>
+      <c r="A361" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
       <c r="D361" s="12"/>
@@ -25879,7 +26086,9 @@
       <c r="BI361" s="12"/>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="11"/>
+      <c r="A362" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
@@ -25942,7 +26151,9 @@
       <c r="BI362" s="11"/>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="12"/>
+      <c r="A363" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
       <c r="D363" s="12"/>
@@ -26005,7 +26216,9 @@
       <c r="BI363" s="12"/>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="11"/>
+      <c r="A364" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
       <c r="D364" s="11"/>
@@ -26068,7 +26281,9 @@
       <c r="BI364" s="11"/>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="12"/>
+      <c r="A365" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
       <c r="D365" s="12"/>
@@ -26131,7 +26346,9 @@
       <c r="BI365" s="12"/>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="11"/>
+      <c r="A366" s="11" t="s">
+        <v>69</v>
+      </c>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
